--- a/climate_tracker/country_targets.xlsx
+++ b/climate_tracker/country_targets.xlsx
@@ -8,17 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="Target Overview" sheetId="1" r:id="rId1"/>
-    <sheet name="National target Updates" sheetId="2" r:id="rId2"/>
+    <sheet name="NDC Updates" sheetId="2" r:id="rId2"/>
     <sheet name="CAT rating of targets" sheetId="3" r:id="rId3"/>
     <sheet name="Net zero and other long-term t" sheetId="4" r:id="rId4"/>
-    <sheet name="NDC updates" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="169">
   <si>
     <t>country_name</t>
   </si>
@@ -26,481 +25,505 @@
     <t>target_description</t>
   </si>
   <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>The Gambia</t>
+  </si>
+  <si>
+    <t>Türkiye</t>
+  </si>
+  <si>
+    <t>UAE</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
     <t>Germany</t>
   </si>
   <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
     <t>India</t>
   </si>
   <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>EU</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>South Korea</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>The Gambia</t>
-  </si>
-  <si>
-    <t>Türkiye</t>
-  </si>
-  <si>
-    <t>UAE</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
     <t>Iran (Islamic Republic of)</t>
   </si>
   <si>
     <t>Japan</t>
   </si>
   <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Mexico</t>
+    <t>In its NDC, Argentina has set an unconditional target of not exceeding 349 MtCO 2 e in 2030. This target covers all sectors. The CAT excludes emissions from land use, land use change and forestry from this target and converts it to GWP AR4, resulting in 351 MtCO 2 e in 2030. To obtain the NDC emissions level excluding LULUCF, the CAT uses a Business-As-Usual (BAU) scenario for the LULUCF sector developed by UNICEN (Keesler &amp; Blanco, 2024). For more details, please see the Assumptions section . The CAT rates this target as “Highly insufficient” both when compared to required domestic efforts, and when compared to Argentina’s fair share. In November 2022, Argentina submitted a long-term strategy (LTS) to the UNFCCC that includes a target to reach GHG neutrality by 2050 (Government of Argentina, 2022a). [ NOTE: assumptions made to quantify these targets are included in the Assumptions section ]</t>
+  </si>
+  <si>
+    <t>In December 2020, Kenya submitted its updated NDC to the UNFCCC, setting a new target of reducing GHG emissions by 32% by 2030, relative to the business as usual (BAU) scenario of 153 MtCO 2 e including LULUCF (143 MtCO 2 e using IPCC SAR values). This target covers all sectors, and is a small improvement from the previous target of a 30% reduction below BAU. While the previous NDC target was entirely conditional on international support, Kenya now commits to bearing 21% of the mitigation costs, or USD 3.7bn, itself, although the government notes that its financing needs may change with changing circumstances. We calculate this unconditional contribution to be equivalent to an unconditional target of 7% below BAU, including LULUCF – or 4% below BAU, excluding LULUCF emissions. This corresponds to emissions levels of 126 MtCO 2 e by 2030 (expressed in AR4 values) (see assumptions section). In its first NDC, Kenya included a separate target of 47% for the LULUCF sector. While the government has dropped explicit reference to this target in the update, we assume Kenya will meet about half of its NDC with reductions in land sector emissions. Excluding this sector, emissions in 2030 will be slightly lower under the new conditional target, decreasing from 110 to 108 MtCO 2 e. The new conditional target is equivalent to a 17% reduction below BAU by 2030 (excl. LULUCF). Kenya does not have a net zero target. It is preparing its long-term strategy.</t>
+  </si>
+  <si>
+    <t>Mexico submitted an updated NDC in November 2022, during COP27. The submission includes an unconditional emissions reduction target from BAU by up to 35% in 2030 for all greenhouse gases – up from a previous 22% emissions reduction target (Gobierno de México, 2022). It specifies that 30% of the reduction is to be achieved with own resources and the additional 5% with already agreed international cooperation and finance for ‘clean energies 1 ’. The NDC update also includes a climate target conditional to international support to reduced up to 40% emissions from BAU in 2030. The NDC update includes 2030 targets only and does not mention updates to the mid-century strategy from 2016 2 , a net zero target, nor any other long-term target. The update also explicitly removes the target to peak emissions in 2026. The 2020 NDC update was revoked in 2021 as the targets were less ambitious and less transparent than the original 2016 NDC (Gobierno de Mexico, 2020; Poder Judicial de la Federación, 2021). Already then, the BAU had been revised upwards and Mexico was using creative accounting in the BAU and target which led to higher absolute emissions levels. The recent NDC update includes a BAU baseline that has been revised upwards in comparison to its 2016 NDC and is very similar to the (no longer valid) 2022 NDC update. This update is also less transparent as it excludes the expected contribution of each sector to the achievement of the targets and it includes emissions but excludes absorptions from forestry for the BAU. Sinks, however, can be counted for achieving the target: this “gross-net” approach means that the targets require less action in other sectors. While the text mentions a number of measures in all sectors, it does not include any of the expected emissions reduction from these measures nor the total expected contribution from each sector. As a consequence of the higher BAU and creative accounting, we estimate that Mexico’s updated 2030 climate targets are less ambitious when expressed as an absolute emissions limit than those submitted in 2016. Despite submitting an NDC update in 2020, it was revoked in 2021 on the grounds of being less ambitious as the original 2016 NDC, breaching the Paris Agreement and Mexican law. We therefore do not compare this update against the 2020 NDC update, instead comparing it against the 2016 NDC. To increase the transparency of the targets, Mexico could opt to present its climate commitments as an absolute emissions limit instead of making them dependent on a shifting baseline scenario. To assess the targets in the absence of sectoral contributions – most prominently the forestry sector – we have calculated the absolute emissions level of the targets as a range where we consider the same level of emissions and sinks of that of the BAU baseline for the lower end and the historical emissions from the BAU baseline, 2013, for the upper end (see figure below). For further details please see the Assumptions section. Based on these assumptions, we estimate Mexico’s proposed unconditional NDC excluding the contribution of the forestry sector as not exceeding 786 – 863 MtCO 2 e in 2030, and its target conditional on international support as 689 – 766 MtCO 2 e in the same year. We rate Mexico’s proposed 2030 unconditional NDC target as “Critically insufficient” when compared with its fair-share contribution to climate action, and its conditional NDC target as “Highly insufficient” when compared to modelled domestic emissions pathways. 1 Mexico includes electricity generation through fossil gas efficient cogeneration of as part of its definition of ‘clean energies’. 2 Mexico’s Mid-century strategy from 2016 outlines the intention to reduce greenhouse gas emissions by 50% in 2050 below 2000 levels (Government of Mexico, 2016). We do not consider this as a “net-zero target” and will re-assess our analysis of this target once there is more clarity. Black Carbon and Mexico’s NDC Mexico’s NDC includes unconditional and conditional targets to reduce black carbon (BC) emissions, which has substantial co-benefits for human health. However, reductions in black carbon are generally not additional to reductions in CO 2 emissions, because large fractions of black-carbon emissions stem from the same emission sources as CO 2 . Emissions reduction policies therefore often reduce CO 2 and black carbon simultaneously, and this is already included in calculations of the emissions reductions in greenhouse gases required to hold warming well below 2°C globally, such as the “emissions gap” and “fair share” reductions. From the climate perspective, however, there is no established scientific method to compare the climate benefits of black-carbon reductions to those of CO 2 and other greenhouse gases. In the AR5, the IPCC does not provide calculations of GWP for BC comparable to those provided for greenhouse gases, merely noting the inherent difficulties in doing so and limiting itself to just displaying estimates from the pre-AR5 literature. While Mexico’s NDC specifies a metric to compare BC with CO 2 (GWP of 900), this is based on a single literature source (pre-dating IPCC AR5), which itself notes the very large uncertainties of around 100%.</t>
+  </si>
+  <si>
+    <t>Morocco submitted its latest NDC update to the UNFCCC in July 2021, strengthening its initial pledge. The updated target includes an unconditional emissions reduction of 18.3% below BAU by 2030, up from a 17% reduction in the previous NDC. Thanks to an updated BAU scenario, this new target translates to an absolute emissions level that is 21% lower than the previous target—from 145 MtCO 2 e in the 2016 submission to 118 MtCO 2 e in the latest one (excluding LULUCF). The conditional target was strengthened to 45% below BAU by 2030, up from a 42% reduction target in the first NDC. We estimate this would translate to an absolute emissions level of 84 MtCO 2 e by 2030. The CAT rates Morocco’s target as "Almost sufficient" when rated against modelled domestic pathways and when rated against the fair share contribution. Morocco is on track to meet its unconditional target by 2030. However, it will only achieve its conditional target if all planned policies are implemented. In December 2021, Morocco submitted its long-term strategy (LTS) to the UNFCCC, in which it committed to increase the share of renewable energy in the electricity mix to 80% by 2050 (Kingdom of Morocco, 2021c). In its LTS, Morocco also stated it will explore scenarios to achieve net zero emissions . The government intends to consider scenarios based on sectoral analysis to achieve carbon neutrality by the end of the century. However, a concrete plan has yet to be released. Morocco has not submitted a new NDC since COP26 despite all countries having been invited to do so before COP27.On 8 November 2021, the disputed Saharawi Arab Democratic Republic (SADR) published an indicative Nationally Determined Contribution (iNDC) for Western Sahara . It should be noted that the CAT only took into account the NDC provided by the Moroccan government and does not cover the iNDC, as SADR is not a party to the UNFCCC. It remains unclear to what extent Morocco’s planned mitigation measures, in particular in the renewable energy sector, will also be implemented in the disputed Western Sahara region.</t>
+  </si>
+  <si>
+    <t>In its latest NDC, Nepal has set an activity-based target for both its unconditional and conditional targets. The unconditional target covers the energy sector by adding 5 GW of clean energy. However, given the NDC has no unconditional emissions reduction target, the CAT could not quantify this unconditional target, and has therefore had to use Nepal’s current policy projections as its unconditional target. The CAT rates this as “1.5°C compatible” compared to Nepal's fair share. According to CAT calculations, the new conditional NDC would lead to emission levels between 59–64 MtCO 2 e in 2030, depending on the interpretation of the sectoral targets and the overlaps with the energy sector targets. The CAT rates this as “Critically insufficient” against modelled domestic pathways. *For details on what we do for our Optimistic Target global temperature estimate, see the Assumptions tab.</t>
+  </si>
+  <si>
+    <t>New Zealand submitted its updated NDC in November 2021, increasing its net emissions reduction target to 50% below gross 2005 levels by 2030 including LULUCF. We estimate that the emissions level excluding LULUCF targeted by the NDC is 51 MtCO 2 e in 2030. New Zealand is in the small group of countries still using a gross - net approach for its emissions projections, despite wide criticism in terms of the environmental integrity of the target (Rocha et al. 2015). New Zealand excludes LULUCF emissions in the base year (2005) but accounts for them in the target year (2030) (see Assumptions section). While the update strengthens the country’s 2030 target, the effect is nowhere near a 50% reduction, as the government has deployed misleading accounting methods that more than halve its effective reduction in net emissions to 22% below 2005 levels by 2030. New Zealand passed its Zero Carbon amendment to the Climate Change Response Act in 2019, which sets a target for all greenhouse gases except for biogenic methane – methane from agriculture and waste – to reach net zero by 2050. The methodology the Climate Change Commission used to calculate emissions required for a 1.5°C pathway for 2030 and 2050 in relation to the NDC update was challenged in a judicial review to the High Court in February 2022 (Wannan 2022a). However, the High Court rejected the claim, and in its November 2022 judgment, ruled that the Act does not impose any legally binding obligation on the government to set an emissions budget compatible with the 1.5°C temperature limit (Daalder 2022). The New Zealand Government plans to meet its NDC target through a combination of domestic emissions reductions, use of market mechanisms to purchase international offsets, and removal of carbon dioxide by forest offsets (New Zealand Government 2021a). Legislation reforms have ruled out using emissions carryover under the Kyoto Protocol period to meet the NDC (New Zealand Government 2020b). New Zealand’s current NDC target is around 19 MtCO 2 e away from its 1.5°C compatible fair share range of CAT and is rated “Insufficient”. When assuming the entire target will be achieved domestically (which is not the case), the rating is “Almost sufficient”. This implies that not only does New Zealand need to strengthen that target slightly but to achieve the entire target through domestic reductions, it also needs to support reductions to achieve its fair share. The gap between New Zealand’s 1.5˚C compatible domestic target and fair share contribution is around 15 MtCO 2 e which is similar to the offshore abatement government plans to use to meet NDC target (Ministry for the Environment 2022a). The amount of carbon market credits New Zealand is considering would allow the country to close its fair share gap. However, for 1.5˚C compatibility, the government needs to achieve and exceed its current NDC target through domestic reductions alone, which is not the current plan.</t>
+  </si>
+  <si>
+    <t>Australia’s NDC targets a 2030 emissions reduction of 43% below 2005 levels. The CAT excludes emissions from land use, land use change and forestry from this target, resulting in 422 MtCO 2 e (429 MtCO 2 e with AR5 GWPs) in 2030 excluding LULUCF. The CAT rates this target as “Insufficient” compared to both modelled domestic pathways and its fair share of global efforts. The target has also decreased in ambition between 2023 and 2024 because of the increases in LULUCF sequestration estimates (see section on Forestry in the Policies and actions tab). Australia is preparing a new Net Zero Plan as an update to its current Long-Term Strategy (LTS). Its current long-term emissions reduction plan for achieving net zero emissions by 2050, submitted to the UNFCCC as an LTS, was published in October 2021. The current strategy only reduces emissions by 60% below 2005 levels, excluding LULUCF and offsets.</t>
+  </si>
+  <si>
+    <t>Bhutan’s second NDC target is to remain carbon neutral. In other words, Bhutan must keep emissions below the level of its net LULUCF sink. In its second NDC, Bhutan states that its LULUCF sink is based on a 2015 base year as it uses the estimate in its Third National Communication (NC3) (Royal Government of Bhutan 2021). Bhutan reported a net LULUCF sink of 7.8 MtCO 2 e in its NC3 (Royal Government of Bhutan 2020a). Following standard CAT rating methodology , this target would be rated as “Critically insufficient” compared to both Bhutan’s fair share and to the emissions reductions needed within its borders to limit warming to 1.5°C based on global least cost pathways. We have applied an alternative method to rate Bhutan’s NDC, given the fact that it is already carbon neutral (see below for details). Under this approach, we rate where Bhutan’s emissions will be in 2030 under a business-as-usual trajectory against Bhutan’s fair share contribution level. This results in an “Almost sufficient” rating. When we rate where Bhutan’s emissions will be in 2030 if its sectoral measures are fully implemented against where its emissions would need to be based on a global least cost modelled pathway for 1.5°C, Bhutan is rated as “1.5°C global least cost”. In its second NDC, Bhutan has mentioned the goal to achieve net zero emissions by 2050, but given Bhutan’s current carbon negative status, this goal has already been achieved. The CAT currently does not evaluate Bhutan’s net zero target as no further information has been provided beyond the NDC. We will further evaluate the target once more information becomes available.</t>
+  </si>
+  <si>
+    <t>On 27 October 2023, the Brazilian government reverted to the original NDC's absolute emission targets it submitted when it joined the Paris Agreement in 2016, moving away from the NDC updates communicated by the Bolsonaro administration. In this 2023 NDC, Brazil sets an unconditional target to limit emissions to 1.32 GtCO 2 e in 2025 and to 1.2 GtCO 2 e in 2030. This target covers all sectors and is reported using AR5 GWP values. The CAT excludes emissions from the land use, land use change and forestry (LULUCF) sector and converts it to AR4 GWP (see Assumptions section for more details), resulting in a 2025 target of up to 979 MtCO 2 e and a 2030 target of up to 884 MtCO 2 e. The CAT rates Brazil’s 2030 target as “Almost sufficient” when compared to both Brazil’s fair share and modelled domestic pathways. In its NDC, Brazil includes a goal to reach climate neutrality by 2050 but they it not submitted an LTS or communicated further details on the target. In particular, Brazil should clearly state its plans for reducing emissions in all sectors, including LULUCF. * Using Global Warming Potential (GWP) values from the IPCC AR5 report</t>
+  </si>
+  <si>
+    <t>Chile’s submitted its updated 2020 NDC to the UNFCCC in April 2020 (Government of Chile, 2020a). It includes two 2030 emissions reduction targets: an absolute unconditional target of 95 MtCO2e or a budget of 1,100 MtCO2e (2020–2030) and an emissions reduction target of up to 45% net GHG emissions conditional on specific financial, markets, technological and political conditions. With the approval of the Climate Change Framework Law in June 2020, this target is legally binding. Chile also announced a net zero GHG target for 2050 which was enshrined in law in June 2022 with the passing of the Framework Law on Climate Change (Congreso Nacional de Chile, 2022).</t>
+  </si>
+  <si>
+    <t>China submitted its updated NDC to the UNFCCC on October 28, 2021, ahead of COP26. The NDC update strengthened and expanded previous 2030 NDC targets and added a fifth new target of increasing wind and solar power installed capacity to over 1,200 GW by 2030. Our revised assessment of the country’s policies shows that China is expected to significantly overachieve its energy-related NDC targets without a substantial increase in implementing additional mitigation policy but could be in danger of missing its carbon intensity target if emissions do not decline in the latter half of the decade. The emissions reduction potential of the forest stock volume target is unclear and therefore not quantified. The CAT has retained its “Highly Insufficient” rating for China’s NDC targets when assessed against modelled domestic pathways (MDP). However, the rating for China’s targets assessed against fair share has improved to “Insufficient” due to an update in the underlying data rather than any actual change in the targets. But whether China should receive some climate finance from abroad to reduce its emissions is a matter of debate. Our methods do not provide a clear answer to this question. On balance, the CAT methodology shows China needing a small but important amount of international support is consistent with the wide range of literature on fair share contributions to meeting the Paris Agreement's goals. In any case, the NDC target achieved with its own resources would need to be increased significantly to be in line with the 1.5°C limit. China also submitted its Mid-Century Long-Term Low Greenhouse Gas Emission Development Strategy (LTS) with its NDC at the same time, containing the government’s commitment to reach “carbon neutrality before 2060”. Due to the size of China’s emissions, the difference in emissions coverage could make up to 0.1°C more (CO 2 only) or less (all GHGs) warming in 2100. Given the LTS submission does not meet the majority of our criteria for a best-practice approach in LTS formulation, we evaluate China’s net-zero target as “Poor”. *This range refers to the median of the two NDC targets expected to result in lowest emissions. The lower bound is the lowest estimate for the peaking target and the upper bound is the carbon intensity target. See the Assumptions tab for more details.</t>
+  </si>
+  <si>
+    <t>In its updated NDC, Colombia has set an unconditional target of not exceeding 161 MCO 2 e (AR4) in 2030 (equivalent to a 51% reduction in emissions compared to the projection of emissions in 2030 in the reference scenario). This target covers all sectors. CAT excludes emissions from land use, land use change and forestry from this target. For further details on the calculation, see the Assumptions section. CAT rates this target as “Insufficient” when compared to required domestic efforts, and "Almost sufficient” compared to Colombia’s fair share. Colombia has a net zero target and has submitted a long-term strategy to the UNFCCC. Both the NDC and net zero targets are enshrined in law. * Colombia’s NDC reports use the GWP from AR5. ** This value was converted using GWP from AR4 and excl. LULUCF.</t>
+  </si>
+  <si>
+    <t>Costa Rica’s December 2020 NDC includes a target of 9.11 MtCO 2 e emissions in 2030 and a cumulative emissions budget between 2021 and 2030 of 106.53 MtCO 2 e emissions (including LULUCF with global warming potentials, GWPs, from the IPCC’s Second Assessment Report, SAR). The CAT estimates the 2030 target to be 11.9 to 12.5 MtCO 2 e excluding LULUCF in GWPs from the IPCC’s fourth assessment report (see “Assumptions” section for details). For 2030, this is equivalent to a decrease between 7% to 11% below 2010 levels excluding LULUCF. The CAT rates Costa Rica’s 2030 NDC target as “Almost Sufficient" when rated against modelled domestic pathways ("NDC target against modelled domestic pathways"), and "1.5°C compatible" when rated against the fair share contribution ("NDC target against fair share"). Costa Rica does not specify a conditional target or an international element in its NDC, so we rate the unconditional target against the two rating frameworks.</t>
+  </si>
+  <si>
+    <t>Following the current Norwegian Labour government pledge to strengthen Norway’s 2030 emissions reduction target in early 2022, Norway formally submitted a renewed 2030 emissions reduction target in the run up to COP27, changing from 50% to at least 55% below 1990 levels in its updated NDC. This puts it in line with the EU’s target. Norway intends to achieve this target in collaboration with the European Union. Norway will regulate emissions from all economic sectors through three pieces of legislation: the EU Emissions Trading Scheme, the EU Effort Sharing Regulation (ESR) and the Land Use, Land-Use Change and Forestry (LULUCF) Regulation. Under the EU’s Effort Sharing Regulation, which covers sectors not included in the EU ETS, Norway is only required to reduce emissions by 40% by 2030, though Norway increased this to 45%. This target is not compatible with its overall 55% target seeing as most of Norway’s emissions reductions must come from sectors not covered by the EU ETS. Under the LULUCF Regulation, Norway commits to no net emissions from the LULUCF sector between 2021 and 2030 (Government of Norway, 2020c). Norway is permitted to use up to 1.6 MtCO 2 e in net removals from the land sector towards meeting its NDC.</t>
+  </si>
+  <si>
+    <t>The Philippines has submitted an updated Nationally Determined Contribution (NDC) target of reducing greenhouse gas emissions by 75% below a cumulative business as usual (BAU) pathway for 2020-2030 (Philippines Government, 2021). Most of this commitment is conditional on international support. A small fraction, 2.71% of the 75% targeted emissions avoidance, is unconditional. The 2021 NDC also refers to an aspirational target to peak emissions by 2030 (Philippines Government, 2021). The Philippines unconditional target is not ambitious and will not drive real world emissions reductions. The target level, excluding LULUCF, is 8% - 13% above where we project the country’s emissions to be under current policies in 2030. In other words, the Philippines will meet and exceed this target without taking further action. We rate this target against the Philippines’ fair share contribution to achieving the 1.5°C limit and consider it to be “Insufficient”. Following how the Philippines has chosen to express its NDC, an unconditional target of around 34% below BAU (incl. LULUCF) would be consistent with its 1.5°C fair share contribution. By contrast, the Philippines’ conditional target is ambitious and we rate it as “1.5°C compatible” when compared to the level of reductions needed within the Philippines’ borders and for which the Philippines will need international support to achieve. The NDC notes that mitigation actions will strengthen the country’s resilience and adaptive capacity. In addition to mitigation actions, research finds that building up adaptive capacity and resilience is crucial for countries vulnerable to climate change, such as the Philippines (Monsod et al., 2021). The scope of the CAT rating does not cover adaptation efforts.</t>
+  </si>
+  <si>
+    <t>Russia’s updated NDC, put forward in November 2020, with an emissions reduction target of at least 30% below 1990 levels by 2030 does not represent an increase in climate action, as it is simply the lower bound of the previous target’s range (25-30%). The CAT estimates that Russia can easily reach this target with current policies and should, therefore, submit a stronger 2030 target. In September 2022, the Russian government submitted its long-term climate strategy (LTS) to the UNFCCC. The net zero GHG emissions target for 2060 included in the LTS relies on Russia’s land use, land use change and forestry (LULUCF) sector’s negative emissions more than doubling between 2030 (-539 MtCO 2 e) and 2050 (-1200 MtCO 2 e), though the LTS provides no information to substantiate the increase. *For details on what we do for our Optimistic Target global temperature estimate, see the Assumptions tab.</t>
+  </si>
+  <si>
+    <t>Saudi Arabia submitted an updated NDC on 23 October 2021, increasing the 2030 emissions reduction target from 130 MtCO 2 e in the first NDC to 278 MtCO 2 e in the updated one. However, we do not consider this a stronger target, as the median of the NDC range remains lower than Saudi Arabia’s emissions trajectory based on current policies. We interpret the NDC target to be a reduction below a baseline scenario, similarly to the previous one, although this is not explicitly mentioned in the document. It is important to note that neither the previous NDC nor the updated one includes a baseline projection to which the emissions reduction target is applied. The 2021 NDC, similarly to the previous version, mentions that the reduction target is contingent on international climate action under the Paris Agreement not causing an “abnormal burden” on its economy. The NDC specifically mentions that the emissions reductions are based on a scenario under which hydrocarbons exports continue to provide a ‘robust contribution’ to the Saudi economy. Under a second scenario, which we understand to be a scenario under which global hydrocarbons exports decline, Saudi Arabia would continue what it calls a ‘sustainable utilisation of hydrocarbons’ domestically. Under this scenario, Saudi Arabia reserves itself the right to revise its NDC. Saudi Arabia plans to meet part of its emissions reduction targets through the use of a carbon market scheme and Article 6 mechanisms, including for both the 2030 NDC and 2060 net zero targets. However, details on how these mechanisms might be used are lacking or unclear; they present major risks that Saudi Arabia will seek to use carbon credits with questionable integrity as a smokescreen to justify continuing its trajectory of maintaining high levels of domestic emissions.</t>
+  </si>
+  <si>
+    <t>In its NDC submitted in 2021, South Korea has set an unconditional NDC target of reducing 40% GHG emissions below 2018 levels by 2030, a significant improvement on the previous NDC (24.4% below 2017 levels). Excluding the forestry contribution and reduction overseas, as described in an accompanying government document (Republic of Korea, 2021b), the target translates to a 37% reduction of domestic emissions by 2030 compared to 2018 levels, and the CAT rates this target as “Insufficient”, compared to required domestic efforts according to modelled domestic pathways. The CAT rates the full target, including South Korea’s proposed procurement of carbon credits from other countries, as “Highly Insufficient” when compared to South Korea’s fair share. This assessment of South Korea’s target does not, at present, question the quality of the credits procured from abroad, and we were unable to identify sufficient information to examine this element of the NDC. As such our analysis may overestimate the mitigation impact of South Korea’s. South Korea has a net zero target set for 2050. The absolute emissions target communicated by the government is 437 MtCO 2 e, using global warming potentials (GWPs) from the IPCC’s second assessment report (SAR). To ease comparison of country targets we convert to GWPs from the IPCC’s fourth assessment report (AR4) (see assumptions section ). We estimate that the absolute emissions target in AR4 is 441 MtCO 2 e. The CAT estimates the domestic component of the target as 501 MtCO 2 e (excl. reductions from LULUCF and international credits) and the full target including the international component as 468 MtCO 2 e (excl. reductions from LULUCF, incl. international credits), representing an 18% reduction compared to the NDC submitted in December 2020 (see assumptions section ). The conversion of South Korea’s NDC to the common CAT metric is shown in the figure below. High resolution</t>
+  </si>
+  <si>
+    <t>Switzerland submitted its updated NDC to the UNFCCC in December 2020, responded to paragraph 29 of the Glasgow Climate Pact and to the rejection of the CO 2 Act with another update in December 2021, and submitted another update in November 2024, after the CO 2 act finally passed legislation. All updates did not increase in ambition but in the 2021 update language slightly changed from the original NDC’s commitment of “a 50% reduction below 1990” levels by 2030 to “ at least 50%” below 1990 levels (Swiss Confederation, 2021). In absolute terms, this translates to emissions levels of at most 27 MtCO 2 e excluding LULUCF by 2030. Switzerland has also committed to reaching net zero GHG emissions by 2050 as enshrined into law and outlined both in its NDC and LTS. In its updated NDC, Switzerland does not specify a domestic emissions reduction component of its 2030 target, but instead clearly states its intention to use provisions under Article 6 of the Paris Agreement to offset its own emissions. In its NDC it states that “Switzerland will realise its NDC mainly domestically and will partly use internationally transferred mitigation outcomes (ITMOs) from cooperation under Article 6” (Swiss Confederation, 2021). Since the CO 2 Act was rejected in a public referendum in 2021, Switzerland has passed a new amended CO 2 Act in 2024, which strongly decreased in ambition (known as Succession Act). Earlier drafts in 2021 still included a targeted 33% reduction in domestic emissions, which reflects two thirds of the total emissions reduction of its 50% target (Der Bundesrat, 2021). However, since then this has been replaced by vague comments stating that “The reduction of greenhouse gas emissions is primarily achieved with measures within Switzerland. The Federal Council determines the share.” (Bundesgesetz Über Die Reduktion Der CO 2 -Emissionen (CO 2 -Gesetz), 2024). In January to March 2024, the matter of a domestic component was again discussed in commissions in both chambers of parliament with proposals for 75% and 70% (of the overall target to halve emissions in 2030, relative to 1990 level) on the table, but all proposals were rejected. Consequently, the Environment Minister Albert Rösti announced that he would propose a 66% share to the Federal Council (Das Schweizer Parlament, 2024). Other official communications imply that at least 30% (60% of the overall target) will be targeted domestically (Botschaft Zur Revision Des CO 2 -Gesetzes Für Die Zeit Nach 2024, 2022(Das Schweizer Parlament, 2024)).</t>
+  </si>
+  <si>
+    <t>Thailand submitted its second NDC target to the UNFCCC on November 2, 2022 (Government of the Kingdom of Thailand, 2022). The second NDC includes revised unconditional and conditional targets, both of which has been strengthened. Additionally, the new NDC has included reference to Thailand’s revision of its long-term target. The remaining critical elements of the NDC remains the same as its previously updated NDC in 2020. The NDC still covers economy-wide emissions excluding LULUCF, covers all greenhouse gases except NF 3 , has omitted explanation of why the target is a fair contribution, and maintains the same target formulation of emission reductions under business-as-usual. In order to receive a 1.5°C compatible rating for its climate targets, Thailand would need to do the following: Submit a conditional NDC target to reduce emissions by approximately 44% by 2030 compared to 2021 levels, or 65% reduction under its stated BAU. Submit an unconditional NDC target to reduce emissions by approximately 31% by 2030 compared to 2021 levels, or 57% reduction under its stated BAU.</t>
+  </si>
+  <si>
+    <t>In September 2021, The Gambia submitted its second NDC which set a new target of reducing GHG emission by 49.7% below a business-as-usual scenario in 2030 (incl. LULUCF). The Gambia has indicated that it will need international support to achieve this target; however, it has indicated that it will undertake two of the mitigation actions proposed to achieve this target using its own resources. The target equates to a 2030 emission levels of 2.74MtCO 2 e, once the land sector is excluded. Almost all of the unconditional elements of the NDC target will be met through the land sector with a small contribution from renewable energy use. We quantify the unconditional portion of the NDC target will result in an emissions level of 5.53MtCO 2 e in 2030. In September 2022, The Gambia submitted its Long-Term Strategy (LTS) for “climate neutral” development by 2050. This document provides a comprehensive plan for reaching net zero GHG emission by 2050, but does not include transparent quantifiable targets for how The Gambia will switch its LULUCF sector from a net carbon source to a net carbon sink by 2050 and only covers 81% of total emissions.</t>
+  </si>
+  <si>
+    <t>In April 2023, Türkiye submitted the first update of its 2030 NDC target. Türkiye’s previous NDC was its 2015 INDC, which was resubmitted as an NDC in October 2021 when Türkiye finally ratified the Paris Agreement. The updated NDC has an unconditional target of reducing GHG emissions including LULUCF in 2030 by 41% below a business-as-usual (BAU) projection (Government of the Republic of Türkiye, 2023). The reference BAU projection of 1175 MtCO 2 e (incl. LULUCF) in 2030 used in the updated NDC is the same as in its previous INDC and NDC submissions (Government of the Republic of Türkiye, 2023; Republic of Türkiye, 2015, 2021). The updated NDC’s absolute target aims for a 2030 emissions level of 695 MtCO 2 e (incl. LULUCF), which equates to 765 MtCO 2 e once the LULUCF sector is excluded. The CAT rates this target as “Critically insufficient” when compared to both required domestic efforts and Türkiye’s fair share. Türkiye is bidding to host COP31 in 2026. Hosting a COP brings an expectation of ambitious domestic climate action. Considering its extremely weak NDC, rather than highlighting stringent climate action, Türkiye’s bid shines a light on its lack of ambition. Neither Türkiye’s NDC nor its intention to host COP31 demonstrate a commitment to seriously reduce its emissions in line with limiting warming to 1.5°C. Türkiye has adopted a 2053 net zero target, which the CAT rates as “Poor”. It is currently drafting its long-term strategy. * For details on what we do for our Optimistic Target global temperature estimate for Türkiye, please see the Assumptions tab.</t>
+  </si>
+  <si>
+    <t>The UAE submitted an updated NDC for 2030 in July 2023 after having already strengthened its NDC target in 2022. With the UAE’s emissions still set to increase by 2030, we estimate it will not be able to meet this updated NDC target, nor the former one. The NDC from 2023 has an unconditional and economy-wide greenhouse gas emissions reduction target of 182 MtCO 2 e (including emissions from land use and forestry, or LULUCF) by 2030 (Government of the UAE, 2023a). The CAT rates this target, excluding LULUCF, as “Almost sufficient” compared to modelled domestic pathways and “Insufficient” when compared to the UAE’s fair share. In October 2021 the UAE announced its intention to reach net zero emissions as part of the UAE Net Zero 2050 strategic initiative . In January 2024, the UAE submitted its LTS to the UNFCCC, confirming its commitment to reach net zero by 2050 (Government of the UAE, 2024b). The LTS includes several details on the UAE’s net zero target, such as its planned emissions reductions and removals, and sectoral pathways to achieve net zero.</t>
+  </si>
+  <si>
+    <t>In 2020, the UK updated its 2030 NDC to reduce GHG emissions by at least 68% below 1990 levels (including LULUCF and excluding international aviation and shipping). This is an increase on the previous target of a 57% reduction below 1990 levels. The UK also set a 2035 target to reduce emissions by 78% below 1990 levels including both LULUCF and international aviation and shipping. The CAT excludes both LULUCF and international aviation and shipping from its analysis. Converting to this basis, the UK’s targets are to reduce emissions by 68% and 82% below 1990 levels by 2030 and 2035 respectively. In 2019, the UK increased the ambition of its 2050 target to net zero GHG emissions (UK Government, 2019d). *The CAT focuses on future emissions excluding LULUCF and international aviation and shipping (international bunker) emissions. The UK’s net zero target covers both LULUCF and international bunkers. The CCC’s path for reaching net zero by 2050 involves residual emissions of ~19 MtCO 2 e from international bunkers, and also a 19 MtCO 2 e sink from the LULUCF sector. These offset one another so that 2050 emissions remain at 0 MtCO 2 e. However, this does not represent a target to reach absolute zero emissions, with residual emissions from aviation and other sectors balanced by removals from LULUCF and engineered CO 2 removal.</t>
+  </si>
+  <si>
+    <t>In 2022 Viet Nam submitted its updated NDC, increasing its unconditional target to reduce GHG emissions by 15.8% below business-as-usual levels (BAU) by 2030 compared to 9% in the previous NDC. Conditional on international support, this target will be further increased to 43.5% below BAU, higher than previous conditional target of 27%. The conditional target is cumulative. GHG emissions reduction from international support alone are 28% from 2030 BAU emissions. The updated unconditional and conditional targets translate to 863 and 620 MtCO 2 e/yr, respectively, in terms of absolute emissions levels for 2030 or 12% and 37% below BAU, excluding the land use and forestry sector. The updated NDC claims that new targets are aligned to fulfill Viet Nam’s commitments at COP26, but it is not a true progression in scaling up climate action, as it is still aligned with 4ºC of warming and requires no additional effort beyond current policies. Notably, at COP26, Viet Nam committed to reach net zero by 2050 along with additional pledges related to a coal phase-out and methane emission reductions. In the updated NDC, Viet Nam has transparently presented the financial requirements to achieve its unconditional and conditional targets. The CAT rates Viet Nam’s targets as “Critically Insufficient”.</t>
+  </si>
+  <si>
+    <t>Nigeria submitted its updated NDC in July 2021 (Federal Government of Nigeria, 2021). The update included a substantially revised business-as-usual (BAU) projection for 2030, half of what was projected in Nigeria’s first NDC submission. Nigeria is committed to reducing its emissions by 20% below BAU by 2030 (incl. LULUCF) unconditionally and will reduce its emissions by up to 47% below BAU by 2030, conditional on international support. The CAT estimates that the unconditional target equates to an emissions level of 304-331 MtCO 2 e (excl. LULUCF) in 2030 (17-27% above 2010 levels) and the conditional target equates to 201-264 MtCO 2 e (excl. LULUCF) in 2030 (1% above to 23% below 2010 levels). There is a high degree of uncertainty in these estimates due to a lack of information on projected land sector emissions in 2030, and the extent to which this sector contributes to the NDC target. Due to this uncertainty, we estimate the targets excluding LULUCF using a range of assumptions on the contribution from the land sector (see Assumptions tab for more details). *For details on what we do for our Optimistic Target global temperature estimate, see the Assumptions tab.</t>
+  </si>
+  <si>
+    <t>In October 2023, the EU submitted a revised NDC to the UNFCCC (Spain and the European Commission, 2023). Its target of reducing emissions by at least 55% below 1990 levels by 2030 (incl. LULUCF and international aviation) is the same as the previous NDC from December 2020. However, the EU has increased its land sector target by 85 MtCO 2 e which is what enables the EU to assert that it will overachieve its 55% target. The CAT rates this updated target as ‘did not increase ambition’ because it does not lead to a lower emissions limit (excl. LULUCF and international aviation) compared to the previous NDC. Compared to the previous NDC update in 2020, this NDC update clarifies that only CO 2 emissions from flights within the European Economic Area, departing flights to Switzerland and departing flights to the United Kingdom are included in the goal. The EU’s 2030 NDC is not close to the 1.5°C limit when compared to modelled domestic pathways. It remains far behind on its fair share contribution to the 1.5°C limit and needs to substantially increase its support for emissions reductions abroad and climate finance. In February 2024, the European Commission proposed a 2040 target of a 90% net GHG emissions reduction below 1990 levels. The CAT quantifies the 2040 target to be 660 MtCO 2 e (excl. LULUCF) or an 85% reduction from 1990. While the 2040 target does align with what would at least be needed domestically to be aligned with 1.5°C compared to modelled domestic pathways, the CAT believes that the EU should adopt at least a 95% reduction below 1990 levels (incl. LULUCF) by 2040 seeing as it is is failing to contribute its fair share to global climate action.</t>
+  </si>
+  <si>
+    <t>In July 2021, Ethiopia submitted its updated NDC, committing to a 68.8% reduction below a revised business-as-usual (BAU) scenario conditional on international support (incl. LULUCF) (Federal Democratic Republic of Ethiopia, 2021). This target also includes an unconditional component, a 14% reduction below BAU, which Ethiopia will undertake with its own resources. Ethiopia intends to achieve both of these targets primarily through reductions in its land sector emissions. The CAT rates Ethiopia’s unconditional NDC target as “1.5°C compatible” when compared to its fair share contribution and its conditional NDC target as “Critically Insufficient” when compared to modelled domestic pathways. Ethiopia intends to become carbon neutral, but has not specified a target year (FDRE, 2015). The government is in the process of developing a Long-Term Low Emission Development Strategy.</t>
   </si>
   <si>
     <t>Germany has the following national climate change mitigation targets (German Government, 2021a): 65% national emissions reduction below 1990 levels excl. LULUCF by 2030 (up from 55%) a new, interim target of 88% below 1990 levels excl. LULUCF by 2040 climate neutrality by 2045 Germany did not submit its own NDC but is part of the EU’s target of 55% below 1990 levels excl. LULUCF and the EU climate neutrality goal for 2050. CAT rates the 2030 target as “Almost sufficient” compared to modelled domestic pathways, and “Insufficient” when compared to Germany’s fair share. CAT analysis finds that to be in line with the 1.5°C limit of the Paris Agreement, Germany’s 2030 emissions reduction target should aim for reductions of at least 69% below 1990 levels domestically. To fully contribute its fair share, Germany would also have to significantly increase its international climate finance. The German climate law includes a breakdown of the target to sectors until 2030, but not beyond. *For details on how Climate Action Tracker calculated the target values see the Assumptions tab</t>
   </si>
   <si>
-    <t>In 2022 Viet Nam submitted its updated NDC, increasing its unconditional target to reduce GHG emissions by 15.8% below business-as-usual levels (BAU) by 2030 compared to 9% in the previous NDC. Conditional on international support, this target will be further increased to 43.5% below BAU, higher than previous conditional target of 27%. The conditional target is cumulative. GHG emissions reduction from international support alone are 28% from 2030 BAU emissions. The updated unconditional and conditional targets translate to 863 and 620 MtCO 2 e/yr, respectively, in terms of absolute emissions levels for 2030 or 12% and 37% below BAU, excluding the land use and forestry sector. The updated NDC claims that new targets are aligned to fulfill Viet Nam’s commitments at COP26, but it is not a true progression in scaling up climate action, as it is still aligned with 4ºC of warming and requires no additional effort beyond current policies. Notably, at COP26, Viet Nam committed to reach net zero by 2050 along with additional pledges related to a coal phase-out and methane emission reductions. In the updated NDC, Viet Nam has transparently presented the financial requirements to achieve its unconditional and conditional targets. The CAT rates Viet Nam’s targets as “Critically Insufficient”.</t>
-  </si>
-  <si>
     <t>India officially submitted two of the four 2030 targets announced by Prime Minister Modi in 2021 (at COP26) as part of its August 2022 NDC update. These two targets are to reduce its emissions intensity by 45% below 2005 levels by 2030 (excluding LULUCF) and to increase the share of non-fossil power capacity to 50% by 2030. On paper, both are stronger targets than the original NDC submissions, which had a 33-35% emissions intensity target and 40% non-fossil power capacity, but neither will drive real world emission reductions. The other two targets, which were not submitted, were a 500 gigawatts (GW) non-fossil capacity target and a commitment to reduce emissions by one billion tonnes by 2030 – are also unlikely to drive real world emission reductions in any substantial way. The target of creating a cumulative 2.5-3 GtCO 2 carbon sink by 2030 is unchanged and was included in both the first and the updated NDC. * For details on what we do for our Optimistic Target global temperature estimate for India, please see the Assumptions tab .</t>
   </si>
   <si>
-    <t>In its NDC, Argentina has set an unconditional target of not exceeding 349 MtCO 2 e in 2030. This target covers all sectors. The CAT excludes emissions from land use, land use change and forestry from this target and converts it to GWP AR4, resulting in 351 MtCO 2 e in 2030. To obtain the NDC emissions level excluding LULUCF, the CAT uses a Business-As-Usual (BAU) scenario for the LULUCF sector developed by UNICEN (Keesler &amp; Blanco, 2024). For more details, please see the Assumptions section . The CAT rates this target as “Highly insufficient” both when compared to required domestic efforts, and when compared to Argentina’s fair share. In November 2022, Argentina submitted a long-term strategy (LTS) to the UNFCCC that includes a target to reach GHG neutrality by 2050 (Government of Argentina, 2022a). [ NOTE: assumptions made to quantify these targets are included in the Assumptions section ]</t>
-  </si>
-  <si>
-    <t>Australia’s NDC targets a 2030 emissions reduction of 43% below 2005 levels. The CAT excludes emissions from land use, land use change and forestry from this target, resulting in 422 MtCO 2 e (429 MtCO 2 e with AR5 GWPs) in 2030 excluding LULUCF. The CAT rates this target as “Insufficient” compared to both modelled domestic pathways and its fair share of global efforts. The target has also decreased in ambition between 2023 and 2024 because of the increases in LULUCF sequestration estimates (see section on Forestry in the Policies and actions tab). Australia is preparing a new Net Zero Plan as an update to its current Long-Term Strategy (LTS). Its current long-term emissions reduction plan for achieving net zero emissions by 2050, submitted to the UNFCCC as an LTS, was published in October 2021. The current strategy only reduces emissions by 60% below 2005 levels, excluding LULUCF and offsets.</t>
-  </si>
-  <si>
-    <t>Bhutan’s second NDC target is to remain carbon neutral. In other words, Bhutan must keep emissions below the level of its net LULUCF sink. In its second NDC, Bhutan states that its LULUCF sink is based on a 2015 base year as it uses the estimate in its Third National Communication (NC3) (Royal Government of Bhutan 2021). Bhutan reported a net LULUCF sink of 7.8 MtCO 2 e in its NC3 (Royal Government of Bhutan 2020a). Following standard CAT rating methodology , this target would be rated as “Critically insufficient” compared to both Bhutan’s fair share and to the emissions reductions needed within its borders to limit warming to 1.5°C based on global least cost pathways. We have applied an alternative method to rate Bhutan’s NDC, given the fact that it is already carbon neutral (see below for details). Under this approach, we rate where Bhutan’s emissions will be in 2030 under a business-as-usual trajectory against Bhutan’s fair share contribution level. This results in an “Almost sufficient” rating. When we rate where Bhutan’s emissions will be in 2030 if its sectoral measures are fully implemented against where its emissions would need to be based on a global least cost modelled pathway for 1.5°C, Bhutan is rated as “1.5°C global least cost”. In its second NDC, Bhutan has mentioned the goal to achieve net zero emissions by 2050, but given Bhutan’s current carbon negative status, this goal has already been achieved. The CAT currently does not evaluate Bhutan’s net zero target as no further information has been provided beyond the NDC. We will further evaluate the target once more information becomes available.</t>
-  </si>
-  <si>
-    <t>On 27 October 2023, the Brazilian government reverted to the original NDC's absolute emission targets it submitted when it joined the Paris Agreement in 2016, moving away from the NDC updates communicated by the Bolsonaro administration. In this 2023 NDC, Brazil sets an unconditional target to limit emissions to 1.32 GtCO 2 e in 2025 and to 1.2 GtCO 2 e in 2030. This target covers all sectors and is reported using AR5 GWP values. The CAT excludes emissions from the land use, land use change and forestry (LULUCF) sector and converts it to AR4 GWP (see Assumptions section for more details), resulting in a 2025 target of up to 979 MtCO 2 e and a 2030 target of up to 884 MtCO 2 e. The CAT rates Brazil’s 2030 target as “Almost sufficient” when compared to both Brazil’s fair share and modelled domestic pathways. In its NDC, Brazil includes a goal to reach climate neutrality by 2050 but they it not submitted an LTS or communicated further details on the target. In particular, Brazil should clearly state its plans for reducing emissions in all sectors, including LULUCF. * Using Global Warming Potential (GWP) values from the IPCC AR5 report</t>
-  </si>
-  <si>
-    <t>Chile’s submitted its updated 2020 NDC to the UNFCCC in April 2020 (Government of Chile, 2020a). It includes two 2030 emissions reduction targets: an absolute unconditional target of 95 MtCO2e or a budget of 1,100 MtCO2e (2020–2030) and an emissions reduction target of up to 45% net GHG emissions conditional on specific financial, markets, technological and political conditions. With the approval of the Climate Change Framework Law in June 2020, this target is legally binding. Chile also announced a net zero GHG target for 2050 which was enshrined in law in June 2022 with the passing of the Framework Law on Climate Change (Congreso Nacional de Chile, 2022).</t>
-  </si>
-  <si>
-    <t>China submitted its updated NDC to the UNFCCC on October 28, 2021, ahead of COP26. The NDC update strengthened and expanded previous 2030 NDC targets and added a fifth new target of increasing wind and solar power installed capacity to over 1,200 GW by 2030. Our revised assessment of the country’s policies shows that China is expected to significantly overachieve its energy-related NDC targets without a substantial increase in implementing additional mitigation policy but could be in danger of missing its carbon intensity target if emissions do not decline in the latter half of the decade. The emissions reduction potential of the forest stock volume target is unclear and therefore not quantified. The CAT has retained its “Highly Insufficient” rating for China’s NDC targets when assessed against modelled domestic pathways (MDP). However, the rating for China’s targets assessed against fair share has improved to “Insufficient” due to an update in the underlying data rather than any actual change in the targets. But whether China should receive some climate finance from abroad to reduce its emissions is a matter of debate. Our methods do not provide a clear answer to this question. On balance, the CAT methodology shows China needing a small but important amount of international support is consistent with the wide range of literature on fair share contributions to meeting the Paris Agreement's goals. In any case, the NDC target achieved with its own resources would need to be increased significantly to be in line with the 1.5°C limit. China also submitted its Mid-Century Long-Term Low Greenhouse Gas Emission Development Strategy (LTS) with its NDC at the same time, containing the government’s commitment to reach “carbon neutrality before 2060”. Due to the size of China’s emissions, the difference in emissions coverage could make up to 0.1°C more (CO 2 only) or less (all GHGs) warming in 2100. Given the LTS submission does not meet the majority of our criteria for a best-practice approach in LTS formulation, we evaluate China’s net-zero target as “Poor”. *This range refers to the median of the two NDC targets expected to result in lowest emissions. The lower bound is the lowest estimate for the peaking target and the upper bound is the carbon intensity target. See the Assumptions tab for more details.</t>
-  </si>
-  <si>
-    <t>In its updated NDC, Colombia has set an unconditional target of not exceeding 161 MCO 2 e (AR4) in 2030 (equivalent to a 51% reduction in emissions compared to the projection of emissions in 2030 in the reference scenario). This target covers all sectors. CAT excludes emissions from land use, land use change and forestry from this target. For further details on the calculation, see the Assumptions section. CAT rates this target as “Insufficient” when compared to required domestic efforts, and "Almost sufficient” compared to Colombia’s fair share. Colombia has a net zero target and has submitted a long-term strategy to the UNFCCC. Both the NDC and net zero targets are enshrined in law. * Colombia’s NDC reports use the GWP from AR5. ** This value was converted using GWP from AR4 and excl. LULUCF.</t>
-  </si>
-  <si>
-    <t>Costa Rica’s December 2020 NDC includes a target of 9.11 MtCO 2 e emissions in 2030 and a cumulative emissions budget between 2021 and 2030 of 106.53 MtCO 2 e emissions (including LULUCF with global warming potentials, GWPs, from the IPCC’s Second Assessment Report, SAR). The CAT estimates the 2030 target to be 11.9 to 12.5 MtCO 2 e excluding LULUCF in GWPs from the IPCC’s fourth assessment report (see “Assumptions” section for details). For 2030, this is equivalent to a decrease between 7% to 11% below 2010 levels excluding LULUCF. The CAT rates Costa Rica’s 2030 NDC target as “Almost Sufficient" when rated against modelled domestic pathways ("NDC target against modelled domestic pathways"), and "1.5°C compatible" when rated against the fair share contribution ("NDC target against fair share"). Costa Rica does not specify a conditional target or an international element in its NDC, so we rate the unconditional target against the two rating frameworks.</t>
-  </si>
-  <si>
-    <t>In October 2023, the EU submitted a revised NDC to the UNFCCC (Spain and the European Commission, 2023). Its target of reducing emissions by at least 55% below 1990 levels by 2030 (incl. LULUCF and international aviation) is the same as the previous NDC from December 2020. However, the EU has increased its land sector target by 85 MtCO 2 e which is what enables the EU to assert that it will overachieve its 55% target. The CAT rates this updated target as ‘did not increase ambition’ because it does not lead to a lower emissions limit (excl. LULUCF and international aviation) compared to the previous NDC. Compared to the previous NDC update in 2020, this NDC update clarifies that only CO 2 emissions from flights within the European Economic Area, departing flights to Switzerland and departing flights to the United Kingdom are included in the goal. The EU’s 2030 NDC is not close to the 1.5°C limit when compared to modelled domestic pathways. It remains far behind on its fair share contribution to the 1.5°C limit and needs to substantially increase its support for emissions reductions abroad and climate finance. In February 2024, the European Commission proposed a 2040 target of a 90% net GHG emissions reduction below 1990 levels. The CAT quantifies the 2040 target to be 660 MtCO 2 e (excl. LULUCF) or an 85% reduction from 1990. While the 2040 target does align with what would at least be needed domestically to be aligned with 1.5°C compared to modelled domestic pathways, the CAT believes that the EU should adopt at least a 95% reduction below 1990 levels (incl. LULUCF) by 2040 seeing as it is is failing to contribute its fair share to global climate action.</t>
-  </si>
-  <si>
-    <t>Nigeria submitted its updated NDC in July 2021 (Federal Government of Nigeria, 2021). The update included a substantially revised business-as-usual (BAU) projection for 2030, half of what was projected in Nigeria’s first NDC submission. Nigeria is committed to reducing its emissions by 20% below BAU by 2030 (incl. LULUCF) unconditionally and will reduce its emissions by up to 47% below BAU by 2030, conditional on international support. The CAT estimates that the unconditional target equates to an emissions level of 304-331 MtCO 2 e (excl. LULUCF) in 2030 (17-27% above 2010 levels) and the conditional target equates to 201-264 MtCO 2 e (excl. LULUCF) in 2030 (1% above to 23% below 2010 levels). There is a high degree of uncertainty in these estimates due to a lack of information on projected land sector emissions in 2030, and the extent to which this sector contributes to the NDC target. Due to this uncertainty, we estimate the targets excluding LULUCF using a range of assumptions on the contribution from the land sector (see Assumptions tab for more details). *For details on what we do for our Optimistic Target global temperature estimate, see the Assumptions tab.</t>
-  </si>
-  <si>
-    <t>Following the current Norwegian Labour government pledge to strengthen Norway’s 2030 emissions reduction target in early 2022, Norway formally submitted a renewed 2030 emissions reduction target in the run up to COP27, changing from 50% to at least 55% below 1990 levels in its updated NDC. This puts it in line with the EU’s target. Norway intends to achieve this target in collaboration with the European Union. Norway will regulate emissions from all economic sectors through three pieces of legislation: the EU Emissions Trading Scheme, the EU Effort Sharing Regulation (ESR) and the Land Use, Land-Use Change and Forestry (LULUCF) Regulation. Under the EU’s Effort Sharing Regulation, which covers sectors not included in the EU ETS, Norway is only required to reduce emissions by 40% by 2030, though Norway increased this to 45%. This target is not compatible with its overall 55% target seeing as most of Norway’s emissions reductions must come from sectors not covered by the EU ETS. Under the LULUCF Regulation, Norway commits to no net emissions from the LULUCF sector between 2021 and 2030 (Government of Norway, 2020c). Norway is permitted to use up to 1.6 MtCO 2 e in net removals from the land sector towards meeting its NDC.</t>
-  </si>
-  <si>
-    <t>The Philippines has submitted an updated Nationally Determined Contribution (NDC) target of reducing greenhouse gas emissions by 75% below a cumulative business as usual (BAU) pathway for 2020-2030 (Philippines Government, 2021). Most of this commitment is conditional on international support. A small fraction, 2.71% of the 75% targeted emissions avoidance, is unconditional. The 2021 NDC also refers to an aspirational target to peak emissions by 2030 (Philippines Government, 2021). The Philippines unconditional target is not ambitious and will not drive real world emissions reductions. The target level, excluding LULUCF, is 8% - 13% above where we project the country’s emissions to be under current policies in 2030. In other words, the Philippines will meet and exceed this target without taking further action. We rate this target against the Philippines’ fair share contribution to achieving the 1.5°C limit and consider it to be “Insufficient”. Following how the Philippines has chosen to express its NDC, an unconditional target of around 34% below BAU (incl. LULUCF) would be consistent with its 1.5°C fair share contribution. By contrast, the Philippines’ conditional target is ambitious and we rate it as “1.5°C compatible” when compared to the level of reductions needed within the Philippines’ borders and for which the Philippines will need international support to achieve. The NDC notes that mitigation actions will strengthen the country’s resilience and adaptive capacity. In addition to mitigation actions, research finds that building up adaptive capacity and resilience is crucial for countries vulnerable to climate change, such as the Philippines (Monsod et al., 2021). The scope of the CAT rating does not cover adaptation efforts.</t>
-  </si>
-  <si>
-    <t>Russia’s updated NDC, put forward in November 2020, with an emissions reduction target of at least 30% below 1990 levels by 2030 does not represent an increase in climate action, as it is simply the lower bound of the previous target’s range (25-30%). The CAT estimates that Russia can easily reach this target with current policies and should, therefore, submit a stronger 2030 target. In September 2022, the Russian government submitted its long-term climate strategy (LTS) to the UNFCCC. The net zero GHG emissions target for 2060 included in the LTS relies on Russia’s land use, land use change and forestry (LULUCF) sector’s negative emissions more than doubling between 2030 (-539 MtCO 2 e) and 2050 (-1200 MtCO 2 e), though the LTS provides no information to substantiate the increase. *For details on what we do for our Optimistic Target global temperature estimate, see the Assumptions tab.</t>
-  </si>
-  <si>
-    <t>Saudi Arabia submitted an updated NDC on 23 October 2021, increasing the 2030 emissions reduction target from 130 MtCO 2 e in the first NDC to 278 MtCO 2 e in the updated one. However, we do not consider this a stronger target, as the median of the NDC range remains lower than Saudi Arabia’s emissions trajectory based on current policies. We interpret the NDC target to be a reduction below a baseline scenario, similarly to the previous one, although this is not explicitly mentioned in the document. It is important to note that neither the previous NDC nor the updated one includes a baseline projection to which the emissions reduction target is applied. The 2021 NDC, similarly to the previous version, mentions that the reduction target is contingent on international climate action under the Paris Agreement not causing an “abnormal burden” on its economy. The NDC specifically mentions that the emissions reductions are based on a scenario under which hydrocarbons exports continue to provide a ‘robust contribution’ to the Saudi economy. Under a second scenario, which we understand to be a scenario under which global hydrocarbons exports decline, Saudi Arabia would continue what it calls a ‘sustainable utilisation of hydrocarbons’ domestically. Under this scenario, Saudi Arabia reserves itself the right to revise its NDC. Saudi Arabia plans to meet part of its emissions reduction targets through the use of a carbon market scheme and Article 6 mechanisms, including for both the 2030 NDC and 2060 net zero targets. However, details on how these mechanisms might be used are lacking or unclear; they present major risks that Saudi Arabia will seek to use carbon credits with questionable integrity as a smokescreen to justify continuing its trajectory of maintaining high levels of domestic emissions.</t>
-  </si>
-  <si>
-    <t>In its NDC submitted in 2021, South Korea has set an unconditional NDC target of reducing 40% GHG emissions below 2018 levels by 2030, a significant improvement on the previous NDC (24.4% below 2017 levels). Excluding the forestry contribution and reduction overseas, as described in an accompanying government document (Republic of Korea, 2021b), the target translates to a 37% reduction of domestic emissions by 2030 compared to 2018 levels, and the CAT rates this target as “Insufficient”, compared to required domestic efforts according to modelled domestic pathways. The CAT rates the full target, including South Korea’s proposed procurement of carbon credits from other countries, as “Highly Insufficient” when compared to South Korea’s fair share. This assessment of South Korea’s target does not, at present, question the quality of the credits procured from abroad, and we were unable to identify sufficient information to examine this element of the NDC. As such our analysis may overestimate the mitigation impact of South Korea’s. South Korea has a net zero target set for 2050. The absolute emissions target communicated by the government is 437 MtCO 2 e, using global warming potentials (GWPs) from the IPCC’s second assessment report (SAR). To ease comparison of country targets we convert to GWPs from the IPCC’s fourth assessment report (AR4) (see assumptions section ). We estimate that the absolute emissions target in AR4 is 441 MtCO 2 e. The CAT estimates the domestic component of the target as 501 MtCO 2 e (excl. reductions from LULUCF and international credits) and the full target including the international component as 468 MtCO 2 e (excl. reductions from LULUCF, incl. international credits), representing an 18% reduction compared to the NDC submitted in December 2020 (see assumptions section ). The conversion of South Korea’s NDC to the common CAT metric is shown in the figure below. High resolution</t>
-  </si>
-  <si>
-    <t>Switzerland submitted its updated NDC to the UNFCCC in December 2020, responded to paragraph 29 of the Glasgow Climate Pact and to the rejection of the CO 2 Act with another update in December 2021, and submitted another update in November 2024, after the CO 2 act finally passed legislation. All updates did not increase in ambition but in the 2021 update language slightly changed from the original NDC’s commitment of “a 50% reduction below 1990” levels by 2030 to “ at least 50%” below 1990 levels (Swiss Confederation, 2021). In absolute terms, this translates to emissions levels of at most 27 MtCO 2 e excluding LULUCF by 2030. Switzerland has also committed to reaching net zero GHG emissions by 2050 as enshrined into law and outlined both in its NDC and LTS. In its updated NDC, Switzerland does not specify a domestic emissions reduction component of its 2030 target, but instead clearly states its intention to use provisions under Article 6 of the Paris Agreement to offset its own emissions. In its NDC it states that “Switzerland will realise its NDC mainly domestically and will partly use internationally transferred mitigation outcomes (ITMOs) from cooperation under Article 6” (Swiss Confederation, 2021). Since the CO 2 Act was rejected in a public referendum in 2021, Switzerland has passed a new amended CO 2 Act in 2024, which strongly decreased in ambition (known as Succession Act). Earlier drafts in 2021 still included a targeted 33% reduction in domestic emissions, which reflects two thirds of the total emissions reduction of its 50% target (Der Bundesrat, 2021). However, since then this has been replaced by vague comments stating that “The reduction of greenhouse gas emissions is primarily achieved with measures within Switzerland. The Federal Council determines the share.” (Bundesgesetz Über Die Reduktion Der CO 2 -Emissionen (CO 2 -Gesetz), 2024). In January to March 2024, the matter of a domestic component was again discussed in commissions in both chambers of parliament with proposals for 75% and 70% (of the overall target to halve emissions in 2030, relative to 1990 level) on the table, but all proposals were rejected. Consequently, the Environment Minister Albert Rösti announced that he would propose a 66% share to the Federal Council (Das Schweizer Parlament, 2024). Other official communications imply that at least 30% (60% of the overall target) will be targeted domestically (Botschaft Zur Revision Des CO 2 -Gesetzes Für Die Zeit Nach 2024, 2022(Das Schweizer Parlament, 2024)).</t>
-  </si>
-  <si>
-    <t>Thailand submitted its second NDC target to the UNFCCC on November 2, 2022 (Government of the Kingdom of Thailand, 2022). The second NDC includes revised unconditional and conditional targets, both of which has been strengthened. Additionally, the new NDC has included reference to Thailand’s revision of its long-term target. The remaining critical elements of the NDC remains the same as its previously updated NDC in 2020. The NDC still covers economy-wide emissions excluding LULUCF, covers all greenhouse gases except NF 3 , has omitted explanation of why the target is a fair contribution, and maintains the same target formulation of emission reductions under business-as-usual. In order to receive a 1.5°C compatible rating for its climate targets, Thailand would need to do the following: Submit a conditional NDC target to reduce emissions by approximately 44% by 2030 compared to 2021 levels, or 65% reduction under its stated BAU. Submit an unconditional NDC target to reduce emissions by approximately 31% by 2030 compared to 2021 levels, or 57% reduction under its stated BAU.</t>
-  </si>
-  <si>
-    <t>In September 2021, The Gambia submitted its second NDC which set a new target of reducing GHG emission by 49.7% below a business-as-usual scenario in 2030 (incl. LULUCF). The Gambia has indicated that it will need international support to achieve this target; however, it has indicated that it will undertake two of the mitigation actions proposed to achieve this target using its own resources. The target equates to a 2030 emission levels of 2.74MtCO 2 e, once the land sector is excluded. Almost all of the unconditional elements of the NDC target will be met through the land sector with a small contribution from renewable energy use. We quantify the unconditional portion of the NDC target will result in an emissions level of 5.53MtCO 2 e in 2030. In September 2022, The Gambia submitted its Long-Term Strategy (LTS) for “climate neutral” development by 2050. This document provides a comprehensive plan for reaching net zero GHG emission by 2050, but does not include transparent quantifiable targets for how The Gambia will switch its LULUCF sector from a net carbon source to a net carbon sink by 2050 and only covers 81% of total emissions.</t>
-  </si>
-  <si>
-    <t>In April 2023, Türkiye submitted the first update of its 2030 NDC target. Türkiye’s previous NDC was its 2015 INDC, which was resubmitted as an NDC in October 2021 when Türkiye finally ratified the Paris Agreement. The updated NDC has an unconditional target of reducing GHG emissions including LULUCF in 2030 by 41% below a business-as-usual (BAU) projection (Government of the Republic of Türkiye, 2023). The reference BAU projection of 1175 MtCO 2 e (incl. LULUCF) in 2030 used in the updated NDC is the same as in its previous INDC and NDC submissions (Government of the Republic of Türkiye, 2023; Republic of Türkiye, 2015, 2021). The updated NDC’s absolute target aims for a 2030 emissions level of 695 MtCO 2 e (incl. LULUCF), which equates to 765 MtCO 2 e once the LULUCF sector is excluded. The CAT rates this target as “Critically insufficient” when compared to both required domestic efforts and Türkiye’s fair share. Türkiye is bidding to host COP31 in 2026. Hosting a COP brings an expectation of ambitious domestic climate action. Considering its extremely weak NDC, rather than highlighting stringent climate action, Türkiye’s bid shines a light on its lack of ambition. Neither Türkiye’s NDC nor its intention to host COP31 demonstrate a commitment to seriously reduce its emissions in line with limiting warming to 1.5°C. Türkiye has adopted a 2053 net zero target, which the CAT rates as “Poor”. It is currently drafting its long-term strategy. * For details on what we do for our Optimistic Target global temperature estimate for Türkiye, please see the Assumptions tab.</t>
-  </si>
-  <si>
-    <t>The UAE submitted an updated NDC for 2030 in July 2023 after having already strengthened its NDC target in 2022. With the UAE’s emissions still set to increase by 2030, we estimate it will not be able to meet this updated NDC target, nor the former one. The NDC from 2023 has an unconditional and economy-wide greenhouse gas emissions reduction target of 182 MtCO 2 e (including emissions from land use and forestry, or LULUCF) by 2030 (Government of the UAE, 2023a). The CAT rates this target, excluding LULUCF, as “Almost sufficient” compared to modelled domestic pathways and “Insufficient” when compared to the UAE’s fair share. In October 2021 the UAE announced its intention to reach net zero emissions as part of the UAE Net Zero 2050 strategic initiative . In January 2024, the UAE submitted its LTS to the UNFCCC, confirming its commitment to reach net zero by 2050 (Government of the UAE, 2024b). The LTS includes several details on the UAE’s net zero target, such as its planned emissions reductions and removals, and sectoral pathways to achieve net zero.</t>
-  </si>
-  <si>
-    <t>In 2020, the UK updated its 2030 NDC to reduce GHG emissions by at least 68% below 1990 levels (including LULUCF and excluding international aviation and shipping). This is an increase on the previous target of a 57% reduction below 1990 levels. The UK also set a 2035 target to reduce emissions by 78% below 1990 levels including both LULUCF and international aviation and shipping. The CAT excludes both LULUCF and international aviation and shipping from its analysis. Converting to this basis, the UK’s targets are to reduce emissions by 68% and 82% below 1990 levels by 2030 and 2035 respectively. In 2019, the UK increased the ambition of its 2050 target to net zero GHG emissions (UK Government, 2019d). *The CAT focuses on future emissions excluding LULUCF and international aviation and shipping (international bunker) emissions. The UK’s net zero target covers both LULUCF and international bunkers. The CCC’s path for reaching net zero by 2050 involves residual emissions of ~19 MtCO 2 e from international bunkers, and also a 19 MtCO 2 e sink from the LULUCF sector. These offset one another so that 2050 emissions remain at 0 MtCO 2 e. However, this does not represent a target to reach absolute zero emissions, with residual emissions from aviation and other sectors balanced by removals from LULUCF and engineered CO 2 removal.</t>
-  </si>
-  <si>
-    <t>New Zealand submitted its updated NDC in November 2021, increasing its net emissions reduction target to 50% below gross 2005 levels by 2030 including LULUCF. We estimate that the emissions level excluding LULUCF targeted by the NDC is 51 MtCO 2 e in 2030. New Zealand is in the small group of countries still using a gross - net approach for its emissions projections, despite wide criticism in terms of the environmental integrity of the target (Rocha et al. 2015). New Zealand excludes LULUCF emissions in the base year (2005) but accounts for them in the target year (2030) (see Assumptions section). While the update strengthens the country’s 2030 target, the effect is nowhere near a 50% reduction, as the government has deployed misleading accounting methods that more than halve its effective reduction in net emissions to 22% below 2005 levels by 2030. New Zealand passed its Zero Carbon amendment to the Climate Change Response Act in 2019, which sets a target for all greenhouse gases except for biogenic methane – methane from agriculture and waste – to reach net zero by 2050. The methodology the Climate Change Commission used to calculate emissions required for a 1.5°C pathway for 2030 and 2050 in relation to the NDC update was challenged in a judicial review to the High Court in February 2022 (Wannan 2022a). However, the High Court rejected the claim, and in its November 2022 judgment, ruled that the Act does not impose any legally binding obligation on the government to set an emissions budget compatible with the 1.5°C temperature limit (Daalder 2022). The New Zealand Government plans to meet its NDC target through a combination of domestic emissions reductions, use of market mechanisms to purchase international offsets, and removal of carbon dioxide by forest offsets (New Zealand Government 2021a). Legislation reforms have ruled out using emissions carryover under the Kyoto Protocol period to meet the NDC (New Zealand Government 2020b). New Zealand’s current NDC target is around 19 MtCO 2 e away from its 1.5°C compatible fair share range of CAT and is rated “Insufficient”. When assuming the entire target will be achieved domestically (which is not the case), the rating is “Almost sufficient”. This implies that not only does New Zealand need to strengthen that target slightly but to achieve the entire target through domestic reductions, it also needs to support reductions to achieve its fair share. The gap between New Zealand’s 1.5˚C compatible domestic target and fair share contribution is around 15 MtCO 2 e which is similar to the offshore abatement government plans to use to meet NDC target (Ministry for the Environment 2022a). The amount of carbon market credits New Zealand is considering would allow the country to close its fair share gap. However, for 1.5˚C compatibility, the government needs to achieve and exceed its current NDC target through domestic reductions alone, which is not the current plan.</t>
-  </si>
-  <si>
-    <t>In its latest NDC, Nepal has set an activity-based target for both its unconditional and conditional targets. The unconditional target covers the energy sector by adding 5 GW of clean energy. However, given the NDC has no unconditional emissions reduction target, the CAT could not quantify this unconditional target, and has therefore had to use Nepal’s current policy projections as its unconditional target. The CAT rates this as “1.5°C compatible” compared to Nepal's fair share. According to CAT calculations, the new conditional NDC would lead to emission levels between 59–64 MtCO 2 e in 2030, depending on the interpretation of the sectoral targets and the overlaps with the energy sector targets. The CAT rates this as “Critically insufficient” against modelled domestic pathways. *For details on what we do for our Optimistic Target global temperature estimate, see the Assumptions tab.</t>
-  </si>
-  <si>
-    <t>Morocco submitted its latest NDC update to the UNFCCC in July 2021, strengthening its initial pledge. The updated target includes an unconditional emissions reduction of 18.3% below BAU by 2030, up from a 17% reduction in the previous NDC. Thanks to an updated BAU scenario, this new target translates to an absolute emissions level that is 21% lower than the previous target—from 145 MtCO 2 e in the 2016 submission to 118 MtCO 2 e in the latest one (excluding LULUCF). The conditional target was strengthened to 45% below BAU by 2030, up from a 42% reduction target in the first NDC. We estimate this would translate to an absolute emissions level of 84 MtCO 2 e by 2030. The CAT rates Morocco’s target as "Almost sufficient" when rated against modelled domestic pathways and when rated against the fair share contribution. Morocco is on track to meet its unconditional target by 2030. However, it will only achieve its conditional target if all planned policies are implemented. In December 2021, Morocco submitted its long-term strategy (LTS) to the UNFCCC, in which it committed to increase the share of renewable energy in the electricity mix to 80% by 2050 (Kingdom of Morocco, 2021c). In its LTS, Morocco also stated it will explore scenarios to achieve net zero emissions . The government intends to consider scenarios based on sectoral analysis to achieve carbon neutrality by the end of the century. However, a concrete plan has yet to be released. Morocco has not submitted a new NDC since COP26 despite all countries having been invited to do so before COP27.On 8 November 2021, the disputed Saharawi Arab Democratic Republic (SADR) published an indicative Nationally Determined Contribution (iNDC) for Western Sahara . It should be noted that the CAT only took into account the NDC provided by the Moroccan government and does not cover the iNDC, as SADR is not a party to the UNFCCC. It remains unclear to what extent Morocco’s planned mitigation measures, in particular in the renewable energy sector, will also be implemented in the disputed Western Sahara region.</t>
-  </si>
-  <si>
-    <t>In July 2021, Ethiopia submitted its updated NDC, committing to a 68.8% reduction below a revised business-as-usual (BAU) scenario conditional on international support (incl. LULUCF) (Federal Democratic Republic of Ethiopia, 2021). This target also includes an unconditional component, a 14% reduction below BAU, which Ethiopia will undertake with its own resources. Ethiopia intends to achieve both of these targets primarily through reductions in its land sector emissions. The CAT rates Ethiopia’s unconditional NDC target as “1.5°C compatible” when compared to its fair share contribution and its conditional NDC target as “Critically Insufficient” when compared to modelled domestic pathways. Ethiopia intends to become carbon neutral, but has not specified a target year (FDRE, 2015). The government is in the process of developing a Long-Term Low Emission Development Strategy.</t>
-  </si>
-  <si>
     <t>As of October 2023, Iran has signed but still has not ratified the Paris Agreement, meaning its climate pledge remains ‘intended’. In its Intended Nationally Determined Contribution (INDC) released in 2015, Iran pledges to reduce emissions by 4% (unconditional reduction) or 12% (conditional reduction) below business as usual (BAU) by 2030. Based on our calculations, this would translate to an unconditional reduction of 81 MtCO 2 e and a conditional reduction of around 240 MtCO 2 e compared to BAU in 2030. The INDC does not provide a BAU which makes it very difficult to assess. In the absence of a clear reference, we use the 2025 BAU provided in the Third National Communication . Values between 2026–2030 are calculated with a five-year trend from emissions growth in 2021–2025. The INDC mentions various unquantified measures to reach the unconditional pledge, including the development of combined cycle power plants, renewable and nuclear energy, as well as a reduction in gas flaring and energy efficiency measures in end-use sectors. With international support in the form of finance, technology transfer, and capacity building, the target could be increased to 12% of emissions reductions below BAU by 2030. However, the INDC states that both the conditional and unconditional pledges are subject to an absence of international sanctions. All greenhouse gases are covered under the INDC, and it seems the target is economy-wide, including emissions from LULUCF, although this is not explicitly specified.</t>
   </si>
   <si>
     <t>With the latest NDC submitted on 22 October 2021, Japan aims to achieve a 46% (50% as aspirational target) emissions reduction including LULUCF by 2030 below 2013 levels. The CAT rates this target as “Insufficient” when compared to required domestic efforts, and “insufficient” when compared to Japan’s fair share.</t>
   </si>
   <si>
-    <t>In December 2020, Kenya submitted its updated NDC to the UNFCCC, setting a new target of reducing GHG emissions by 32% by 2030, relative to the business as usual (BAU) scenario of 153 MtCO 2 e including LULUCF (143 MtCO 2 e using IPCC SAR values). This target covers all sectors, and is a small improvement from the previous target of a 30% reduction below BAU. While the previous NDC target was entirely conditional on international support, Kenya now commits to bearing 21% of the mitigation costs, or USD 3.7bn, itself, although the government notes that its financing needs may change with changing circumstances. We calculate this unconditional contribution to be equivalent to an unconditional target of 7% below BAU, including LULUCF – or 4% below BAU, excluding LULUCF emissions. This corresponds to emissions levels of 126 MtCO 2 e by 2030 (expressed in AR4 values) (see assumptions section). In its first NDC, Kenya included a separate target of 47% for the LULUCF sector. While the government has dropped explicit reference to this target in the update, we assume Kenya will meet about half of its NDC with reductions in land sector emissions. Excluding this sector, emissions in 2030 will be slightly lower under the new conditional target, decreasing from 110 to 108 MtCO 2 e. The new conditional target is equivalent to a 17% reduction below BAU by 2030 (excl. LULUCF). Kenya does not have a net zero target. It is preparing its long-term strategy.</t>
-  </si>
-  <si>
-    <t>Mexico submitted an updated NDC in November 2022, during COP27. The submission includes an unconditional emissions reduction target from BAU by up to 35% in 2030 for all greenhouse gases – up from a previous 22% emissions reduction target (Gobierno de México, 2022). It specifies that 30% of the reduction is to be achieved with own resources and the additional 5% with already agreed international cooperation and finance for ‘clean energies 1 ’. The NDC update also includes a climate target conditional to international support to reduced up to 40% emissions from BAU in 2030. The NDC update includes 2030 targets only and does not mention updates to the mid-century strategy from 2016 2 , a net zero target, nor any other long-term target. The update also explicitly removes the target to peak emissions in 2026. The 2020 NDC update was revoked in 2021 as the targets were less ambitious and less transparent than the original 2016 NDC (Gobierno de Mexico, 2020; Poder Judicial de la Federación, 2021). Already then, the BAU had been revised upwards and Mexico was using creative accounting in the BAU and target which led to higher absolute emissions levels. The recent NDC update includes a BAU baseline that has been revised upwards in comparison to its 2016 NDC and is very similar to the (no longer valid) 2022 NDC update. This update is also less transparent as it excludes the expected contribution of each sector to the achievement of the targets and it includes emissions but excludes absorptions from forestry for the BAU. Sinks, however, can be counted for achieving the target: this “gross-net” approach means that the targets require less action in other sectors. While the text mentions a number of measures in all sectors, it does not include any of the expected emissions reduction from these measures nor the total expected contribution from each sector. As a consequence of the higher BAU and creative accounting, we estimate that Mexico’s updated 2030 climate targets are less ambitious when expressed as an absolute emissions limit than those submitted in 2016. Despite submitting an NDC update in 2020, it was revoked in 2021 on the grounds of being less ambitious as the original 2016 NDC, breaching the Paris Agreement and Mexican law. We therefore do not compare this update against the 2020 NDC update, instead comparing it against the 2016 NDC. To increase the transparency of the targets, Mexico could opt to present its climate commitments as an absolute emissions limit instead of making them dependent on a shifting baseline scenario. To assess the targets in the absence of sectoral contributions – most prominently the forestry sector – we have calculated the absolute emissions level of the targets as a range where we consider the same level of emissions and sinks of that of the BAU baseline for the lower end and the historical emissions from the BAU baseline, 2013, for the upper end (see figure below). For further details please see the Assumptions section. Based on these assumptions, we estimate Mexico’s proposed unconditional NDC excluding the contribution of the forestry sector as not exceeding 786 – 863 MtCO 2 e in 2030, and its target conditional on international support as 689 – 766 MtCO 2 e in the same year. We rate Mexico’s proposed 2030 unconditional NDC target as “Critically insufficient” when compared with its fair-share contribution to climate action, and its conditional NDC target as “Highly insufficient” when compared to modelled domestic emissions pathways. 1 Mexico includes electricity generation through fossil gas efficient cogeneration of as part of its definition of ‘clean energies’. 2 Mexico’s Mid-century strategy from 2016 outlines the intention to reduce greenhouse gas emissions by 50% in 2050 below 2000 levels (Government of Mexico, 2016). We do not consider this as a “net-zero target” and will re-assess our analysis of this target once there is more clarity. Black Carbon and Mexico’s NDC Mexico’s NDC includes unconditional and conditional targets to reduce black carbon (BC) emissions, which has substantial co-benefits for human health. However, reductions in black carbon are generally not additional to reductions in CO 2 emissions, because large fractions of black-carbon emissions stem from the same emission sources as CO 2 . Emissions reduction policies therefore often reduce CO 2 and black carbon simultaneously, and this is already included in calculations of the emissions reductions in greenhouse gases required to hold warming well below 2°C globally, such as the “emissions gap” and “fair share” reductions. From the climate perspective, however, there is no established scientific method to compare the climate benefits of black-carbon reductions to those of CO 2 and other greenhouse gases. In the AR5, the IPCC does not provide calculations of GWP for BC comparable to those provided for greenhouse gases, merely noting the inherent difficulties in doing so and limiting itself to just displaying estimates from the pre-AR5 literature. While Mexico’s NDC specifies a metric to compare BC with CO 2 (GWP of 900), this is based on a single literature source (pre-dating IPCC AR5), which itself notes the very large uncertainties of around 100%.</t>
-  </si>
-  <si>
-    <t>In June 2021, in the wake of a Constitutional Court ruling that Germany’s climate targets were not strong enough, the government adopted an amendment to its 2019 climate law. The court ruled that the previous climate law from 2019 risked delaying action and putting too much burden on future generations, and asked for more clarity on the trajectory beyond 2030. The 2021 amendment of the climate revised the targets as follows (German Government, 2021a): 65% national emissions reduction below 1990 levels excl. LULUCF by 2030 – up from a 55% reduction in the 2019 climate law 88% below 1990 levels excl. LULUCF by 2040 – an additional interim goal that was not part of the 2019 climate law climate neutrality by 2045 – five years earlier than the 2050 net zero date from the 2019 climate law. Overall, the amendment includes stronger targets than the original law. The 65% reduction is close to the 69% that CAT suggests as the minimum necessary domestic effort (CAT, 2021). * Before September 2021, all CAT ratings were based exclusively on fair share and only assessed a country’s target</t>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Argentina’s 2021 NDC target of 351 MtCO 2 e in 2030 is just a 3% reduction below the previous target submitted in December 2020, and 29% below its first NDC target. Argentina’s revised NDC covers emissions from all sectors and covers CO 2 , CH 4 , N 2 O, HFCs and PFCs. The country’s first NDC also covered sulphur hexafluoride (SF 6 ). This new target represents a 9% increase in emissions above 2010 levels (excl. LULUCF). Although the new target shows a minimal increase in climate mitigation ambition, the NDC and LTS targets still need to be reflected in the short-term with concrete actions and sectoral plans, such as phasing out the exploration and extraction of fossil fuels (e.g. at the Vaca Muerta fossil gas field), eliminating fossil fuel subsidies, and addressing the country’s rising emissions from the AFOLU sector, including agriculture and cattle farming. * Before September 2021, all CAT ratings were based exclusively on fair share and only assessed a country’s target Target development timeline &amp; previous CAT analysis 12.12.2020 Argentina proposed an NDC update at the Climate Ambition Summit 30.12.2020 Argentina submitted a stronger NDC target 02.11.2021 Argentina submitted a stronger NDC target</t>
+  </si>
+  <si>
+    <t>KENYA: Submitted a stronger target on 28 December 2020. Kenya’s updated NDC has slightly strengthened its 2030 target. Whereas the previous NDC set the target of a 30% emissions reduction below BAU levels by 2030, and was fully dependent on international support, Kenya now commits to reducing BAU emissions by 32% by 2030, intending to meet part of this new target without financial support. While the introduction of an unconditional target and enhanced NDC is welcome, there is still room for Kenya to further enhance its target. In a bottom-up sectoral analysis completed in 2017, the Ministry of Environment and Natural Resources identified potential emission reductions equivalent to a 60% reduction below BAU by 2030, indicating that Kenya has much greater scope to increase its conditional target. The CAT estimates that this conditional target sits at the top of the country’s emissions trajectory based on current policies and so it is questionable how much real-world action the target will drive. Kenya’s updated submission does not provide sectoral mitigation targets. Kenya’s new NDC has also dropped its separate LULUCF target, which was a 47% reduction in emissions in the land sector. Most sectoral targets were developed after Kenya submitted its first NDC. We hope that Kenya will adopt a similar approach for the NDC update, and develop and release these targets soon. Other implementation plans have not changed significantly compared to the previous NDC. The updated NDC provides a non-exhaustive list of priority mitigation measures in various sectors. These include increasing the share of renewables in the national energy grid; enhancement of energy efficiency across sectors; achieving a tree cover of at least 10% of Kenya’s land area; and climate smart agriculture. The NDC also outlines that the planning processes for mitigation activities are determined by the country’s Vision 2030 development programme; the National Climate Change Action Plan; and the National Adaptation Plan. The NDC update provides much more detail on the country’s planning process, including an overview of Kenya’s policy, legal and institutional framework, as its NDC Revision Process, compared to its first NDC. For a more detailed assessment of Kenya’s Climate Governance, see the CAT’s latest Governance assessment here . Comparison table * Before September 2021, all CAT ratings were based exclusively on fair share and only assessed a country’s target. Target development timeline &amp; previous CAT analysis 12.12.2020 “ Kenya proposes unconditional target and slightly more ambitious conditional NDC target ” [ NOTE: all assumptions made directly in the Assumptions tab under “NDC”]</t>
+  </si>
+  <si>
+    <t>Mexico has updated its NDC, and proposes to commit to unconditionally reduce its emissions by up to 35% below a BAU baseline scenario by 2030 (30% with its own resources and an additional 5% with agreed international support and cooperation for ‘clean energies’) and up to 40% below the same baseline, conditional on receiving financial, technical and capacity building support (Gobierno de México, 2022). Given that 5% of the unconditional target will be achieved with international support, we have quantified a reduction of 30% below BAU in 2030 as the unconditional target. While at first glance, this update may be seen as an improvement from the 2016 NDC and the 2020 update (where Mexico committed to an unconditional 22% reduction below BAU in 2030 and a 36% reduction conditional to international support), we find the new targets are less ambitious than 2016 when estimating the absolute emissions level without the contribution of the forestry sector in 2030 (the CAT standard). Because the 2020 update was less ambitious and in breach of the Paris Agreement and Mexican law, it was revoked by a judge in 2021 (Poder Judicial de la Federación, 2021). Since the 2020 NDC update is no longer valid in the Mexican context, we compare the 2022 NDC targets to the original 2016 NDC, which was reinstated by a judge in 2021. The updated NDC targets result in a higher absolute emissions level than the 2016 targets, mainly for two reasons: The BAU baseline has been revised upwards. The potential contribution of sinks from LULUCF has substantially increased. In the 2016 NDC, the sink was estimated as 14 MtCO 2 in 2030 as part of the target, while the baseline now already states a sink of 158 MtCO 2 , and the fact that the land-use sector is “central” to the NDC, it can be expected this would further increase under a scenario with policies. The updated NDC does not provide a clear number for the sinks under a target pathway. In comparison, the 2016 NDC included a sectoral breakdown of the expected contributions to achieve the target. The updated NDC explicitly removes the previous target to peak emissions in 2026. The reason being that it was never binding as it was included under the ‘intended Nationally Determined Contribution’ and that parties agreed afterwards that developing countries would aim to peak as early as possible without specifying the year. It also mentions the COVID-19 pandemic, and that determining an emissions trend will require further analysis to be undertaken during the update of the Long-Term National Strategy. Mexico had submitted in 2020 an NDC update with the same percentage reductions below BAU as the original 2016 NDC, but with a higher BAU baseline and less transparency on the sectoral contributions to the target (Gobierno de Mexico, 2020). Back then, we had estimated the absolute emissions level of the targets as less as higher than previously making the targets less ambitious. In 2021, after civil society won an ‘amparo’ lawsuit (under the constitution) against the lack of ambition of Mexico’s December 2020 updated NDC, a judge reinstated Mexico’s original 2016 climate targets. The reason for this decision was that Mexico’s updated climate commitments, albeit unchanged in terms of reduction percentages, resulted in a higher emissions level due to an upward revision of the baseline. It also was less transparent than the original and excluded the target of peak emissions in 2026. The court also reinstated the 2050 goal from Mexico’s Mid-Century Strategy. Like previous submissions, the 2022 NDC update also includes targets to reduce black carbon by 51% unconditionally below BAU in 2030 and up to 70% conditional on international support in the same year. It also presents an adaptation component. For further details on the calculations, please see the Assumptions section. Comparison table *We have re-calculated the absolute emissions level of the 2020 NDC using the same assumptions on the contribution of the forestry sector, and thus the numbers in the table vary from previous updates. This leads to even higher emissions than originally estimated for both unconditional and conditional targets. The rating of the unconditional 2020 NDC worsens by one category from “Insufficient” to “Highly insufficient”. Target development timeline &amp; previous CAT analysis 05.07.2022 Mexico Assessment – court ruling to revoke 2020 NDC update and reinstate 2016 NDC 30.12.2020 Mexico’s updated NDC lowers its climate ambition and transparency, contrary to Paris Agreement rules</t>
+  </si>
+  <si>
+    <t>On December 8, 2020 Nepal submitted its second NDC to the UNFCCC. This NDC represents a step forward from its predecessor, as it now contains quantitative activity-based and policy targets in key sectors and, for the first time, some of the energy-related targets are listed as an unconditional commitment. Nepal should further enhance transparency of its NDC targets and provide an absolute emissions reduction target for all sectors. The NDC provided limited details on some of the sectoral target, so it was not possible to estimate the impact of all of them. This means the total reduction under the conditional NDC could potentially be higher than our estimates. Due to the absence of an absolute emissions reduction target for the unconditional target, the CAT could not quantify it, so we use Nepal’s current policy projections as its unconditional target. * Before September 2021, all CAT ratings were based exclusively on fair share and only assessed a country’s target. **The CAT has not quantified this target but uses emissions levels from Nepal’s Policies and action. Target development timeline &amp; previous CAT analysis 08.12.2020: Nepal submitted a stronger NDC target</t>
+  </si>
+  <si>
+    <t>Bhutan’s second NDC, submitted in June 2021, did not change the country’s carbon neutral target that it has had since 2009, and has been achieving. However, as a result of inventory data revisions, the ultimate emissions level of this target has increased. Bhutan’s target to remain carbon neutral is admirable, especially given its Least Developed Country status. However, increasing energy and industry emissions could put Bhutan in a difficult position and could potentially jeopardise its ability to remain carbon neutral in the long-term, and risks breaching its carbon neutrality. Its Third National Communication projected that Bhutan would stop being carbon neutral in the 2040s. While those estimates were based on a smaller land sink, and given that historic emissions to 2020 have been lower than projected, the fact remains that Bhutan is at risk so long as emissions in these sectors continue to grow. In its second NDC, Bhutan provided much greater detail on the types of mitigation measures it seeks to implement and the international support it needs. *Bhutan's NDC target of remaining carbon neutral remains unchanged, however the estimate is higher because of revised inventory data. **Before September 2021, all CAT ratings were based exclusively on fair share and only assessed a country’s target. ***The CAT adopts a different approach to rating Bhutan’s NDC target. Analysis of earlier NDC developments 24 June 2021 “ Bhutan submits a second NDC ”</t>
+  </si>
+  <si>
+    <t>In October 2023, Brazil resubmitted the emissions limits for 2025 and 2030 originally included in its first NDC of 2016. The government did not increase its mitigation ambition with this new submission, nor did it respond to the COP26 mandate to revisit and strengthen its 2030 targets. In its 2023 submission, Brazil reconfirmed the 1.32 GtCO 2 e and 1.2 GtCO 2 e emission limits for 2025 and 2030, respectively. It noted that these limits are consistent with emission reductions of 48.4% and 53.1%, below 2005 levels based on the latest inventory data. While the emission limits are the same in the two submissions, we consider the nature of Brazil’s target formulation to have improved, given it now emphasises the emission limits, rather than percentage reduction targets. Brazil is one of the few countries that has both a 2025 and 2030 target and has indicated that its next target will also be on a five-year scale to 2035. According to its NDC, Brazil will strive to meet its targets through domestic measures, but has not ruled out the use of international carbon markets. Brazil’s targets are not conditional on international support, though cooperation is welcome. According to our calculations, Brazil will need to implement additional policies and actions to be able to reduce emissions and achieve its NDC targets. * The difference in the CAT quantification of the original and 2023 NDC emissions limits is due to our conversion into AR4 values and the method use (see the Assumptions tab for details). The limits put forward by Brazil are the same. ** Before September 2021, all CAT ratings were based exclusively on fair share and only assessed a country’s target. Target development timeline &amp; previous CAT analysis 9.12.2020: Brazil submitted an updated NDC to the UNFCCC 5.12.2023: Brazil re-communicates its NDC to the UNFCCC</t>
+  </si>
+  <si>
+    <t>In July 2021, Canada submitted its updated NDC, where it strengthened its emission reduction target from a 30% reduction below 2005 levels by 2030 to at least 40-45% (Government of Canada, 2021c). The inclusion of the reference to ‘at least’ suggests that Canada may exceed this target. We calculate that this target equates to an emissions level in 2030 of 377-494 MtCO 2 e once the contribution from its land sector has been excluded. This is around 20 MtCO 2 e higher than our previous estimate as Canada has increased its expected (emissions-reducing) contribution from the land sector and updated its historical emissions. The range has also widened due to the significant change to land sector emissions in Canada’s 2024 inventory which casts doubts on the possibility of this sector contributing the envisaged larger-scale emissions reductions in Canada’s climate plan. The focus of Canada’s emissions reduction target is on cutting emissions domestically; however, in its NDC submission, Canada leaves the door open to supporting mitigation efforts abroad through the use of internationally transferred mitigation outcomes (ITMOs). Canada is working on its policy towards international carbon credits (Environment and Climate Change Canada, 2022a). * Includes market credits of 0.6 MtCO 2 e. Note that due to the uncertainty on the LULUCF contribution to achieving the target, we rate the middle of the uncertainty range around the 40% reduction target, which is estimated at ~455 MtCO 2 e ** Before September 2021, all CAT ratings were based exclusively on fair share and only assessed a country’s target. We are showing how it would have been rating under our current system for the sake of comparability. Analysis of earlier NDC developments: 12.07. 2021 – Canada submits its updated NDC 22.04. 2021 – Canada announces a stronger NDC target</t>
+  </si>
+  <si>
+    <t>China: Submitted a stronger target on 28 October 2021. China officially submitted its updated NDC to the UNFCCC, updating its four separate NDC targets and adding a fifth target that aims to increase renewable capacity. The NDC target revisions are all improvements in ambition for emission reductions, and emission levels expected from the targets have all been revised lower compared to the first NDC. At the time of the updated NDC submission, the expected emission levels achieved under the NDC were within the range of China’s projected current policies emissions trajectory in 2030 (13.2 to 14.5 GtCO 2 e). After considering new policy developments and energy trends, the CAT has revised China’s current policies scenario projections to 13.8 -14.6 GtCO₂e in 2030 while achieving the NDC would reach emission levels of 14.0 GtCO₂e in 2030. China is due to overachieve its non-fossil energy share and renewable capacity targets, which suggest emission levels of 15.4-16.4 GtCO₂e in 2030. This indicates that China could set more ambitious targets beyond its current policy trajectory. Meanwhile, without a significant reduction in emissions, China risks failing to meet its carbon intensity target, even if economic growth averages 5% per year in 2024-25, as stated in its 2024 government work report . China’s NDC peaking target only directly covers CO 2 gases, omitting significant emissions from energy, agriculture, waste and industry. * Emissions level and rating of China’s first NDC was based on the CPP of previous assessments when NDC was submitted and not aligned with the current CPP ** It refers to the median of the two NDC targets expected to result in lowest emissions. The lower bound is the lowest estimate for the peaking target and the upper bound is the carbon intensity target. See the Assumptions tab for more details *** Before September 2021, all CAT ratings were based exclusively on fair share and only assessed a country’s target Target development timeline &amp; previous CAT analysis “ China submits updated NDC, confirming targets announced in September 2020 ”</t>
+  </si>
+  <si>
+    <t>Colombia submitted an updated NDC in December 2020. As part of the update, Colombia increased its mitigation ambition to an absolute emissions limit of 169 MtCO 2 e including LULUCF in 2030 (AR5), equivalent to a 51% emissions reduction compared to a business as usual (BAU). The update is more ambitious than Colombia’s initial NDC, which pledged an unconditional emissions reduction of 20% and a conditional emissions reduction of 30% compared to BAU by 2030. Colombia has improved the type of target—from a reduction compared to BAU—to set an absolute cap on emissions in 2030. In addition, the commitment includes a peak in emissions by 2027. According to our projections, Colombia would need to peak GHG emissions much sooner in order to get on a pathway that would bring the 2030 NDC target within reach, let alone achieve a pathway compatible with 1.5°C temperature goal. * Values in AR4, assumptions made to quantify these targets are included in the Assumptions section ** Before September 2021, all CAT ratings were based exclusively on fair share and only assessed a country’s target Analysis of earlier NDC developments: 30.12.2020: Colombia submitted a stronger NDC target</t>
+  </si>
+  <si>
+    <t>Costa Rica’s updated NDC, submitted on 30 December 2020, includes two unconditional targets: an absolute single year 2030 emissions target, and a multi-year emissions budget for 2021 - 2030. The absolute emissions target represents a 2% improvement on Costa Rica’s original NDC submitted in 2016. Costa Rica’s NDC outlines various sectoral measures and targets but does not specify the sectoral breakdown. Specifying the sectoral breakdown or at least the contribution of the forestry sector to its target would improve the climate target’s transparency. Costa Rica’s NDC claims to be 1.5°C-compatible, however this is not substantiated in its submission. * Before September 2021, all CAT ratings were based exclusively on fair share and only assessed a country’s target. Target development timeline &amp; previous CAT analysis 30.12.2022 Costa Rica submitted a stronger NDC target</t>
+  </si>
+  <si>
+    <t>In November 2022, Norway submitted a stronger target compared to its previous 2020 NDC, Norway updated its NDC with a 2030 emissions target of at least 55% below 1990 levels. Norway’s updated target represents progress beyond its previous submission. * Before September 2021, all CAT ratings were based exclusively on fair share and only assessed a country’s target. Analysis of earlier NDC developments : 2020.02.07 - Norway's updated NDC: Progress, but not Paris compatible</t>
+  </si>
+  <si>
+    <t>The Philippines submitted an updated target in April 2021 (Philippines Government, 2021). Some key information for understanding the nature of the target is missing from both the first NDC and the update, which makes assessing any increase in ambition difficult. We have relied on subsequent material published by the Philippines’ Climate Change Commission to aid our analysis (see Assumptions tab for the full details). The Philippines updated its conditional target from 70% below an undisclosed business as usual (BAU) emissions trajectory to 75% below a defined cumulative 2020-2030 BAU emissions trajectory of 3,340.3 MtCO 2 e. The CAT estimates that the updated conditional target equates to 96 MtCO 2 e in 2030 excl. LULUCF. This target falls within the lower end of the range that the CAT had derived for the first NDC, using our own BAU assumptions. The updated target is “1.5°C global least cost” compatible when compared to the level of emissions reductions needed within the country’s borders. The Philippines will need international support to achieve this target. It is not on track to achieve this target based on current policies and will need to adopt further measures with international support. In a positive development, for the first time, the Philippines Government has set an unconditional target in its NDC update. A small fraction, 2.71% of its 75% below BAU target, is unconditional. However, the unconditional target is well above where the country’s emissions are expected to be in 2030 under current policies. As it will not drive real world emission reductions, we do not consider it to have strengthened the country’s ambition and thus classify it as such on our climate target tracker page . The CAT updated its rating methodology in September 2021. Prior to that date, we only rated government's target against their fair share contribution. Now, we rate the government's targets and policies (and provision of climate finance where relevant) against both fairness metrics and the level of emission reductions needed within the country to achieve 1.5°C. Under the old approach, we normally based our ratings on the top end of an unconditional target. In instances where a country did not have an unconditional target, we would rate their conditional target, but downgrade the rating by one category due to this conditionality. Our rating of the Philippines’ first NDC , which only included a conditional target, followed this approach. This target fell within the “1.5°C compatible” range of our former rating system, but was downgraded to “2°C compatible” because of its conditionality. Under the new rating system, conditional targets from developing countries are assessed against the level of reductions needed within their borders, with international support. As noted above, the Philippines’ updated conditional NDC target is rated as “1.5°C global least cost” compatible based on our updated rating methodology. Unconditional targets continue to be rated against a fair share contribution. We rate the Philippines’ new unconditional target as “Insufficient”. The target would need to be strengthened to around a 34% reduction from BAU, from its 2.71% level, to represent a fair contribution. Country targets are rated as a package – we combine the two target ratings by averaging. The final element of the NDC update is an aspirational goal to peak emissions by 2030. However, to achieve its conditional target, the Philippines will need to peak emissions as soon as possible and then start cutting them. It will need international support to adopt such measures. * Before September 2021, all CAT ratings were based exclusively on fair share and only assessed a country’s target.</t>
+  </si>
+  <si>
+    <t>As of October 2022, Russia had not yet submitted a strengthened NDC as requested by the Glasgow Climate Pact agreed at COP26. Russia formally submitted an updated 2030 emissions target to the UNFCCC in November 2020. The update did not strengthen the country’s 2030 target in any real sense, as it is higher than Russia’s own 2030 emissions projections (“with measures” scenario in the government reported projections) (Russian Federation, 2019b). Russia’s updated 2030 target of a 30% reduction below 1990 levels, which replaces its previous target of 25-30%, amounts to a 2030 emissions level of 2,408 MtCO 2 e, which is equivalent to 24% below 1990 levels, excluding LULUCF, according to CAT estimates. Given the latest emissions projections under current policies provided by the Russian Government show 2030 emissions at 2,296 MtCO 2 e (excluding LULUCF), this does not represent an actual cut to emissions (Russian Federation, 2019b). Russia’s 2020 NDC is stronger on paper but does not alter the real-world trajectory of its emissions. Maintaining the same level of real-world emissions in 2030 goes against the Paris Agreement’s requirement that each successive NDC should represent a progression beyond the current one. * Before September 2021, all CAT ratings were based exclusively on fair share and only assessed a country’s target. Analysis of earlier NDC developments: 25.11.2020: Russia formally submits NDC update to UNFCCC 04.11.2020: Russia adopts new 2030 target 23.03.2020: Russia proposed updated 2030 target</t>
+  </si>
+  <si>
+    <t>Singapore submitted a stronger target on 04 November 2022. Singapore’s initial NDC target was a reduction of emissions intensity of GDP by 36% below 2005 levels (0.176 gCO 2 e/SGD as specified in the NDC) by 2030 and stabilising emissions, aiming for them to peak around 65 MtCO 2 e in 2030 (Republic of Singapore, 2015). The first NDC update reframed that commitment, going from an emissions intensity target to an absolute emissions limit, which is a good structural change, but the update did not increase the ambition of the target compared to the initial NDC (Singapore Government, 2020). In 2022, Singapore submitted a further NDC update, strengthening its emissions limit, from 65 MtCO 2 e to 60 MtCO 2 e in 2030 and bringing forward its peaking year, from ‘around 2030’ to before 2030, though it did not mention a specific year in which emissions will peak. While Singapore has strengthened its target, this does not replace the need for Singapore to set more ambitious climate targets, substantially scale up climate action, and reduce absolute GHG emissions in the medium term as we still rate it ‘Highly insufficient’ overall. * Before September 2021, all CAT ratings were based exclusively on fair share and only assessed a country’s target Target development timeline &amp; previous CAT analysis 28.02.2020: Singapore’s proposed NDC update does not further limit GHG emissions beyond its earlier NDC 31.03.2020 Singapore’s NDC update does not further limit GHG emissions beyond its first NDC</t>
+  </si>
+  <si>
+    <t>South Korea submitted a stronger NDC in December 2021 – a 40% reduction in emissions compared to 2018 levels, including emissions reductions from LULUCF and international credits (Republic of Korea, 2021a). Comparison table * Before September 2021, all CAT ratings were based exclusively on fair share and only assessed a country’s target Target development timeline &amp; previous CAT analysis 23.12.2021 “ CAT Climate Target Update Tracker South Korea ” 18.10.2021 “ CAT Climate Target Update Tracker South Korea ” 30.12.2020 “ CAT Climate Target Update Tracker South Korea ”</t>
+  </si>
+  <si>
+    <t>Switzerland submitted an update to its NDC both in December 2021 – to account for changes when the CO 2 act was rejected – and again in November 2024 – when a watered-down version of the CO 2 act finally passed legislation. Both updates did not increase ambition. A first update to Switzerland’s NDC target in December 2020 did not represent an increase in ambition, as it changed only from a 50% reduction below 1990 levels to an “at least” 50% reduction, but the domestic component of the target increased from 60% to 75%. A subsequent update to Switzerland’s NDC in December 2021, however, removed entirely any specific reference to a domestic component to its overall 2030 target. The November 2024 update also left the target unchanged and did not raise ambition, instead focusing on adapting the text to better reflect recent policy developments. * Before September 2021, all CAT ratings were based exclusively on fair share and only assessed a country’s target Target development timeline &amp; previous CAT analysis 22.12.2024: Switzerland submitted a further update to its NDC to the UNFCCC 17.12.2021: Switzerland submitted a further update to its NDC to the UNFCCC 09.12.2020: Switzerland submitted its new NDC target to the UNFCCC</t>
+  </si>
+  <si>
+    <t>Thailand’s second NDC, submitted on November 2, 2022, is an improvement on its updated NDC submitted in 2020 through strengthened emission reduction targets, although several elements can still be improved. The second NDC’s overall targets include its unconditional GHG reduction target of 30% (up from 20%) and a conditional target of 40% (up from 25%) below BAU level by 2030, excluding LULUCF. Thailand has included a reference to its LT-LEDS revision, which aims for carbon neutrality by 2050 and net zero GHGs by 2065, although the alignment of the mid-term and long-term targets remain unclear from the NDC. The document has several elements which could still be improved to increase the transparency of its targets. Like the previous submission, the NDC provides no details on sectoral targets, although it has indicated forthcoming implementation plans such as the NDC Roadmap on Mitigation and Sectoral NDC plans, does not explain why its targets are a fair contribution, and does not yet cover all GHGs (missing NF3). Furthermore, Thailand has kept the same BAU emissions level of 555 MtCO 2 e by 2030 (the same as in the first NDC and updated NDC). The BAU should be updated, especially in the light of the global pandemic and energy crisis of recent years. The best practice revision to this target type, would be to submit an absolute emissions target. The document notes it intends to achieve its unconditional target through domestic efforts, but continues to explore the potential of international market-based cooperation, which could include the use of Article 6 mechanisms. Thailand has not included LULUCF within the scope of the NDC but highlights its domestic actions in forestry. Thailand’s exclusion of LULUCF from its NDC target is welcome, given it improves transparency in the target and highlights the need for action in other sectors (LULUCF in Thailand is historically a carbon sink) A separate target for LULUCF would further strengthen the NDC. The CAT calculates that the unconditional target would lead to an emissions level of 389 MtCO 2 e (a 13% improvement from its previous NDC) by 2030 excluding LULUCF, while the conditional target would lead to 333 MtCO 2 e (a 20% improvement from previous), excluding LULUCF. To achieve its conditional target, Thailand indicates that it would require adequate and enhanced access to technology development and transfer, financial resources and capacity building support. The CAT rating for Thailand’s unconditional target remains the same at “Critically insufficient”, although a slight increase in ambition would raise the target to the next rating. The CAT’s rating for Thailand’s conditional target has improved to “Insufficient”. Comparison table * Before September 2021, all CAT ratings were based exclusively on fair share and only assessed a country’s target. Target development timeline &amp; previous CAT analysis N/A</t>
+  </si>
+  <si>
+    <t>While The Gambia’s 2021 NDC is a progression from its 2016 NDC in some ways, such as expanding sector coverage, the update does not lead to lower emissions than the first NDC due to a revision of the BAU scenario. The total absolute emissions reductions of activities are higher in the updated NDC than in the first. As a result, the CAT’s rating of its NDC and overall has fallen from ‘1.5°C compatible’ to ‘Almost sufficient’. The Gambia needs to strengthen its NDC target slightly (from its current 49.7% below BAU to 53.2% below BAU) to return to 1.5°C compatibility. The Gambia submitted its second NDC in 2021 with revised mitigation targets and additional mitigation measures. It will undertake two mitigation measures in forestry and energy using its own resources. The mitigation potential of these unconditional measures would result in an absolute emissions level of about 5.53 MtCO 2 e excl. LULUCF by 2030. This is higher than the indicative unconditional target for 2030 in the first NDC (3.8 MtCO 2 e excl. LULUCF). The total emission reductions of the full NDC target are higher in the second NDC than in the first; however, the second NDC results in higher absolute emissions due to a revised BAU. The new NDC target results in an absolute emissions level of about 2.74 MtCO 2 e by 2030 (excl. LULUCF). This is higher than the indicative conditional target for 2030 in the first NDC (1.7 MtCO 2 e excl. LULUCF). The updated NDC has improved architectural elements. It now includes land use emissions, which had not been previously covered. As land use accounted for almost a third of emissions in the base year 2010, this greatly expands covered emissions. The first NDC focused on reductions in 2025 and also provided indicative 2030 targets. The 2021 NDC has shifted to 2030 targets only. The second NDC also reiterates The Gambia’s aim to achieve net zero carbon emissions by 2050, as outlined in The 2050 Climate Vision of The Gambia. Analysis of earlier NDC developments: 09.11.2021 - The Gambia submits a second NDC</t>
+  </si>
+  <si>
+    <t>In April 2023, Türkiye submitted its first updated NDC, which increased the unconditional emissions reduction target from 21% to a 41% reduction from BAU by 2030 including LULUCF (Republic of Türkiye, 2023). However, the BAU scenario used for this reduction target comes from its 2015 INDC. This scenario assumes a much faster increase in Türkiye’s GHG emissions from its 2012 reference year than what has actually occurred, making the reduction target easier to achieve (Republic of Türkiye, 2015, 2022a). The update NDC results in a 2030 emissions level of 695 MtCO 2 e including LULUCF or 765 MtCO 2 e in 2030 excluding LULUCF (assuming Türkiye’s LULUCF sink is also unchanged) (Government of the Republic of Türkiye, 2023; Republic of Türkiye, 2015, 2021; Republic of Türkiye Ministry of Environment Urbanisation and Climate Change, 2019). This updated NDC allows GHG emissions to increase by 39% compared to 2022 levels excluding LULUCF. Türkiye is on track to achieve this target under its current policies, which further highlights the weakness of this target.As it stands, the updated NDC target cannot be considered a serious attempt by Türkiye to reduce its emissions in line with limiting warming to 1.5°C. The CAT rates this updated NDC target as "did not increase ambition" because, though the emissions limit compared to the previous NDC is lower, it does not drive real world action by going beyond the median (585 MtCO 2 e) of the CAT’s current policies projection level for Türkiye. Türkiye needs to set an NDC target that will actually drive emission reductions. Ideally, this would be in the form of an emissions limit or reduction from a historical base year. At a minimum, Türkiye could update its BAU to reflect historical developments. Türkiye’s previous NDC was its 2015 INDC resubmitted as an NDC in October 2021 when Türkiye finally ratified the Paris Agreement (Republic of Türkiye, 2021). Comparison Table</t>
+  </si>
+  <si>
+    <t>The US submitted its current, more ambitious NDC target on 22 April 2021. President Biden moved to re-join the Paris Agreement on his first day in office in 2021. In line with its re-joining the agreement, the US submitted a strengthened NDC, in which the government commits to reducing emissions by 50%–52% below 2005 levels by 2030 (including emissions from land use, land use change and forestry, or LULUCF). The CAT estimates that the target would translate to a range of 3,790–4,131 MtCO 2 e absolute GHG emissions in 2030, excluding LULUCF (or 45%–50% below 2005 levels), depending on whether the sink from LULUCF is at the high or low end of the projections (U.S. Department of State, 2022). The current NDC target represents major progress beyond the Obama-era target of 26%–28% below 2005 levels by 2025. Nevertheless, the NDC is not ambitious enough to bring US domestic emissions in line with what would be needed to achieve the Paris Agreement’s 1.5°C limit. CAT analysis indicates that the US should aim to reduce its national emissions by at least 58% below 2005 levels by 2030 (incl. LULUCF) and provide support to other countries in order to be consistent with the Paris Agreement’s 1.5°C limit. Doing so will also put the US on track to achieve the Biden Administration’s 2050 net zero target (Climate Action Tracker, 2021b). The US has not submitted an update to its NDC since 2021, even though the Glasgow Climate Pact mandates countries revisit and strengthen their NDCs. * The ‘Critically insufficient’ rating was based on the fact that the US had withdrawn from the Paris Agreement and was not an assessment of the NDC emissions level, which itself would fall in the ‘Insufficient range’ based on the CAT’s prior rating system (which was updated in September 2021). Target development timeline &amp; previous CAT analysis 23.04.2021 “ Ambitious US target upgrade reduces the 2030 global emissions gap by 5–10%” 12.12.2019 “ The U.S. expected to rejoin the Paris Agreement in early 2021, bringing back the US leadership in climate action ” 04.11.2019 “ The US withdrawal from the Paris Agreement ”</t>
+  </si>
+  <si>
+    <t>In July 2021, Nigeria submitted an updated Nationally Determined Contribution (NDC) that reiterates its unconditional target of 20% below BAU by 2030 submitted in the 2017 NDC, and increases the conditional target from 45% to 47% below BAU by 2030 (Federal Government of Nigeria, 2021). The update provided revised historical data with a significantly lower BAU; about half the level of the original. The CAT uses these reductions and the revised BAU in its assessment of Nigeria’s NDC. Nigeria has also expanded the gas coverage of its NDC to include HFCs and proposes to undertake abatement measures in the waste sector, which were not considered in the first NDC. * The CAT started tracking Nigeria in October 2021 after its first NDC update. Analysis of earlier NDC developments: 30.07.2021: Nigeria submits a stronger NDC target 27.05.2021: Positive signals in Nigeria’s interim update, but significant uncertainties remain</t>
+  </si>
+  <si>
+    <t>Ethiopia submitted its final updated NDC in July 2021, building on an interim NDC update submitted in December 2020 (Federal Democratic Republic of Ethiopia, 2021). Ethiopia commits to a 68.8% reduction below a revised business-as-usual (BAU) scenario conditional on international support (incl. LULUCF). This target includes an unconditional component, a 14% reduction below BAU, which Ethiopia will undertake with its own resources. This is an improvement from Ethiopia’s 2015 Intended Nationally Determined Contribution (INDC), which did not include an unconditional component (FDRE, 2015). The 2021 updated NDC includes a revision of the BAU scenario used as a reference for the mitigation targets. While the revised BAU emissions level in 2030 is projected to be only slightly higher than in the 2015 INDC, it anticipates much higher emissions from LULUCF emissions in 2030. The updated, 2021 NDC further indicates the LULUCF sector would play a much larger role in achieving the targeted emissions reductions than in the 2015 INDC. Ethiopia intends to achieve its conditional and unconditional targets primarily (around 85% of total reductions) through reductions in its land sector emissions. Due to this increased reliance on the land sector to achieve its updated targets, we do not consider Ethiopia’s updated NDC an increase in ambition. The unconditional target results in an emissions level of 269 MtCO 2 e in 2030 (excl. LULUCF), while the conditional target would limit emissions to 237 MtCO 2 e (see Assumptions for details on how these figures were calculated). The CAT rates Ethiopia’s conditional target (“internationally supported target”) as “Critically Insufficient” when compared to modelled domestic pathways and its unconditional target (“fair share target”) as “1.5°C compatible” when compared to its fair share contribution. * Before September 2021, all CAT ratings were based exclusively on fair share and only assessed a country’s target. Analysis of earlier NDC developments: 22.07.2021: Ethiopia submits final updated NDC 31.12.2020: Ethiopia submits NDC update committing to first unconditional emissions target, though progression unclear</t>
+  </si>
+  <si>
+    <t>At the time of this assessment, Iran has not yet ratified the Paris Agreement. Target development timeline &amp; previous CAT analysis 15.09.2021 : Assessment of Iran’s Intended Nationally Determined Contribution</t>
+  </si>
+  <si>
+    <t>Japan has not updated its NDC since the major update submitted in October 2021.In this NDC update, Japan strengthened its target to a 46% (42% excluding LULUCF) reduction in 2030 below 2013 levels from the previous 26% target. This would lead to absolute emissions of 813 MtCO 2 e/year, compared to 1079 MtCO 2 e/year with the previous target (sum of sector- and gas-level targets), both excluding LULUCF (Government of Japan, 2021b). The government planned to investigate additional measures that could lead to a 50% reduction. * Before September 2021, all CAT ratings were based exclusively on fair share and only assessed a country’s target Target development timeline &amp; previous CAT analysis 21.11.2019 “ Japan’s reluctance to update its NDC - media reports ” 30.03.2020 “ Japan’s updated NDC fails to increase action, undermines Paris Agreement ” 01.09.2020 “ Japan’s revised NDC expected in 2021 will be a test for the nation’s seriousness on its 2050 net zero goal and its consistency with the Paris Agreement ” 03.2021 “ Japan’s Paris Agreement target should be more than 60% by 2030 – analysis ” 22.04.2021 “ Japan's new target a significant step, but more needed ” 22.10.2021 “ Japan submitted a stronger NDC target ”</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Egypt</t>
   </si>
   <si>
     <t>Indonesia</t>
   </si>
   <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
+    <t>The CAT rates NDC targets against each country’s fair share contribution to global climate change mitigation, considering a range of equity principles including responsibility, capability, and equality. The CAT also rates NDC targets against indicative national emissions from global least-cost emissions pathways (called modelled domestic pathways). Developing countries like Argentina may need support to achieve emissions reductions in line with a physically required pathway to achieving the 1.5°C long-term temperature goal. The CAT rates Argentina's target as "Highly insufficient" both when rated against modelled domestic pathways, and when rated against the fair share contribution. Argentina has one NDC target. It has not specified whether a portion of the target is conditional on international support or whether its NDC has an international element, so we rate its NDC target against both frameworks, fairness and modelled domestic pathways. We rate Argentina’s 2030 NDC target as “Highly insufficient” when compared with modelled domestic emissions pathways , or what Argentina needs to do within its own borders. The “Highly insufficient” rating indicates that Argentina’s NDC target in 2030 leads to rising, rather than falling, emissions and is not at all consistent with limiting warming to 1.5°C. If all countries were to follow Argentina’s approach, warming could reach over 3°C and up to 4°C by end of the century. We rate Argentina’s 2030 NDC target as “Highly insufficient” when compared with its fair share contribution to climate action. The “Highly insufficient” rating indicates that Argentina’s NDC target is not at all consistent with any principle of fairness, like responsibility, capability, or equality. If all countries were to follow Argentina’s approach, warming could reach over 3°C and up to 4°C. The improvement in the CAT rating for Argentina’s NDC target since our last update, from “Critically insufficient” to “Highly insufficient”, is not due to Argentina submitting a new and stronger NDC target, but rather to a literature update to our fair share (FS) ranges, which aligns our equity approaches with international environmental law (Rajamani et al., 2021) and therefore exclude studies based on cost-effectiveness; we also included additional studies to reflect the latest research available in the field. Therefore, this change of ratings does not represent improved climate action on the ground, compared to our previous assessment. Further information on how the CAT rates countries (against modelled domestic pathways and fair share) can be found here .</t>
+  </si>
+  <si>
+    <t>High resolution NDC description The CAT rates NDC targets against what a fair contribution to achieving the Paris Agreement’s long-term temperature goal would be as well as against what needs to happen within a country’s own borders. Kenya will need international support to achieve those needed reductions within its borders. Kenya’s NDC target outlines the mitigation costs that will be financed using its own resources versus those requiring international support. We rate the country’s unconditional target against its fair share contribution (‘Unconditional NDC target against fair share’) and its conditional target against the level of reductions needed within its border (‘Conditional NDC target against modelled domestic pathways’). The CAT rates Kenya’s conditional NDC target against modelled domestic pathways as “Critically insufficient” and its NDC target against fair share as “1.5°C compatible”. The strong difference in the two ratings reflects Kenya’s situation as a country with strong development needs and a small historical responsibility, but with relevant mitigation potential on its own territory, which it should exploit to a large extent with the help of international support. We rate Kenya’s conditional NDC as “Critically insufficient” when compared to modelled domestic pathways. The “Critically insufficient” rating indicates that it reflects minimal to no action and is not at all consistent with the 1.5°C temperature limit. If all countries were to follow Kenya’s approach, warming would exceed 4°C. Kenya should improve its conditional target and specify support needs to achieve it. Even a small improvement in the target would change the rating to “Highly insufficient”. We rate Kenya’s 2030 unconditional NDC target as “1.5°C compatible” when compared with its fair-share contribution to climate action. The “1.5°C compatible” rating indicates that Kenya’s unconditional NDC target is consistent with limiting warming to 1.5°C. Kenya’s NDC target does not require other countries to make comparably deeper reductions or greater effort and is in the most stringent part of its Fair Share range. Further information on how the CAT rates countries (against modelled pathways and fair share) can be found here .</t>
+  </si>
+  <si>
+    <t>High resolution The CAT rates Mexico’s conditional NDC target against modelled domestic pathways as “Highly insufficient” and its unconditional NDC target against fair share as “Critically insufficient”. We rate Mexico’s conditional 2030 reduction target levels as “Highly insufficient” when compared to modelled emissions pathways. The “Highly insufficient” rating indicates that Mexico’s conditional NDC target in 2030 is not at all consistent with the 1.5°C temperature limit. Mexico’s target is not in line with any interpretation of a fair approach to meeting the 1.5°C temperature limit. If all countries were to follow Mexico’s approach, warming could reach over 3°C and up to 4°C. Our rating system suggests that Mexico should receive limited international support to get on a 1.5°C compatible pathway. We rate Mexico’s 2030 unconditional NDC target as “Critically insufficient” when compared with its fair-share contribution to climate action. The “Critically insufficient” rating indicates that Mexico’s unconditional NDC target in 2030 reflects minimal to no action and is not at all consistent with the 1.5°C temperature limit. Mexico’s target is not in line with any interpretation of a fair approach to meeting the 1.5°C temperature limit. If all countries were to follow Mexico’s approach, warming would exceed 4°C. Further information on how the CAT rates countries (against modelled pathways and fair share) can be found here .</t>
+  </si>
+  <si>
+    <t>High resolution The CAT rates NDC targets against what a fair contribution to achieving the Paris Agreement’s long-term temperature goal would be as well as against what needs to happen within a country’s own borders. Morocco will need support to achieve those needed reductions within its borders. Morocco has put forward two targets in its NDC. One that it will achieving using its own resources and one that requires international support. We rate the country’s unconditional target against its fair share contribution and its conditional target against the level of reductions needed within its border defined by a modelled domestic pathway. We rate Morocco’s conditional NDC “Almost sufficient” when compared with modelled domestic emissions pathways. The “Almost sufficient” rating indicates that Morocco’s internationally supported target in 2030 is not yet consistent with the 1.5°C temperature limit but could be, with moderate improvements. If all countries were to follow Morocco’s approach, warming could be held below—but not well below—2°C. We rate the unconditional NDC reduction target as “Almost sufficient” when compared with its fair share contribution to climate action. The “Almost sufficient” rating indicates that Morocco’s unconditional target against fair share in 2030 is not yet consistent with limiting warming to 1.5°C but could be, with moderate improvements. Morocco’s target is within the range of what is considered to be a fair global effort, but would require other countries to make deeper reductions and comparably greater effort to limit warming to 1.5°C. If all countries were to follow Morocco’s approach, warming could be held below—but not well below—2°C. We have revised our previous assessment to exclude the LULUCF mitigation measures planned in the agricultural sector. This resulted in a change in the rating of the unconditional target against fair share but did not have an impact on the overall rating of Morocco. Further information on how the CAT rates countries (against modelled domestic pathways and fair share) can be found here .</t>
+  </si>
+  <si>
+    <t>The CAT rates NDC targets against what a fair contribution to achieving the Paris Agreement’s long-term temperature goal would be as well as against what needs to happen within a country’s own borders. Nepal will need support to achieve those needed reductions with its borders. Nepal has put forward two targets in its NDC. One that it will achieving using its own resources and one that requires international support. We rate the country’s unconditional target against its fair share contribution and its conditional target against the level of reductions needed within its border defined by a modelled domestic pathway. In the case of Nepal, the CAT could not quantify the unconditional target because an absolute emissions reduction target was not provided, so we use Nepal’s current policy projections as its unconditional target. Nepal’s current “Critically insufficient” rating indicates that its conditional 2030 target reflects minimal to no action and is not at all consistent with limiting warming to 1.5°C, when compared to modelled domestic pathways. If all countries were to follow Nepal’s approach, warming would exceed 4°C. We haven’t included all sectoral measures in our assessment of Nepal’s conditional target because the NDC provided limited details on some of the sectoral target, so it was not possible to estimate the impact of all of them. Nepal is encouraged to provide further information on the quantification of its NDC and to exceed this target with international support. Given the NDC has no unconditional emissions reduction target, the CAT therefore had to use Nepal’s current policy projections as its unconditional target. Our current policy projection and the conditional target both fall within the 1.5°C range. The “1.5°C compatible” rating indicates that Nepal’s fair share target is consistent with limiting warming to 1.5°C. Nepal’s fair share target does not require other countries to make comparably deeper reductions or greater effort, and is in the most stringent part of its fair share range. Further information on how the CAT rates countries (against modelled domestic pathways and fair share) can be found here .</t>
+  </si>
+  <si>
+    <t>New Zealand’s NDC target in 2030 is not consistent with limiting warming to 1.5°C when compared to modelled domestic pathways. The target aims for GHG emissions to be 50% below 2005 levels by 2030 (including LULUCF). The new target equates to around 51 MtCO 2 e/yr by 2030 excluding LULUCF. This is equivalent to 21% below 1990 levels by 2030. New Zealand needs to bring down its emissions level to 47 MtCO 2 e/yr for a 1.5°C modelled domestic pathway. We rate this target as “Almost sufficient”, moving up from previous rating of “Insufficient”. The CAT calculates a 1.5°C domestic emissions pathway for New Zealand is 44% below 2005 emissions in 2030 (excluding LULUCF). This rating indicates that New Zealand’s emissions in 2030 are not yet consistent with limiting warming to 1.5°C but could be, with moderate improvements. If all countries were to follow a similar approach, warming could be held below—but not well below—2°C. We rate New Zealand’s NDC target as “Insufficient” when compared with its fair share emissions allocation. The “Insufficient” rating indicates that New Zealand’s emissions in 2030 needs substantial improvements to be consistent with limiting warming to 1.5°C. New Zealand’s target is at the least stringent end of what would be a fair share of global effort and is not consistent with limiting warming to 1.5°C unless other countries make much deeper reductions and comparably greater effort. If all countries were to follow similar approach, warming would reach over 2°C and up to 3°C. With the 2021 update in its NDC New Zealand’s fair share rating has improved from “Critically Insufficient” to “Insufficient”. A fair share target would require New Zealand to nearly halve this target to 32 MtCO 2 e/yr by 2030 New Zealand’s NDC target would need to be 37% lower to be a 1.5°C compatible in terms of New Zealand’s fair share. The current target is equivalent to 51 MtCO 2 e in 2030 where as a 1.5°C compatible fair share target would be around 32 MtCO 2 e. Substantial improvement is needed. Some of these improvements should be made to the domestic emissions target itself, others could come in the form of additional support for emissions reductions achieved in developing countries in the form of finance. Taking both New Zealand’s emissions reduction target and climate finance into account, we rate the overall fair share contribution as “Insufficient”. New Zealand’s international public climate finance contributions are rated “Highly insufficient.” The country remains committed to climate finance in the period post-2020 but contributions to date have been very low compared to its fair share. To improve its rating New Zealand needs to improve climate finance commitments and make explicit commitments to prevent investments in fossil fuel finance abroad. Reported contributions fall short of New Zealand’s fair share contribution to the USD 100bn goal and show no clear trend of increasing. A big disbursement in 2014 distorts the trend. Annual contributions with climate as the main component have been less than a third of 2014 values – but have increased in recent years. New Zealand expects to meet its commitment to deliver a total of NZD 1.3bn in climate finance between 2022 and 2025, but this target is still insufficient. The 2022 budget allocated NZD 840m for international climate finance in addition to pre-commitments (New Zealand Ministry of Foreign Affairs and Trade 2022a). During COP27, New Zealand announced that it would contribute NZD 15m of this climate finance to the Adaptation Fund and a NZD 20m contribution to Loss and Damage (New Zealand Government 2022g; 2022e). New Zealand does not finance fossil projects overseas. New Zealand signed the COP26 statement to end public support to fossil fuels abroad (CNN 2021). In April 2021, New Zealand passed legislation which mandates climate risk reporting for banks, asset managers, and insurers, making it the first country in the world to implement such mandatory climate risk reporting . Financial institutions are required to annually report on governance, risk management as well as strategies for climate change mitigation. Further information on how the CAT rates countries (against modelled domestic pathways and fair share) can be found here .</t>
+  </si>
+  <si>
+    <t>The CAT rates NDC targets against each country’s fair share contribution to global climate change mitigation, considering a range of equity principles including responsibility, capability, and equality. The CAT also rates NDC targets against indicative national emissions from global least-cost emissions pathways (called modelled domestic pathways ). For assessing targets against the fair share, we consider both a country’s domestic emission reductions and any emissions it supports abroad through the use of market mechanisms or other ways of support, as relevant. Australia does not intend to use market mechanisms and will achieve its NDC target through domestic action alone. We rate its NDC target against both global domestic pathways and fairness metrics. The CAT rates Australia’s 2030 NDC target as “Insufficient” when compared to modelled domestic emissions pathways. Australia’s NDC targets emissions 43% below 2005 levels by 2030, including LULUCF. However, this target is dependent on LULUCF sequestration estimates, which fluctuate widely year on year. Using the government’s projections for LULUCF from 2023, this target equates to a reduction of 20% below 2005 levels by 2030 excluding LULUCF. Projections for LULUCF sequestration in 2030 increased nearly fourfold between the government’s 2021 and 2023 projections. This effectively reduces the emissions reduction task for energy, industry, agriculture and waste. The “Insufficient” rating indicates that Australia’s NDC target in 2030 needs substantial improvements to be consistent with modelled domestic pathways limiting warming to 1.5°C. If all countries were to follow Australia’s approach, warming would reach over 2°C and up to 3°C. The CAT rates Australia’s 2030 NDC target as “Insufficient” when compared to its fair share emissions allocation. The “Insufficient” rating indicates that Australia’s NDC target in 2030 needs substantial improvements to be consistent with its fair share of the global mitigation effort to limit warming to 1.5°C. Australia’s target is at the least stringent end of what would be a fair share of global effort, and is not consistent with the 1.5°C limit, unless other countries make much deeper reductions and comparably greater effort. If all countries were to follow Australia’s approach, warming would reach over 2°C and up to 3°C. Australia needs to improve its fair share contribution through both strengthened domestic emissions reductions as well as financing additional climate action in developing countries. Australia’s international public climate finance contributions are rated “Critically insufficient”. Australia has committed to increase its climate finance but contributions to date have been very low compared to its fair share. To improve its rating, Australia needs to increase the level of its international climate finance. Australia has pledged AUD 3bn towards climate finance, encompassing both mitigation and adaptation, for the 2020-2025 period. This amount represents an increase from an earlier commitment of AUD 2bn (Department of Foreign Affairs, 2023). However, concerns remain that this commitment will include the relabelling of existing funds (Oxfam, 2023). The government finally rejoined the Green Climate Fund in 2023, after withdrawing in 2019, albeit with a “modest contribution” of AUD 50 million (ABC, 2023; Minister for Foreign Affairs &amp; Minister for Climate Change and Energy, 2023b). At COP28, Australia joined the Clean Energy Transition Partnership, pledging to end direct public investments into international fossil fuels projects within a year (Minister for Foreign Affairs &amp; Minister for Climate Change and Energy, 2023a). This led the CAT to improve Australia’s fossil fuel finance overseas rating from “Highly Insufficient” to “Insufficient”. However, this does not improve Australia’s overall climate finance rating. To receive a better rating, Australia must increase the level of its international climate finance. Australia's lack of action on climate finance is central to the discussions around COP31. Australia is proposing to host the 2026 Conference of Parties in collaboration with 'the Pacific family'. In March 2023, governments from Vanuatu, Tuvalu, Tonga, Fiji, Niue, and the Solomon Islands issued the Port Vila Resolution. The resolution calls for more public and private funding to facilitate a fair transition away from fossil fuels and a reform of the global climate finance framework (Australia Institute, 2023).</t>
+  </si>
+  <si>
+    <t>High resolution We rate where Bhutan’s emissions will be in 2030 if its sectoral measures are fully implemented - against where its emissions would need to be based on a 1.5°C global least cost modelled pathway. On that basis, we find it to be 1.5°C global least compatible. We estimate Bhutan emissions will be between at 1.8-1.9 MtCO 2 e in 2030 if it implements all sectoral mitigation measures presented in its various low emissions development strategies (LEDS) for the transport, agriculture, human settlements, and industry sectors. Our rating is based on the upper value of the range. The "1.5°C global least cost" rating indicates that Bhutan’s emissions in 2030 are consistent with modelled domestic pathways limiting warming to 1.5°C. Bhutan’s target does not require other countries to make comparably deeper reductions or greater effort. It is important to highlight that Bhutan’s NDC and LEDS provide an estimate of implementation costs for the suggested actions and that Bhutan will need international support to achieve these reductions. If we followed the standard CAT rating method, Bhutan’s NDC target of “carbon neutrality” – which we take as equivalent to its net LULUCF sink of 7.8 MtCO 2 e (CAT rates targets excluding the forestry sector) – would be rated as “Critically insufficient” when compared to the level of emission reductions needed within Bhutan’s borders in order to limit warming to 1.5°C. This rating would imply that Bhutan’s NDC target in 2030 reflects minimal to no action and is not at all consistent with limiting warming to 1.5°C. However, Bhutan is already carbon neutral and making efforts to remain carbon neutral through the implementation of policies and measures. Applying our standard methodology would be misleading and unfair. A 1.5°C modelled domestic pathway based on global least cost shows what would be feasible for Bhutan to achieve with international support. A more realistic and fair method would be to apply a rating based on the anticipated level of where emissions would be if Bhutan receives support for all of the measures it has planned, and this is what we have done. We rate where Bhutan’s emissions will be in 2030 under a business-as-usual trajectory against Bhutan’s fair share contribution level. Under this approach, we rate Bhutan as “Almost sufficient”. We estimate Bhutan’s emissions under this approach to be between 3.02-3.13 MtCO 2 e in 2030. Our rating is based on the upper range of the estimate. The “Almost sufficient” rating indicates that Bhutan’s emissions in 2030 are not yet consistent with limiting warming to 1.5°C but could be, with moderate improvements. If all countries were to follow Bhutan’s approach, warming could be held below—but not well below—2°C. Again, following the standard CAT rating method – where we would rate Bhutan’s NDC target to “remain carbon neutral”, estimated as 7.8 MtCO 2 e in 2030, against its fair contribution – we would rate Bhutan as “Critically insufficient”. This would indicate that Bhutan’s target in 2030 reflects minimal to no action and is not at all consistent with limiting warming to 1.5°C based on its fair share contribution. However, Bhutan is already carbon neutral and is making efforts to remain carbon neutral through the implementation of policies measures. Applying our standard methodology would be misleading and unfair. For a country like Bhutan, its fair share contribution represents what would be fair to do using its own resources. As Bhutan has indicated it will need support to implement the measures outlined in its NDC, using a business as usual projection is a good measure of where Bhutan’s emissions will be in 2030 with its own resources and thus a more realistic and fair basis upon which to apply the CAT rating. The upper end of range falls within the "Almost sufficient" category. Bhutan could become 1.5°C compatible in the future if it slows its emissions growth. Further information on how the CAT rates countries (against modelled domestic pathways and fair share) can be found here .</t>
+  </si>
+  <si>
+    <t>The CAT rates NDC targets against each country’s fair share contribution to global climate change mitigation, considering a range of equity principles including responsibility, capability, and equality. The CAT also rates NDC targets against indicative national emissions from global least-cost emission pathways (" modelled domestic pathways "). Most developing countries may need support to achieve emissions reductions in line with its share of a global least-cost pathway to achieving the 1.5°C long-term temperature goal. Brazil has one NDC target. It has not specified whether a portion of the target is conditional on international support or whether its NDC has an international element, so we rate its NDC target against both its fair share contribution and the level of reductions needed in line with modelled domestic pathways. The CAT assesses emissions excluding LULUCF . Our estimates of Brazil’s targets excluding LULUCF — and their corresponding rating — are highly dependent on the assumptions on the extent to which Brazil will rely on the sector to achieve its NDC. Brazil’s NDC mentions their commitment to achieve zero deforestation by 2030 but it does not give further details as to the expected emissions level for the sector in the future. We expect additional clarity from Brazil in its next communication. We rate Brazil’s 2030 NDC target as “Almost sufficient” when compared to modelled domestic emissions pathways. The “Almost sufficient” rating indicates that Brazil’s NDC target in 2030 is not yet consistent with its share of a global least-cost pathway limiting warming to 1.5°C but could be, with moderate improvements. If all countries were to follow Brazil’s approach, warming could be held below—but not well below—2°C. While the current NDC is stronger than the one submitted in 2022 under the previous administration, it is not enough to improve its rating against our modelled domestic pathways. Brazil is not on track to achieve either its 2025 or 2030 targets and needs to adopt additional policies to cut its emissions. Whether Brazil should receive climate finance from abroad to reduce its emissions is a matter of debate. Our methods do not provide a clear answer to this question. On balance, the CAT methodology shows Brazil needing a small amount of international support is technically consistent with a wide range of literature on fair share contributions to meet the Paris Agreement's goals. However, this contribution would likely be small under most equity perspectives. As a result, the NDC target achieved with its own resources would still need to be improved to align more closely with the 1.5°C limit, regardless of international support. We rate Brazil’s 2030 NDC target as “Almost sufficient” when compared with its fair share contribution to climate action. In 2023, Lula’s administration reverted to the original NDC's absolute emission targets submitted in 2016, which improved this rating by one category compared to the NDC submitted in 2022. However, according to our methodology, this new submission still falls short of being a fair contribution by Brazil to global climate action. The “Almost sufficient” rating indicates that Brazil’s NDC target in 2030 is not yet consistent with its fair share of the global mitigation effort to limit warming to 1.5°C but could be, with moderate improvements. Brazil’s target would require other countries to make deeper reductions and comparably greater effort to limit warming to 1.5°C. If all countries were to follow Brazil’s approach, warming could be held below—but not well below—2°C. Brazil is not on track to achieve either its 2025 or 2030 targets and will need to adopt additional policies to cut their emissions. Further information on how the CAT rates countries (against modelled domestic pathways and fair share) can be found here .</t>
+  </si>
+  <si>
+    <t>The CAT rates NDC targets against each country’s fair share contribution to global climate change mitigation, considering a range of equity principles including responsibility, capability, and equality. The CAT also rates NDC targets against indicative national emissions from global least-cost emissions pathways (called modelled domestic pathways ). For assessing targets against the fair share, we consider both a country’s domestic emission reductions and any emissions it supports abroad through the use of market mechanisms or other ways of support, as relevant. Canada has indicated that it will use market mechanisms to achieve its target, but has not provided full details on the extent of this usage with regard to internationally transferred mitigation outcomes (ITMOs). For the first time, Canada has been explicit about the amount of international credits from the US regional Emissions Trading System (ETS) that it intends to use for its target – it is a small amount 0.6 MtCO 2 e. We have rated its NDC target without credits from the US ETS against global domestic pathways and the NDC target with credits from the US ETS against our fair share metric. The CAT rates Canada’s domestic target as “Almost sufficient” when compared to modelled domestic pathways and as “Insufficient” when compared to its fair share emissions allocation (“fair share target”). The “Almost sufficient” rating indicates that Canada ’s domestic target in 2030 is not yet consistent with the 1.5°C temperature limit but could be, with moderate improvements. If all countries were to follow Canada’s approach, warming could be held below—but not well below—2°C. In the graph above, the ‘domestic target gap’ shows the difference between where Canada’s updated NDC target is and where it would need to be to be 1.5°C compatible based on global least cost modelling. We rate Canada’s 2030 target as “Insufficient” when compared with its fair-share emissions allocation. The “Insufficient” rating indicates that Canada’s NDC target in 2030 needs substantial improvements to be consistent with its fair share to the global mitigation effort to limit warming to1.5°C. Canada’s target is at the least stringent end of what would be a fair share of global effort, and is not consistent with the 1.5°C limit, unless other countries make much deeper reductions and comparably greater effort. If all countries were to follow Canada’s approach, warming would reach over 2°C and up to 3°C. To close the ‘fair share gap’ Canada either needs to begin supporting emission reductions abroad (on top of its domestic reductions, not as a means to reach its current NDC target level) or increase its provision of climate finance. Canada’s international climate finance is rated “Highly insufficient” (see below) and is not enough to improve Canada’s fair share rating. Canada’s international public climate finance contribution is rated “Highly insufficient.” In June 2021, Canada announced a doubling of its climate finance commitment to CAD 5.3bn over the next five years (Government of Canada, 2021d). The support will cover mitigation, adaptation and loss and damage measures (Government of Canada, 2022d). While the doubling of future climate finance commitments is a positive, Canada’s CAT climate finance rating is still “Highly insufficient” as its contributions to date (OECD, 2022) have been low compared to its fair share. The CAT weighs absolute contributions the highest amongst the four elements we assess. Canada remains committed to the collective goal of USD 100bn a year in climate finance for developing countries through 2025. However, the USD 100bn goal on its own is insufficient in the period post-2020. Canada is making progress on reducing support for fossil fuel development abroad, but a complete phase-out by 2030 looks unlikely. At COP26, Canada agreed to “end new direct public support for the international unabated fossil fuel energy sector by the end of 2022”, but it kept the door open to allow for exceptions under certain circumstances (Government of Canada, 2022p; UK Government, 2021) . Its export credit agency claims to be implementing this ban and to not renew unabated fossil investments upon maturity, but foresees this natural turnover to only lead to a 15% reduction in their oil and gas financing by 2030 (Export Development Canada, 2023) To improve its rating, Canada needs to stop funding fossil fuel overseas completely and accelerate commitments to increase climate finance.</t>
+  </si>
+  <si>
+    <t>The CAT rates NDC targets against each country’s fair share contribution to global climate change mitigation, considering a range of equity principles including responsibility, capability, and equality. The CAT also rates NDC targets against indicative national emissions from global least-cost emission pathways (" modelled domestic pathways "). Most developing countries may need support to achieve emissions reductions in line with their share of a global least-cost pathway to achieving the 1.5°C long-term temperature goal. Chile has put forward two targets in its NDC: one that it will achieve using its own resources, and one that is conditional on specific financial, markets, technological and political conditions and may require international support. We rate the country’s unconditional target against its fair share contribution and its conditional target, which Chile refers to as its ‘internationally supported’ target, against the level of reductions needed according to the modelled domestic pathways. We rate Chile’s 2030 conditional NDC target – a reduction of up to 45% in net emissions by 2030, subject to international support – as “Almost sufficient” when compared with modelled domestic emissions pathways. This rating indicates that Chile’s conditional target in 2030 is not yet consistent with modelled domestic pathways limiting warming to 1.5°C but could be, with moderate improvements. If all countries were to follow Chile’s approach, warming could be held below—but not well below—2°C. To improve its rating and be consistent with the 1.5°C temperature limit, Chile could increase the ambition of its conditional 2030 climate target equivalent to an absolute emissions limit of 78 MtCO2e excl. LULUCF in 2030 and, if necessary, outline the international support that it would need to achieve it. While Chile does not explicitly ask for international finance, the NDC states that the 45% reduction target is conditional on specific financial, markets, technological and political conditions. On balance, however, the CAT methodology shows that provision of a small amount of international support is consistent with the wide range of literature on fair share contributions to meeting the Paris Agreement’s goals. The 2020 NDC links the 2030 target to the long-term goal for GHG neutrality by 2050, as well as to planning processes involving governance and existing and future strategies, including the “Long-term Climate Strategy 2050.” According to the NDC text, the current NDC planning and update process should allow for the NDC and its consecutive iterations to be intermediate milestones to achieve the 2050 neutrality goal, i.e. taking into account the necessary measures to reach the goal (Government of Chile, 2020a). It also includes a target to reduce black carbon emissions by at least 25% by 2030 below 2016 emission levels. Black Carbon and Chile’s NDC Chile’s 2020 NDC update includes a target to reduce black carbon emissions, which has substantial co-benefits for human health. However, reductions in black carbon are generally not additional to reductions in CO2, because large fractions of black carbon emissions stem from the same emission sources as CO2. Emission reduction policies therefore often reduce CO2 and black carbon simultaneously, and this is already included in calculations of the emissions reductions required to hold warming well below 2°C globally, like the “emissions gap” and “fair share” reductions (see section on Fair Share ). In its Sixth Assessment Report (AR6), the IPCC does not provide calculations of Global Warming Potential for black carbon comparable to those provided for greenhouse gases. The report indicates a net-positive effect on warming of black carbon over time and concludes that reducing black carbon emissions in the short-term would contribute to limiting temperature increase to 1.5°C. For information on Chile’s 2019 draft NDC or its original submission in 2017, see our comparison assessment of Chile’s NDCs and the previous country assessment of the 2017 NDC submission. We rate Chile’s 2030 unconditional NDC target as “Almost sufficient ” when compared to its fair-share contribution to climate action . The “Almost sufficient ” rating indicates that Chile’s unconditional target in 2030 is not yet consistent with its fair share of the global mitigation effort to limit warming to 1.5°C but could be, with moderate improvements. Chile’s target is within the range of what is considered to be a fair global effort, but would require other countries to make deeper reductions and comparably greater effort to limit warming to 1.5°C. If all countries were to follow Chile’s approach, warming could be held below—but not well below—2°C. The unconditional NDC target rating has changed from “Insufficient” to “Almost sufficient”. However, this change is due to a literature update to our fair share (FS) ranges, which aligns our equity approaches with international environmental law (Rajamani et al. , 2021) and therefore exclude studies based on cost-effectiveness; we also include additional studies to reflect the latest research available in the field. The change of ratings does not represent improved climate ambition, compared to our previous assessment.</t>
+  </si>
+  <si>
+    <t>The CAT rates NDC targets against each country’s fair share contribution to global climate change mitigation, considering a range of equity principles including responsibility, capability, and equality. The CAT also rates NDC targets against indicative national emissions from global least-cost emissions pathways (called modelled domestic pathways ). China will need minimal support to achieve those needed reductions within its borders. China has one NDC (with four energy-related targets) and the CAT rating is based on the two targets which are estimated to have the lowest emission levels: the lower end of the carbon intensity target and the upper end of the peaking target. It has not specified whether a portion of the target is conditional on international support or whether its NDC has an international element, so we rate its NDC target against both metrics. Under China’s peaking and carbon-intensity NDC targets, the targets expected to achieve the lowest emission levels, China’s emission levels would reach 14.0 GtCO 2 e/year in 2030 (the median of the two NDC targets expected to result in lowest emissions). China is likely to overachieve its energy-related NDC commitments with our current policy projections. The CAT rates China’s NDC target against modelled domestic pathways as “Highly Insufficient”. The “Highly Insufficient” rating indicates that China’s NDC target in 2030 is not at all consistent with modelled domestic pathways limiting warming to 1.5°C. If all countries were to follow China’s approach, warming would reach over 3°C and up to 4°C. Whether China should or should not receive some climate finance from abroad to reduce its emissions is a matter of debate. Our methods do not provide a clear answer to this question. On balance, the CAT methodology shows that China needing a small but important amount of international support is consistent with the wide range of literature on fair share contributions to meeting the Paris Agreement's goals (the figure above shows it to receive a small contribution). In any case, the NDC target achieved with its own resources would need to be increased significantly to be in line with the 1.5°C limit. China’s emission levels under its NDC commitments are higher than what would be deemed Paris-compatible compared to our “fair share” approach, resulting in our rating of “Insufficient”. The upgrade in rating compared to the previous assessment is due to an update in the underlying data, not because of any actual change in the target. The “Insufficient” rating indicates that China’s NDC target in 2030 needs substantial improvements to be consistent with its fair share of the global mitigation effort to limit warming to 1.5°C. China’s target is at the least stringent end of what would be a fair share of global effort and is not consistent with the 1.5°C limit, unless other countries make much deeper reductions and comparably greater effort. If all countries were to follow China’s approach, warming would reach over 2°C and up to 3°C.</t>
+  </si>
+  <si>
+    <t>The CAT rates NDC targets against what a fair contribution to achieving the Paris Agreement’s long-term temperature goal would be, as well as against what needs to happen within a country’s own borders. Colombia will need international support to achieve those needed reductions within its borders. Colombia has one NDC target. It has not specified whether a portion of the target is conditional on international support or whether its NDC has an international element, so we rate its NDC target against both metrics. Colombia has not put forward a target conditional on receiving international support. However, the NDC document mentions that for Colombia t o be able to move towards a more ambitious NDC, with additionality and impact, the continuity of international cooperation will be key to continuing on this path in all aspects of its NDC . The CAT methodology shows that provision of international support is consistent with the wide range of literature on fair share contributions to meeting the Paris Agreement's goals. As Colombia has not put forward a conditional target, we assess its unconditional NDC target against modelled domestic pathways, i.e. what would need to happen within Colombia’s borders to be consistent with limiting warming to 1.5°C. Against that framework, the unconditional NDC target rates it as “Insufficient”. The “Insufficient” rating indicates that the target needs substantial improvements to be consistent with limiting warming to 1.5°C. If all countries were to follow Colombia’s approach, warming would reach over 2°C and up to 3°C. Colombia’s rating has improved by one category, from “Highly insufficient” to “Insufficient”. The change is due to the manner in which we exclude LULUCF from the NDC, rather than any change in the target itself. In our last assessment, we indicated that there was significant uncertainty on the extent to which Colombia intends to rely on the land sector and so we developed a target range based on different approaches. Due to the further information provided in the country’s latest biennial report, we have dropped the upper end of our range (see Assumptions tab for further details). In addition to being inconsistent with a 1.5°C pathway when compared to modelled domestic pathways, Colombia’s NDC target is also inconsistent with a 1.5°C pathway when compared to its fair share contribution. In order to achieve its fair share contribution under the Paris Agreement, Colombia would need to reach absolute emissions of at or below 139 MtCO 2 e in 2030. We estimate Colombia’s NDC target to be 161 MtCO 2 e by 2030 (excl. LULUCF). The CAT rates the target as “Almost sufficient”. The “Almost sufficient” rating indicates that Colombia’s NDC target in 2030 is not yet consistent with limiting warming to 1.5°C but could be, with moderate improvements. Colombia’s target is within the range of what is considered to be a fair global effort, but would require other countries to make deeper reductions and comparably greater effort to limit warming to 1.5°C. If all countries were to follow Colombia’s approach, warming could be held below—but not well below—2°C. Colombia’s rating has improved by one category, from “Insufficient” to “Almost sufficient”. The change is due to the manner in which we exclude LULUCF from the NDC, rather than any change in the target itself (see the Assumptions tab for further details). Further information on how the CAT rates countries (against modelled pathways and fair share) can be found here .</t>
+  </si>
+  <si>
+    <t>The CAT rates NDC targets against what a fair contribution to achieving the Paris Agreement’s long-term temperature goal would be as well as against what needs to happen within a country’s own borders. Developing countries like Costa Rica will need support to achieve emission reductions in line with a physically required pathway to achieving the 1.5°C long-term temperature goal. Costa Rica has one NDC target. It has not specified whether a portion of the target is conditional on international support or whether its NDC has an international element, so we rate its NDC target against both fairness metrics and modelled domestic pathways. CAT ratings are based on emissions excluding the LULUCF sector. To obtain the NDC emissions level excluding LULUCF, the CAT takes two estimates provided by the Costa Rican government and creates a range. For more details, please see the Assumptions section. In the absence of a target conditional on international support, we rate Costa Rica’s 2030 NDC target as “Almost sufficient” when compared with modelled domestic emissions pathways. The “Almost sufficient” rating indicates that Costa Rica’s NDC target is not yet consistent with modelled domestic pathways limiting warming to 1.5°C but could be, with moderate improvements. If all countries were to follow Costa Rica’s approach, warming could be held below—but not well below—2°C. Costa Rica’s updated climate target represents an improvement compared to its first NDC, however it is not stringent enough to limit warming to 1.5°C. To improve its rating and be consistent with the 1.5°C temperature limit, Costa Rica could submit a conditional 2030 climate target that is at least 7% lower than its current unconditional target (equivalent to an absolute emissions limit of 11 MtCO 2 e excl. LULUCF in 2030) and, if necessary, outline the international support that it would need to achieve it. We rate Costa Rica’s 2030 NDC target as “1.5°C compatible” when compared with its fair-share contribution to climate action. The “1.5°C compatible” rating indicates that Costa Rica’s NDC target is consistent with its fair share of the global mitigation effort to limit warming to 1.5°C. Costa Rica’s NDC target does not require other countries to make comparably deeper reductions or greater effort and is in the most stringent part of its fair share range. Further information on how the CAT rates countries (against modelled pathways and fair share) can be found here .</t>
+  </si>
+  <si>
+    <t>High resolution The CAT rates NDC targets against what a fair contribution to achieving the Paris Agreement’s long-term temperature goal would be as well as against what needs to happen within a country’s own borders. Peru will need international support to achieve those needed reductions within its borders. Peru has put forward two targets in its NDC: one that it will achieve using its own resources (unconditional), and one that requires international support (conditional). We rate the unconditional target against Peru’s fair share contribution (‘Unconditional NDC target against fair share ’) and its conditional target against the level of reductions needed within its border (‘Conditional NDC target against modelled domestic pathways’). We rate Peru’s conditional NDC target as “Insufficient” when compared with modelled domestic emissions pathways. The “Insufficient” rating indicates that Peru’s conditional NDC target in 2030 needs substantial improvements to be consistent with the 1.5°C temperature limit. If all countries were to follow Peru’s approach, warming would reach over 2°C and up to 3°C. We rate Peru’s 2030 unconditional NDC target as “Insufficient” when compared with its fair-share contribution to climate action. The “Insufficient” rating indicates that Peru’s unconditional NDC target in 2030 needs substantial improvements to be consistent with the 1.5°C temperature limit. Peru’s target is at the least stringent end of what would be a fair share of global effort and is not consistent with the 1.5°C limit, unless other countries make much deeper reductions and comparably greater effort. If all countries were to follow Peru’s approach, warming would reach over 2°C and up to 3°C. Further information on how the CAT rates countries (against modelled domestic pathways and fair share) can be found here .</t>
+  </si>
+  <si>
+    <t>The CAT rates NDC targets against what a fair contribution to achieving the Paris Agreement’s 1.5°C temperature limit would be, as well as against what needs to happen within a country’s own borders. The Philippines will need international support to achieve the required reductions within its borders. The Philippines’s NDC target includes a portion that is unconditional, that it will achieve using its own resources. We rate that portion against its fair share contribution. The full NDC target will require international support to achieve, and we rate that against the level of reductions needed within the Philippines’s border. Further information on how the CAT rates countries (against modelled domestic pathways and fair share) can be found here . The “1.5°C global least cost” rating indicates that Philippines’ conditional target is consistent with limiting warming to 1.5°C. This rating compares the Philippines’ conditional target against global least cost 1.5°C modelled domestic emissions pathway. The Philippines’ conditional target does not require other countries to make comparably deeper reductions. However, it does require international support to achieve. The Philippines’ conditional target is estimated to be 96 MtCO 2 e by 2030 (excl. LULUCF). The Philippines’ unconditional mitigation target is inconsistent with a 1.5°C pathway when compared to its fair share contribution. For the target to be aligned with 1.5°C, it would need to reach absolute emissions of 260 MtCO 2 e or below in 2030. We estimate the Philippines’ unconditional domestic target to be 384 MtCO 2 e by 2030 (excl. LULUCF). The CAT rates this target as “Insufficient”. The “Insufficient” rating indicates that the Philippines’ unconditional target needs substantial improvements to be consistent with limiting warming to 1.5°C. The Philippines target is at the least stringent end of what would be a fair share of global effort, and is not consistent with the 1.5°C temperature limit, unless other countries make much deeper reductions and comparably greater effort. If all countries were to follow the Philippines’ approach, warming would reach over 2°C and up to 3°C. Since our last assessment, for the Philippines' fair share contribution we have changed both what we are rating and the rating itself. Previously, we rated the Philippines as “2°C compatible”, but this rating was given under our old rating system and in relation to its conditional target (the only one it had at the time). The conditional target actually fell in the “1.5°C compatible” range but was downgraded due to its conditionality (see NDC update section above for further details). The Philippines adopted an unconditional target in its updated NDC. We rate this target against a fair share contribution and find it to be “Insufficient”.</t>
+  </si>
+  <si>
+    <t>The CAT rates NDC targets against what a country should be doing within its own borders as well as what a fair contribution to limiting warming to 1.5°C would be. For assessing NDC targets against the fair share, we consider both a country’s domestic emission reductions and any emissions it supports abroad through the use of market mechanisms or other ways of support, as relevant. The CAT rates Russia's NDC target as "Highly insufficient" when rated against modelled domestic pathways, and "Critically insufficient" when rated against its fair share contribution. We assess Russia’s total fair share contribution by considering its emissions reduction target and its climate finance. Russia’s climate finance is not sufficient to improve the fair share rating. The CAT rates Russia’s updated NDC 2030 emissions target, at least a 30% reduction below 1990 levels (incl. LULUCF), as “Highly insufficient” when compared with modelled domestic emissions pathways. The “Highly insufficient” rating indicates that Russia’s domestic target in 2030 leads to rising, rather than falling, emissions and is not at all consistent with limiting warming to 1.5°C. If all countries were to follow Russia’s approach, warming could reach over 3°C and up to 4°C. We rate Russia’s updated 2030 NDC target as “Critically insufficient” when compared with its fair share emissions allocation. The “Critically insufficient” rating indicates that Russia’s target, compared to what its fair share would be in 2030, reflects minimal to no action and is not at all consistent with limiting warming to 1.5°C. Russia’s target is not in line with any interpretation of fairness. Substantial improvements are needed. Some of these improvements should be made to the NDC target itself, others could come in the form of additional support for emissions reductions achieved in developing countries in the form of finance. If all countries were to follow Russia’s approach, warming would exceed 4°C. Russia’s international climate finance is rated as “Critically insufficient” (see below) and is not enough to improve Russia’s fair share rating. Russia’s international public finance contributions are rated as “Critically insufficient”. Russia has not made any substantial contribution to international climate finance since the adoption of the Paris Agreement. To improve its rating, Russia needs to urgently both increase its financial contributions and stop funding fossil fuels abroad. As of August 2022, Russia committed USD 3m in climate finance to the Green Climate Fund in the initial resource mobilisation (IRM) round and USD 10m in the first replenishment round, which lasts until 2023 (Green Climate Fund, 2022). Even considering these commitments, contributions remain critically insufficient considering the size of Russia’s economy and its historical responsibility. Russia actively finances fossil fuels abroad. From 2013 to 2019, Russia sent USD 1.5bn in public finance to countries in Africa and the Middle East to support fossil fuel projects (Ferris, 2021) including coal, such as in the Long Phu Coal Plant in Vietnam (Ferris, 2021; Global Energy Monitor, 2022). Further information on how the CAT rates countries (against modelled domestic pathways and fair share) can be found here .</t>
+  </si>
+  <si>
+    <t>The CAT rates Saudi Arabia’s NDC target as “Critically insufficient” when compared to modelled domestic pathways. This rating indicates that Saudi Arabia’s NDC target in 2030 reflects minimal to no action and is not at all consistent with modelled domestic pathways limiting warming to 1.5°C. If all countries were to follow Saudi Arabia’s approach, warming would exceed 4°C. Saudi Arabia's NDC rating against modelled domestic pathways has deteriorated compared to our previous assessment due to an update in our modelled domestic pathways to the pathways assessed in the AR6. This latest evidence shows that Saudi Arabia requires lower 2030 emissions to be consistent with a 4°C compatible pathway. As a result, its NDC rating is no longer “Highly insufficient” and falls into the “Critically Insufficient” range. Our newer pathways better capture national circumstances - including the recent plateauing in Saudi Arabia's emissions - and for higher temperature levels show less room for emissions growth than the previous set. The CAT rates Saudi Arabia’s NDC target against fair share as “Critically insufficient”. This rating indicates that Saudi Arabia’s NDC target reflects minimal to no action and is not at all consistent with its fair share of the global mitigation effort to limit warming to 1.5°C. If all countries were to follow Saudi Arabia’s approach, warming would exceed 4°C. Further information on how the CAT rates countries (against modelled domestic pathways and fair share) can be found here .</t>
+  </si>
+  <si>
+    <t>The CAT rates NDC targets against each country’s fair share contribution to global climate change mitigation, considering a range of equity principles including responsibility, capability, and equality. The CAT also rates NDC targets against indicative national emissions from global least-cost emissions pathways (called modelled domestic pathways). For assessing targets against the fair share, we consider both a country’s domestic emissions reductions and any emissions it supports abroad through the use of market mechanisms or other ways of support, as relevant. Singapore has indicated that it may use market mechanisms to achieve its target but has not provided any details on the extent of such usage. In the absence of any clarity on the extent of usage, we have rated its NDC target against both domestic and fairness metrics. While CAT modelled domestic pathways do not reflect Singapore’s particularly low domestic RE potential, these pathways do reflect the rapid decarbonisation in the Southeast Asian region that Singapore should follow, if not lead. Given its context, Singapore can play an even larger role in driving regional decarbonisation and energy collaboration. The CAT rates Singapore's NDC target as "Highly insufficient" when compared against modelled domestic pathways. The “Highly insufficient” rating indicates that Singapore’s domestic target in 2030 leads to rising, rather than falling, emissions and is not at all consistent with limiting warming to 1.5°C. If all countries were to follow Singapore’s approach, warming could reach over 3°C and up to 4°C. The CAT also rates Singapore's NDC target as "Highly insufficient" when rated against its fair share contribution. The “Highly insufficient” rating indicates that Singapore’s NDC target in 2030 leads to rising, rather than falling, emissions and is not at all consistent with limiting warming to 1.5°C. Singapore’s target is not in line with any interpretation of fairness. If all countries were to follow Singapore’s approach, warming could reach over 3°C and up to 4°C. Further information on how the CAT rates countries (against modelled domestic pathways and fair share) can be found here .</t>
+  </si>
+  <si>
+    <t>We rate the 2030 reduction target as “Almost sufficient” when compared to modelled emissions pathways. The “Almost sufficient” rating indicates that South Africa’s NDC target in 2030 is not yet consistent with the 1.5°C temperature limit but could be with moderate improvements. If all countries were to follow South Africa’s approach, warming could be held at—but not well below—2°C. The CAT rates South Africa’s reduction target based on the upper range of its target, which falls in the “Almost sufficient” range, even if close to the limit to “1.5°C compatible”. If South Africa were to meet the lower end of the range it would be 1.5°C compatible when compared to modelled emissions pathways; however, it would still fall short of its fair-share contribution. South Africa currently relies on foreign investments and international finance support to implement a large percentage of its climate change programmes, and the government also emphasises in its updated NDC that the implementation of its NDC will be enabled by financial support as specified in the Paris Agreement. We rate South Africa’s 2030 NDC target as “Insufficient” when compared with its fair-share contribution to climate action. The “Insufficient” rating indicates that South Africa’s target needs substantial improvements to be consistent with limiting warming to 1.5°C. The target is at the least stringent end of what would be a fair share of global effort, and is not consistent with the 1.5°C limit, unless other countries make much deeper reductions and comparably greater effort. If all countries were to follow South Africa’s approach, warming would reach over 2°C and up to 3°C. CAT interprets the full NDC target as unconditional. As South Africa only needs to reach its upper end of the target range to fulfil the NDC, we rate that emissions level. If South Africa committed to meeting the lower end of its target range, the rating would change to “Almost sufficient” when compared to the fair share contribution. Further information on how the CAT rates countries (against modelled pathways and fair share) can be found here .</t>
+  </si>
+  <si>
+    <t>High resolution South Korea has clearly stated the extent to which its NDC target will be achieved through domestic reductions and the portion of emission reductions that will be achieved through the support of action abroad. We rate the domestic component of its NDC against what needs to happen within its border based on modelled domestic pathways and the full NDC target (reduction achieved both domestically and abroad) against what a fair contribution would be. We rate South Korea’s domestic target for 2030 as “Insufficient” when compared modelled domestic pathways. The “Insufficient” rating indicates that South Korea’s domestic target in 2030 needs substantial improvements to be consistent with the Paris Agreement’s 1.5°C temperature limit. If all countries were to follow South Korea’s approach, warming would reach over 2°C and up to 3°C. We rate South Korea’s overall NDC target (including the domestic and the international element) as “Highly insufficient” when compared with its fair-share contribution to climate action. The “Highly insufficient” rating indicates that South Korea’s fair share target in 2030 leads to rising, rather than falling, emissions and is not in line with any interpretation of a fair approach to meeting the Paris Agreement’s 1.5°C limit. If all countries were to follow South Korea’s approach, warming could reach over 3°C and up to 4°C.</t>
+  </si>
+  <si>
+    <t>The CAT rates NDC targets against each country’s fair share contribution to global climate change mitigation, considering a range of equity principles including responsibility, capability, and equality. The CAT also rates NDC targets against indicative national emissions from global least-cost emissions pathways (called modelled domestic pathways ). For assessing targets against a fair share, we consider both a country’s domestic emissions reductions and any emissions reductions it supports abroad through the use of market mechanisms or other ways of support, as relevant. Switzerland has clearly stated that it will achieve a portion of emission reductions to meet its NDC target through the use of mitigation outcomes sourced from abroad. To rate Switzerland’s NDC target, we assess a domestic component of its NDC against what needs to happen within its border based on modelled domestic pathways and the full NDC target (reduction achieved both domestically and abroad) against what a fair contribution would be. Switzerland, however, has not communicated a domestic share of its 2030 target in its NDC. Instead, it has remained vague on the extent to which its NDC target will be achieved through domestic reductions. In earlier amendments of the CO2 Act, Switzerland had proposed a domestic share target of at least 75% of the full target by 2030 below 1990 (Schweizer Parlament, 2020). In a follow-up amendment of the CO 2 Act (known as Succession Act) of 2021, however, it included a targeted 67% reduction of the full target (Der Bundesrat, 2021). This has since been replaced by vague comments stating that “The reduction of greenhouse gas emissions is primarily achieved with measures within Switzerland. The Federal Council determines the share.” (Bundesgesetz Über Die Reduktion Der CO 2 -Emissionen (CO 2 -Gesetz) (Entwurf), 2022). This wording has remains the same in the current draft of 2024 (Bundesgesetz Über Die Reduktion Der CO 2 -Emissionen (CO 2 -Gesetz), 2024). In January to March 2024, the matter was discussed in commissions in both chambers of Parliament with proposals for 75% and 70% (of the full target) on the table, but all proposals were rejected. Consequently, the Environment Minister Albert Rösti promised that he would propose a 67% share to the Federal Council (Das Schweizer Parlament, 2024). Other official messages imply that at least 30% of emissions reductions (60% of the 50%) will be targeted domestically. To rate Switzerland’s NDC we have therefore had to make assumptions on the domestic component. A range between 30%, which seems to be the current consensus to aspire for (Botschaft Zur Revision Des CO 2 -Gesetzes Für Die Zeit Nach 2024, 2022) and 33%, which was removed from previous drafts for unknown reasons (Der Bundesrat, 2021) and was “promised” by the Environment Minister (Das Schweizer Parlament, 2024) seem to be where Switzerland is realistically headed and was thus assessed here. The lack of specificity regarding the proportion of emissions that Switzerland intends to reduce domestically versus abroad is problematic, as it becomes difficult to assess the effectiveness of its overall emissions reduction strategy. This makes it challenging to hold Switzerland accountable for its emission reduction commitments. Equally, the lack of transparency raises questions about the sincerity of Switzerland's commitment. It is important for governments to provide transparent information on their emission reduction plans, as reducing GHG emissions is a global effort and trust and international cooperation are key. Switzerland intends to achieve the remaining target through Internationally Transferred Mitigation Outcomes (ITMOs). Since October 2020, Switzerland has signed bilateral agreements with several countries including Peru, Ghana, Senegal, Georgia, Vanuatu, Dominica, Thailand, Ukraine, Morocco, Malawi, Uruguay, Chile and Tunisia, which establish means of cooperation on the transfer of mitigation outcomes under Article 6 of the Paris Agreement (Schweizerische Eidgenossenschaft, 2024). While developed countries have to support mitigation in less developed countries, there is a more constructive way to pursue bilateral cooperation, which is climate finance. Governments should prioritise fulfilling their fair share of climate finance contributions before transferring mitigation outcomes supported abroad (Warnecke et al., 2021). To effectively address all these concerns, Switzerland should provide a clear and detailed NDC with deep emission reductions domestically, and provide sufficient climate finance. The CAT rates Switzerland’s estimated domestic target as “Almost sufficient” and its overall NDC target compared with its fair-share emissions allocation as “Insufficient.” We rate the estimated domestic component of Switzerland’s 2030 emissions target, a 30% to 33% reduction below 1990 levels, as “Insufficient” when compared with modelled domestic pathways. The “Insufficient” rating indicates that Switzerland’s domestic component of its NDC target in 2030 needs substantial improvement to be consistent with modelled domestic pathways limiting warming to 1.5°C. If all countries were to follow Switzerland’s approach, warming would reach over 2°C and up to 3°C. We rate Switzerland’s overall NDC target as “Insufficient” when compared with its fair-share emissions allocation. The “Insufficient” rating indicates that Switzerland’s NDC target needs substantial improvements to be consistent with its fair share of the global mitigation effort to limit warming to 1.5°C . Switzerland’s target is at the least stringent end of what would be a fair share of global effort, and is not consistent with the 1.5°C limit, unless other countries make much deeper reductions and comparably greater effort. If all countries were to follow Switzerland’s approach, warming would reach up to 3°C. Switzerland’s international climate finance is rated “Insufficient” (see below) and is not enough to improve Switzerland’s fair share rating. Switzerland’s international public climate finance contribution is rated “Insufficient”. Switzerland has committed to increase its climate finance and, despite a steady annual increase leading to USD 411m in 2020, its contributions to date have been low compared to its fair share. In 2020 Switzerland additionally mobilised USD 106m from the private sector and increased its specific support for bilateral adaptation activities to USD 129m (Swiss Federal Office for the Environment, 2022). Climate finance contributions fall short of Switzerland’s fair share contribution to the USD 100bn goal but show an increasing trend. Several recent developments indicate a commitment to international climate finance. Switzerland is one of the only countries that has explicitly prioritised an equal distribution of adaptation and mitigation funding for public bilateral financing (Alliance Sud, 2020). Other decisions that lead to the upward trend are the increase of the level of official development assistance to 0.5 per cent of gross national income, the gradual shift of development assistance to place an enhanced focus on climate change, and the new strategy for international development cooperation 2021–2024, which provides for an increase in funding for climate change mitigation and adaptation to CHF 400 m (approximately USD 426 m) per year by 2024 (Swiss Federal Office for the Environment, 2022). Switzerland remains committed to the USD 100bn goal in climate finance for developing countries per year through 2025, and it considers multilateral mobilised private climate finance as well as the full-face value of the climate finance outflow of multilateral institutions as climate finance accountable towards the 100 billion US dollars goal. Based on Switzerland's economic performance and the polluter-pays principle, the Swiss government estimates its fair share of international finance contributions to be around CHF 450-600m (Federal Council of Switzerland, 2017). This is close to its current investments; however, civil society organisations recommend a fair share of around CHF 1 bn per year (Alliance Sud, 2020). In addition, the USD 100bn goal itself is insufficient for the post-2020 period, and the scale of financial contributions would remain insufficient to increase Switzerland’s CAT climate finance rating. A clear and sustained increase in international climate mitigation finance is therefore needed. To fulfil the non-domestic component of its emissions reduction target, Switzerland is one of only a few countries that officially intends to achieve part of its NDC target through Internationally Transferred Mitigation Outcomes (ITMOs) on the basis of Article 6 of the Paris Agreement and has already signed bilateral agreements. Switzerland has signed bilateral carbon credit agreements with Peru, Ghana, Senegal, Georgia, Vanuatu, Dominica, Thailand, Ukraine, Morocco, Malawi, Uruguay, Chile, and Tunisia (Schweizerische Eidgenossenschaft, 2024). These developments are not rated in the finance component of the CAT rating. Instead, the full international NDC, that includes such agreements, is rated against Switzerland’s fair share goal - and rated “Insufficient”. To align with the sentiment of “highest possible ambition”, Switzerland must first set its domestic NDC within at least an “Almost sufficient” range. Although not transparently communicated (see NDC target), the estimated domestic share in Switzerland lies outside this threshold. As a second step, the country would have to provide its fair share of climate finance. This should be prioritised before purchasing credits and accounting the associated emission reductions. As Switzerland is not providing its fair share of international climate finance, the CAT does not consider it legitimate to offset for the fair share rating. Nevertheless, the CAT does acknowledge the transparency of Switzerland’s credit purchase agreements. Further information on how the CAT rates countries (against modelled pathways and fair share) can be found here .</t>
+  </si>
+  <si>
+    <t>High resolution The CAT rates NDC targets against what a fair contribution to achieving the Paris Agreement’s long-term temperature goal would be as well as against what needs to happen within a country’s own borders. Thailand has put forward two targets in its NDC. One that it will achieve using its own resources and one that requires international support. We rate the country’s unconditional target against its fair share contribution (‘Unconditional NDC target against fair share’) and its conditional target against the level of reductions needed within its border (‘conditional NDC target against modelled domestic pathways’). We rate Thailand’s 2030 conditional target as “Insufficient”. The “Insufficient” rating indicates that Thailand’s conditional NDC target in 2030 is not yet consistent with the 1.5°C temperature limit, and is associated with a 3 °C-compatible trajectory, when compared to modelled domestic pathways. We rate Thailand’s unconditional NDC target “Critically insufficient” when compared to its fair share. Thailand’s unconditional targets remain based on an inflated BAU that is significantly higher than its current and planned policy projections, even before the onset of COVID-19. Economic trends post-pandemic now lends even more weight to the possibility that the BAU is unrealistic and should be revised downward, with a corresponding strengthening of its emissions reduction targets. If all countries were to follow Thailand ’s current approach, warming would exceed 4°C. Further information on how the CAT rates countries (against Modelled domestic pathways and Fair share) can be found here .</t>
+  </si>
+  <si>
+    <t>The CAT rates NDC targets against each country’s fair share contribution to global climate change mitigation, considering a range of equity principles including responsibility, capability, and equality. The CAT also rates NDC targets against indicative national emissions from global least-cost emissions pathways (called modelled domestic pathways ). For assessing targets against the fair share, we consider both a country’s domestic emission reductions and any emissions it supports abroad through the use of market mechanisms or other ways of support, as relevant. The CAT rates Türkiye’s updated NDC target as “Critically insufficient” when rated against both modelled domestic pathways and against its fair share contribution. Türkiye has one NDC target. It has not specified whether a portion of the target is conditional on international support or whether its NDC has an international element, so we rate its NDC target against both modelled domestic pathways and fairness metrics. Further information on how the CAT rates countries (against modelled domestic pathways and fair share) can be found here . We rate Türkiye’s updated NDC target as “Critically insufficient” when compared with modelled domestic pathways. The “Critically insufficient” rating indicates that Türkiye’s 2030 target reflects minimal to no action and is not at all consistent with limiting warming to 1.5°C. If all countries were to follow Türkiye’s approach, warming would exceed 4°C. Türkiye is on track to achieve this target based on our emissions estimate for 2030 under current policies, which further highlights the weakness of this target as it will not drive real-world emission reductions. We rate Türkiye’s updated NDC target as “Critically insufficient” when compared with its fair share contribution to climate action. The “Critically insufficient” rating indicates that Türkiye’s 2030 target reflects minimal to no action and is not at all consistent with its fair share of the global mitigation effort to limiting warming to 1.5°C. Türkiye’s target is not in line with any interpretation of a fair approach to meeting the 1.5°C temperature limit. If all countries were to follow Türkiye’s approach, warming would exceed 4°C. We do not have sufficient information to assess Türkiye’s climate finance contribution. Under the UNFCCC, Türkiye is an Annex I country and thus not eligible to receive climate finance through the Green Climate Fund (GCF). Our methods do not provide a clear answer for the need for finance for Türkiye. On balance, the CAT methodology shows that Türkiye should receive limited climate finance, if any. Our approach would not expect Türkiye to provide climate finance to other countries. Further information on how the CAT rates countries (against modelled pathways and fair share) can be found here .</t>
+  </si>
+  <si>
+    <t>The CAT rates NDC targets against each country’s fair share contribution to global climate change mitigation, considering a range of equity principles including responsibility, capability, and equality. The CAT also rates NDC targets against indicative national emissions from global least-cost emissions pathways (called modelled domestic pathways ). For assessing targets against the fair share, we consider both a country’s domestic emission reductions and any emissions it supports abroad through the use of market mechanisms or other ways of support, as relevant. The CAT rates the UAE's NDC target as "Almost sufficient" when rated against modelled domestic pathways, and "Insufficient" when rated against its fair share contribution. The UAE does not specify a conditional target or an international element in its NDC, so we rate the NDC target against both fairness metrics and modelled domestic pathways. CAT ratings are based on emissions excluding the LULUCF sector. To obtain the NDC emissions level excluding LULUCF, the CAT takes the UAE’s own sectoral target for LULUCF, presented in its 2023 NDC update. For more details, please see the Assumptions section. The CAT rates the UAE’s 2030 NDC target as “Almost sufficient” when compared with modelled domestic emissions pathways. The “Almost sufficient” rating indicates that the UAE’s NDC target in 2030 is not yet consistent with limiting warming to 1.5°C but could be, with moderate improvements. If all countries were to follow the UAE’s approach, warming could be held below—but not well below—2°C. The CAT rates the UAE’s 2030 NDC target as “Insufficient” when compared with its fair share contribution to climate action. The “Insufficient” rating indicates that the UAE’s NDC target in 2030 needs substantial improvements to be consistent with its fair share of the global mitigation effort to limit warming to 1.5°C. The UAE’s target is at the least stringent end of what would be a fair share of global effort and is not consistent with the 1.5°C limit, unless other countries make much deeper reductions and comparably greater effort. If all countries were to follow the UAE’s approach, warming would reach over 2°C and up to 3°C. The UAE’s NDC rating has improved compared to our previous assessment for two reasons: First, we have updated the UAE’s historical data, resulting in lower emissions (excluding LULUCF) compared to the previous assessment. Our new estimates come from the UAE’s latest inventory, published in its 5 th National Communication to the UNFCCC. Second, the CAT conducted a literature update to its fair share (FS) ranges, which aligns our equity approaches with international environmental law (Rajamani et al., 2021) and therefore exclude studies based on cost-effectiveness; it also included additional studies to reflect the latest research available in the field. This update yielded more lenient FS ranges for the UAE, contributing to improve its rating. Further information on how the CAT rates countries (against modelled pathways and fair share) can be found here .</t>
+  </si>
+  <si>
+    <t>The CAT rates NDC targets against what a country should be doing within its own borders as well as what would qualify as a country’s fair contribution to achieving the Paris Agreement’s long-term temperature goal. For assessing targets against the fair share, we consider both a country’s domestic emissions reductions and any emissions reductions it supports abroad through the use of market mechanisms or other ways of support, as relevant. The US does not intend to use market mechanisms and will achieve its NDC target through domestic action alone. We rate its NDC target against both domestic and fairness metrics. We rate the target of reducing emissions by 50%–52% (or 45%–50% excluding emissions from land-use, land-use change and forestry or LULUFC) below 2005 levels by 2030 as “Almost sufficient” when compared to modelled domestic emissions pathways. The “Almost sufficient” rating indicates that the US target in 2030 is not yet consistent with the 1.5°C temperature limit but could be, with moderate improvements. If all countries were to follow the US approach, warming could be held at—but not well below—2°C. Although the target represents a significant improvement compared to its first NDC, the current target is not stringent enough to limit warming to 1.5°C and needs further improvements. We rate the target of reducing emissions by 50%–52% (or 45%–50% excl. LULUCF) below 2005 levels by 2030 as “Insufficient” when compared with its fair-share emissions allocation. The “Insufficient” rating indicates that US’ NDC target for 2030 needs substantial improvement to be consistent with limiting warming to 1.5°C. The US target is at the least stringent end of what would be a fair share of global effort. The target is not consistent with the 1.5°C limit, unless other countries make much deeper reductions and comparably greater effort. If all countries were to follow US’ approach, warming would reach over 2°C and up to 3°C. The US’ international climate finance contributions is rated “Critically insufficient” (see below) and is not enough to improve the US’ fair share rating. We rate the US’ international public climate finance contributions as “Critically insufficient.” The US has committed to increase its climate finance, but contributions to date have been much lower than its fair share. To improve its rating, the US needs to ramp up the level of its international climate finance contributions and accelerate the phase-out of all fossil fuel financing abroad (and not only coal). Contribution levels and trends The US Congress approved a budget allocation for international climate finance of no less than USD 0.9bn (Congressional Research Service, 2024) for FY2024, although the Biden Administration requested an allocation of USD 5bn. As a result of a more stringent federal spending cap, the FY2024 finance provision is less than the provision in the first years of the Biden Administration (Thwaites, 2024). For FY2025, the administration accordingly reduced its requested funding to USD 3.5bn. The US State Department, however, claims it is on track to reach its pledge to contribute USD 11.4bn per year by 2024, with a projected contribution of USD 9.5bn in FY2023 (U.S. Department of State, 2024). The difference between the climate finance commitment approved by Congress and the total claimed by the State Department is due to the fact that Congress’ funding only represents a small share of US’ total international climate finance, as other agencies contribute the bulk of financing (Thwaites, 2024; U.S. Department of State, 2024). However, the sources of the US’ climate finance are not transparently reported. While Congress’ budget allocation does not include any funding for the Green Climate Fund (GCF), the US government has pledged to contribute USD 3bn to the GCF. The GCF is the primary international vehicle for supporting developing countries in their efforts to respond to and build resilience to the climate crisis (DeLauro, 2022). The commitment of USD 11.4bn per year by 2024 falls short of the US’ fair contribution. While the OECD reported in 2022 that international climate finance provided by developed countries exceeded the USD 100bn goal per year for the first time, a “new collective quantified goal on climate finance” for post-2025 is already being discussed by UNFCCC parties (UNFCCC, 2024). To demonstrate global leadership on climate finance and to contribute towards its fair share, the US needs to substantially scale up its international climate finance provisions. The CAT finance rating would improve if the US were to successfully augment its level of finance through a sustained upwards trend in annual contributions. The US has historically provided a significant portion of its climate-related financial contributions as grants, which are more concessional than loans. Climate finance contributions declined during the Trump Administration, but this trend has since been reversed by the Biden Administration, which in 2021 increased its bilateral climate-related Official Development Assistance (ODA) (OECD, 2022). Bilateral climate finance by the US, as reported as principal and significant financing, further increased in 2022 as a result of an increase in adaptation financing. Principal mitigation financing actually decreased by half, from almost USD 1bn to less than USD 500m, reflecting a shift by the Biden Administration towards adaptation financing (OECD, 2024). Overall, the US' allocation of funding to bilateral climate-related ODA increased from 3% in 2021 to 10% in 2022 of total ODA spending, but remains well below the OECD's Development Assistance Committee (DAC) member countries' average of 24% (Donor Tracker, 2021, 2023). This continues to highlight a substantial shortage in the US' financial commitment to addressing climate change through ODA. Increasing these contributions would not only allow the US to play a larger role in global climate action, but would also align with its renewed commitment to international cooperation under the Biden Administration. Fossil fuel financing abroad The US, along with several other countries, agreed to “end new direct public support for the international unabated fossil fuel energy sector” by the end of 2022 (The White House, 2021a). The 2023 G7 Communique claims to have achieved this goal (The White House, 2023d). However, the US has neither developed plans nor introduced policies to implement this commitment. The US also has not supported a proposal put forward by the European Union to end fossil fuel finance from export banks (E&amp;E News by POLITICO, 2024). In 2023, the Export-Import Bank of the US (EXIM), an independent US government agency that provides concessions for projects that seek to boost US exports, continued to lend money to foreign fossil fuel projects, including USD 100m to Indonesia’s national oil company to expand an oil refinery and boost production. Estimates suggest that EXIM’s total lending amounted to USD 1bn in 2023 (Aronoff, 2023). While the US government claims to be actively working with EXIM to end its financing of fossil fuel projects, the export agency itself does not seem to take a proactive role in doing so, claiming it has no jurisdiction to end these projects (Friends of the Earth US, 2024). In January 2024, EXIM’s lack of action resulted in two members of the agency’s climate advisory board resigning over a decision to support a fossil fuel project in Bahrain (Friedman &amp; Tabuchi, 2024). EXIM plans to finance further fossil fuel projects, including in Guyana, Malaysia, Mexico, Mozambique, and Papua New Guinea (Friends of the Earth US, 2024). Although the US has not approved any new domestic coal projects in more than a decade (Friedman &amp; Tabuchi, 2024), the US continues to support existing coal projects abroad, such as the Jawa 9-10 Suralaya Coal Plant in Indonesia and the Long Phu 1 Coal Plant in Vietnam (EndCoal, 2020). The US should stop supporting all fossil fuel developments abroad to improve its climate finance rating.</t>
+  </si>
+  <si>
+    <t>NOTE: This update does not conduct a new rating of the UK’s climate targets, as the new government only entered power in July 2024. Instead, it describes the context inherited by the new government and highlights key areas for improvement. We will respond to any major announcements and provide an updated rating for the UK in 2025. The CAT rates NDC targets against each country’s fair share contribution to global climate change mitigation, considering a range of equity principles including responsibility, capability, and equality. The CAT also rates NDC targets against indicative national emissions from global least-cost emissions pathways (called modelled domestic pathways). For assessing targets against the fair share, we consider both a country’s domestic emission reductions and any emissions it supports abroad through the use of market mechanisms or other ways of support, as relevant. The UK does not intend to use market mechanisms and will achieve its NDC target through domestic action alone. We rate its NDC target against both modelled domestic pathways and fairness metrics. When compared against least cost modelled pathways which limit warming to 1.5°C, the UK’s target is rated as "Almost Sufficient". The “Almost Sufficient” rating indicates that the UK’s domestic target in 2030 is not yet consistent with modelled domestic pathways limiting warming to 1.5°C but could be, with moderate improvements. If all countries were to follow the UK’s approach, warming could be held below—but not well below—2°C. This is a downgrade of the UK’s NDC compared to the CAT's 2022 UK assessment, where we rated the UK’s target as 1.5ºC compatible. This is because the CAT is now producing modelled domestic pathways via the latest global scenarios assessed by the IPCC’s AR6 report, rather than the older scenarios from the IPCC’s Special Report on 1.5ºC. The lack of progress in global emissions reductions in recent years is increasing the pressure on the emissions cuts needed by 2030. As a result, under the latest pathways, the UK’s emissions need to fall faster to align with 1.5ºC, and the UK’s NDC (which was previously only just aligned with 1.5ºC) has now been downgraded to "Almost Sufficient". This highlights the importance of aligning with 1.5ºC in the most robust manner possible. The CAT’s assessment of the UK’s total fair share contribution takes into account its emissions reduction target and its climate finance. When compared against what would be a fair share of effort towards achieving the Paris Agreement goals, the UK’s NDC is rated as “Insufficient”. The “Insufficient” rating indicates that the UK’s NDC target in 2030 needs substantial improvements to be consistent with its fair share of global mitigation effort to limit warming to 1.5°C. The UK’s target is at the least stringent end of what would be a fair share of global effort and is not consistent with the 1.5°C limit, unless other countries make much deeper reductions and comparably greater effort. If all countries were to follow the UK’s approach, warming would reach over 2°C and up to 3°C. The UK’s current NDC sets a target of 253 MtCO 2 e/yr in 2030 (when expressed in AR4 GWPs excl. LULUCF). To improve its fair share rating, the UK would need to cut emissions by an additional 280–400 MtCO 2 e, to reach negative GHG emissions by 2030. Some of these additional reductions can be achieved domestically, by cutting UK emissions to more than 68% below 1990 levels (WWF, 2020). Where possible, the UK should seek to increase the ambition of its 2030 target to 70% and beyond. Where further emissions reductions are not possible, the UK would need to support climate action in other countries, particularly through capacity building, technology transfer and climate finance. Without this, the UK cannot be seen to be aligned with the Paris Agreement’s commitment to reflect ‘equity and the principle of common but differentiated responsibilities’ in climate action. The UK’s reported contributions to financing emission reductions abroad fall far short of its fair share (Gabbatiss, 2023) contribution to the USD 100 bn goal which itself needs to be increased substantially to help drive the global energy transition (Pachauri et al., 2022). On this (most important) metric, the UK is therefore rated as “Highly Insufficient”. In 2019, the UK committed to doubling its climate finance provision from GBP 5.8 bn (USD 7.6 bn) across 2016–2020 to GBP 11.6 bn (USD 15.1 bn) across 2021–2026 (UK Government, 2019), which earns it an “Almost sufficient” rating for future commitments. However, in July 2021 it was revealed that this would not be new funding, and instead would be taken from the existing aid budget (Merrick, 2021). This is in contradiction with a UN-brokered agreement that such funding would be ‘new and additional’ (UNFCCC, 2011). The UK has also consistently underspent climate finance over 2021–2023 (Rowlatt, 2023), and UK total climate finance provision fell from 2020/21 to 2022/23 (Gabbatiss, 2023). The previous government attempted to meet its target partly by further reclassifying existing aid spending as climate finance (FCDO, 2023). Such an approach is deeply regrettable. The new UK government should aim to reclaim leadership in the area of climate finance by: Committing to reaching the GBP 11.6 bn goal across 2021–2026 Resetting the rules on what constitutes climate finance to put the UK at the front of the pack in terms of tracking climate finance (rather than in the middle with other donors) Committing to an ambitious climate finance goal for post-2026 Further information on how the CAT rates countries (against modelled domestic pathways and fair share) can be found here .</t>
+  </si>
+  <si>
+    <t>The CAT rates NDC targets against what a fair contribution to achieving the Paris Agreement’s long-term temperature goal would be as well as against indicative national emissions from global least-cost pathways that achieve the Paris Agreement’s temperature goal (called modelled domestic pathways). Viet Nam has put forward two targets in its NDC: one that it will achieve using its own resources (15.8% GHG emissions reduction from BAU) and one that is conditional on international support (43.5% GHG emissions reduction from BAU). We rate the country’s unconditional target against its fair share contribution and its conditional target against the level of reductions needed within its borders aligned with a global least cost pathway (modelled domestic pathway). We estimate that Viet Nam’s conditional target would result in an emissions level of 620 MtCO 2 e (excluding LULUCF) in 2030, which we rate as “Critically Insufficient”. This rating is based on Viet Nam’s modelled domestic pathway for a 1.5°C limit. The “Critically insufficient” rating indicates that Viet Nam’s conditional target reflects minimal to no action and is not at all consistent with limiting warming to 1.5°C. If all countries were to follow Viet Nam’s approach, warming would exceed 4°C. With the NDC update, Viet Nam’s emission reductions under its conditional target have strengthened by 17% but are close to two times higher than the 1.5°C modelled domestic pathway (353 MtCO 2 e) for 2030. Substantial improvement is needed in this target. It is important that Viet Nam sets a stronger target to plan faster emissions reductions, and not lock itself into a high carbon future. We estimate that Viet Nam’s unconditional target would result in an emissions level of 863 MtCO 2 e (excluding LULUCF) in 2030, which we rate as “Critically Insufficient”. This rating is based on Viet Nam’s fair share contribution at a 1.5°C limit. The “Critically insufficient” rating indicates that Viet Nam’s unconditional target reflects minimal to no action and is not at all consistent with limiting warming to 1.5°C. Viet Nam’s target is not in line with any interpretation of fairness. If all countries were to follow Viet Nam’s approach, warming would exceed 4°C. With the NDC update Viet Nam’s emission reductions under its unconditional target have improved by only 4% and are around 2.5 times more than a 1.5˚C compatible faire share target (350 MtCO 2 e).</t>
+  </si>
+  <si>
+    <t>The CAT rates NDC targets against what a fair contribution to achieving the Paris Agreement’s long-term temperature goal would be as well as against what needs to happen within a country’s own borders. Nigeria will need support to achieve those needed reductions with its borders. Nigeria has put forward two targets in its NDC: one that it will achieve using its own resources and one that requires international support. We rate Nigeria’s unconditional target against its fair share contribution as “1.5°C compatible” and its conditional target against the level of reductions needed within its border defined by a modelled domestic pathway as “Almost sufficient”. In its 2021 NDC update, Nigeria committed to reducing emissions by 47% below BAU by 2030, conditional on international support. This is equivalent to an emissions level 1% above to 23% below 2010 levels by 2030, excluding LULUCF. While this is a strong conditional target, Nigeria will need to strengthen its policies to make sure it has the enabling conditions in place to meet the target, in addition to receiving international support. The CAT rates Nigeria’s 2030 conditional target as “Almost sufficient,” a rating that indicates that Nigeria’s conditional NDC target in 2030 is not yet consistent with limiting warming to 1.5°C but could be, with moderate improvements. If all countries were to follow Nigeria’s approach, warming could be held below—but not well below—2°C. Nigeria’s conditional target spans the CAT’s "Almost sufficient" and 1.5°C compatible ratings. The large target range is due to uncertainty around the extent to which Nigeria plans to rely on the land sector in meeting its target. Further clarity from Nigeria on this may result in a 1.5°C compatible target. In its 2021 NDC update, Nigeria recommitted to unconditionally reducing emissions 20% below BAU by 2030. This is equivalent to an emissions level of 17-27% above 2010 levels (excl. LULUCF) by 2030. The CAT rates Nigeria’s 2030 unconditional target as 1.5°C compatible. The “1.5°C compatible” rating indicates that Nigeria’s unconditional NDC target is consistent with limiting warming to 1.5°C. Nigeria’s unconditional NDC target does not require other countries to make comparably deeper reductions or greater effort, and is in the most stringent part of its fair share range. The fair share literature for Nigeria is sparse and some equity categories have few data points. As a result, the upper bound of Nigeria’s fair share range is dominated by a handful of studies. This high range is not reflective of the majority of the literature, which indicates more stringent emission reductions. Future equity studies may help to improve the fair share analysis for Nigeria.</t>
+  </si>
+  <si>
+    <t>High resolution The CAT rates NDC targets against what a fair contribution to achieving the Paris Agreement’s long-term temperature goal would be as well as against what needs to happen within a country’s own borders. Kazakhstan will need support to achieve the reductions needed within its borders. Kazakhstan has put forward two targets in its NDC: one that it will achieve using its own resources and one that requires international support. We rate the country’s unconditional target against its fair share contribution and its conditional target against the level of reductions needed within its border. We rate Kazakhstan’s conditional NDC as “Almost sufficient” when compared to modelled domestic pathways. The “Almost sufficient” rating indicates that Kazakhstan’s conditional NDC target for 2030 is not yet consistent with the 1.5°C temperature limit but could be, with moderate improvements. If all countries were to follow Kazakhstan’s approach, warming could be held below—but not well below—2°C. However, the conditional target is very close to the upper limit of this rating category, meaning that a small change in the numbers could lead to a worse rating. We rate Kazakhstan’s 2030 unconditional NDC target as “Insufficient” when compared with its fair share contribution to climate action. The “Insufficient” rating indicates that Kazakhstan’s unconditional NDC target in 2030 needs substantial improvements to be consistent with limiting warming to 1.5°C. If all countries were to follow Kazakhstan’s approach, warming would reach over 2°C and up to 3°C. Kazakhstan’s target is at the least stringent end of what would be a fair share of global effort and is not consistent with the 1.5°C limit unless other countries make much deeper reductions and comparably greater effort. Further information on how the CAT rates countries (against modelled domestic pathways and fair share) can be found here .</t>
+  </si>
+  <si>
+    <t>The CAT rates NDC targets against each country’s fair share contribution to global climate change mitigation, considering a range of equity principles including responsibility, capability, and equality. The CAT also rates NDC targets against indicative national emissions from global least-cost emissions pathways (called modelled domestic pathways ). For assessing targets against the fair share , we consider both a country’s domestic emission reductions and any emissions it supports abroad through the use of market mechanisms or other ways of support, as relevant. The EU does not intend to use market mechanisms and will achieve its NDC target through domestic action alone. We rate its NDC target against both global domestic pathways and fairness metrics. On October 2023, the EU submitted an updated NDC. The target of reducing emissions by at least 55% below 1990 levels by 2030 (incl. LULUCF and international aviation) is the same as the previous NDC from December 2020. However, the EU has increased its land sector target by 85 MtCO 2 e implying that it is aiming to reduce net emissions by more than 55%. Excluding LULUCF and international aviation, the target equates to 52% below 1990 levels. The CAT rates this target as “Insufficient” when compared to the level of emissions reductions needed within the EU’s borders. The “Insufficient” rating indicates that the EU’s NDC target in 2030 needs substantial improvements to be consistent with limiting warming to 1.5°C. If all countries were to follow EU’s approach, warming would reach over 2°C and up to 3°C. The CAT’s assessment of the EU’s total fair share contribution takes into account its emissions reduction target and its climate finance. When measured against a fair share emissions allocation, we rate the EU’s NDC target as “Insufficient”. The “Insufficient” rating indicates that the EU’s NDC target in 2030 needs substantial improvement to be consistent with limiting warming to 1.5°C. The EU’s target is at the least stringent end of what would be a fair share of global effort, and is not consistent with the 1.5°C limit, unless other countries make much deeper reductions and comparably greater effort. Some of these improvements should be made to the domestic emissions target itself, others could come from supporting additional emissions reductions achieved in developing countries in the form of finance. If all countries were to follow the EU’s approach, warming would reach over 2°C and up to 3°C. The EU’s international climate finance is rated “Insufficient” and is not enough to improve the EU’s fair share rating. The EU’s international public climate finance contributions are higher than those of most other governments, but we still rate it “Insufficient.” The EU has committed to increasing its climate finance, but contributions to date have been low compared to its fair share. To improve its rating, the EU needs to ramp up the level of its international climate finance contributions post-2020 and accelerate the phase-out of fossil fuel finance abroad. In its concluded negotiation position for the upcoming CO29, the EU neglects to address the need for significantly scaled-up financial support for developing countries, a key factor for enabling ambitious climate action and ensuring a fair global transition. In 2022, the EU and its member states provided EUR 28.5 bn to developing countries (Council of the European Union, 2023a), but contributions still fall short of its fair share contribution. The EU remains committed through 2025 to the USD 100 bn collective goal of climate finance for developing countries, but the USD 100 bn goal itself is insufficient for the post-2020 period. The EU has not made clear how much its planned international climate finance contributions will be in the coming years. The Sustainable Finance Disclosure Regulation Framework (SFDR) was established to promote transparency in sustainable investments to support informed investment decisions. However, this has failed due to broad and vague definitions of what constitute green investments. For example, European investment funds labelled as ”green” under the SFDR have been directed towards major coal firms outside the EU, including the US, China and India, amounting to EUR 65 million as of April 2024 (Civillini &amp; Rodriguez, 2024). In February 2022, European Commission published a complementary climate-delegated act to its Taxonomy Regulation (Council of the European Union, 2022a), which states that energy generation from fossil gas and nuclear should be classified as transition activities: activities that cannot yet be replaced by low carbon alternatives but that do contribute to emissions reduction. At COP29, the EU has reaffirmed that international public climate finance be focused on delivering on the New Collective Qualified Goal (NCQG). However, the EU has not indicated how much finance the bloc is ready to commit and has added a prerequisite to expand the number of contributors part of its position (CAN Europe, 2024). Further information on how the CAT rates countries (against modelled pathways and fair share) can be found here .</t>
+  </si>
+  <si>
+    <t>High resolution The CAT rates NDC targets against what a fair contribution to achieving the Paris Agreement’s long-term temperature goal would be as well as against what needs to happen within a country’s own borders. Egypt only has a conditional target. We rate the conditional target against the level of reductions needed within its border (‘Conditional NDC target against modelled domestic pathways’). Egypt does not have an unconditional emissions reduction target. In the absence of a target, we use our estimate for Egypt’s business-as-usual target as its unconditional target. The CAT rates Egypt’s conditional target “Highly insufficient”. The “Highly insufficient” rating indicates that Egypt’s conditional NDC target in 2030 leads to rising, rather than falling, emissions and is not at all consistent with the 1.5°C temperature limit when compared to modelled domestic pathways. If all countries were to follow Egypt’s approach, warming could reach over 3°C and up to 4°C. In the absence of an unconditional NDC emissions reduction target, the CAT takes Egypt’s estimated ‘business as usual’ scenario as its unconditional commitment and rates it “Critically insufficient ”. The “Critically insufficient” rating signals minimal to no action and is not at all consistent with the 1.5°C temperature limit. Egypt’s (estimated) target is not in line with any interpretation of a fair approach to meeting the 1.5°C limit. If all countries were to follow Egypt’s approach, warming would exceed 4°C. Egypt would need to roughly stabilise emissions at today’s levels to meet its fair share of the global mitigation effort to keep temperature rise below 1.5°C. Further information on how the CAT rates countries (against modelled pathways and fair share) can be found here .</t>
+  </si>
+  <si>
+    <t>The CAT rates NDC targets against what a fair contribution to achieving the Paris Agreement’s 1.5°C temperature limit would be, as well as against what needs to happen within a country’s own borders. Ethiopia will need international support to achieve the required reductions within its borders. Ethiopia’s NDC target includes a portion that is unconditional, that it will achieve using its own resources. We rate that portion against its fair share contribution. The full NDC target will require international support to achieve and we rate that against the level of reductions needed within Ethiopia’s border. Further information on how the CAT rates countries (against modelled pathways and fair share) can be found here . The CAT rates Ethiopia’s conditional NDC target as “Critically insufficient” when compared to modelled domestic pathways. Ethiopia should also propose a conditional NDC target that brings emissions down towards decarbonisation with external support. Its current conditional target is only compatible with more than 4°C of warming and should be strengthened. Ethiopia should ask for additional support to implement additional policies and meet its conditional NDC target. Ethiopia intends to achieve this target primarily through reductions in its land sector emissions. Yet, Ethiopia cannot ignore the growth in emissions in other sectors. It needs to strengthen its updated conditional NDC target further and will need additional international support to achieve this target. Since the last assessment, the CAT has updated its methodology and pathways included for deriving modelled domestic pathways. As a result of these changes, Ethiopia’s target rating now falls into the ‘Critically insufficient’ category rather than the ‘Highly insufficient’ category. The target itself is unchanged since our last update. The CAT rates Ethiopia’s unconditional NDC target as “1.5°C compatible”. The “1.5°C compatible” rating indicates that Ethiopia’s unconditional NDC target reflects the fair share for a least developed country consistent with limiting warming to 1.5°C. Ethiopia’s fair share target does not require other countries to make comparably deeper reductions or greater effort, and is in the most stringent part of its fair share range.</t>
   </si>
   <si>
     <t>The CAT rates NDC targets against each country’s fair share contribution to global climate change mitigation, considering a range of equity principles including responsibility, capability, and equality. The CAT also rates NDC targets against indicative national emissions from global least-cost emissions pathways (called modelled domestic pathways ). For assessing targets against the fair share, we consider both a country’s domestic emission reductions and any emissions it supports abroad through the use of market mechanisms or other ways of support, as relevant. Germany does not intend to use market mechanisms and will achieve its national target through domestic action alone. We rate its national target against both global domestic pathways and fairness metrics. We rate Germany’s 2030 reduction target of 65% below 1990 levels as “Almost sufficient” when compared to modelled emissions pathways. The “Almost sufficient” rating indicates that Germany’s national target in 2030 is not yet consistent with modelled domestic pathways limiting warming to 1.5°C but could be, with moderate improvements. If all countries were to follow Germany’s approach, warming could be held at—but not well below—2°C. While the proposed target represents a significant improvement compared to its previous target, Germany’s new target is not stringent enough to limit warming to 1.5°C and needs further improvement. We rate Germany’s 2030 target of 65% below 1990 levels excl. LULUCF as “Insufficient” when compared with its fair-share emissions allocation. The “Insufficient” rating indicates that Germany’s national target in 2030 needs substantial improvement to be consistent with its fair share of the global mitigation effort to limit warming to 1.5°C. Germany should both further increase its emissions reduction target and provide significantly more and predictable finance to others to meet its fair-share contribution. Germany’s target is at the least stringent end of what would be a fair share of global effort, and is not consistent with the Paris Agreement’s 1.5°C limit, unless other countries make much deeper reductions and comparably greater effort. If all countries were to follow Germany’s approach, warming would reach over 2°C and up to 3°C. Germany’s international climate finance is rated “Insufficient” (see below) and is not enough to improve Germany’s fair share rating. Germany’s international public climate finance contributions are better than most developed countries but still rated “Insufficient.” Germany has committed to increasing its climate finance but contributions to date have been low compared to its fair share as assessed by the CAT. To improve its rating, Germany needs to increase its international climate finance contributions by around a factor of three in the period post-2020 and urgently stop funding fossil fuel projects abroad. At COP26, Germany signed a declaration to stop financing fossil fuels abroad, but the sector guidelines for export credits still allows investments in existing and new fossil fuel infrastructure outside Germany's borders (Die Bundesregierung, 2023). Germany is the biggest European climate finance donor. According to the CAT estimates, its contributions represent more than half of the EU contributions. However, due to the high fair share requirements assessed by the CAT, Germany’s current contributions remain “Highly insufficient.” Most German contributions for climate finance are distributed via bilateral development cooperation. Funding is implemented by Gesellschaft für internationale Zusammenarbeit (GIZ) and KfW Development Bank. The International Climate Initiative (IKI) is a separate funding mechanism of the Climate and Economics Ministry (BMWK), the Environment Ministry (BMU), and the Federal Foreign Office (AA). A smaller share is disbursed through contributions to multilateral climate funds. A significant share of the finance takes the form of grants, but Germany also relies on other financial instruments, such as concessional loans (Deutsche Klimafinanzierung, 2021). Germany remains committed to the global USD 100bn goal in climate finance for developing countries per year through 2025, but the USD 100bn goal in itself is insufficient post-2020. At the G7 Summit in June 2021, Germany committed to increase climate finance by EUR 2bn to a total level of EUR 6bn annually by 2025 (Kanzleramt Deutschland, 2021). In 2022, the German government successfully reached its objective of providing more than EUR 6bn for climate finance (BMZ, 2023). The increase in climate finance is due to the growing demand for climate programmes in recipient countries and exceptional factors, such as special funds for food security in Ukraine, which are counted towards the goal. Initially, the government had projected around EUR 4.3 bn annually from 2021 to 2023 (Kowalzig, 2022). However, the forecast for 2023 and 2024 is significantly lower, at around EUR 5.14bn and EUR 5.3bn, respectively. The planned cuts, starting in 2025, are a cause for concern. The German government intends to make further cuts in development cooperation, including climate finance, which will amount to billions of euros. This decision, led by Federal Finance Minister Christian Lindner, is part of a worrying trend. These cuts could undermine long-term climate projects, potentially affecting bilateral commitments crucial for climate initiatives in recipient countries (Kowalzig, 2024). In 2023, during the Petersberg Dialogue, Germany announced EUR 2bn of climate finance for the replenishment of the Green Climate Fund, a third more than in the previous round (The German Government, 2023). The Climate Action Tracker climate finance rating focuses on finance for climate change mitigation, and the data shows an increase in this area over the years, which results in a positive rating of the contribution's trend. A clear and sustained increase in international climate mitigation finance across all areas is fundamental. Further information on how the CAT rates countries (against modelled pathways and fair share) can be found here .</t>
   </si>
   <si>
-    <t>The CAT rates NDC targets against what a fair contribution to achieving the Paris Agreement’s long-term temperature goal would be as well as against indicative national emissions from global least-cost pathways that achieve the Paris Agreement’s temperature goal (called modelled domestic pathways). Viet Nam has put forward two targets in its NDC: one that it will achieve using its own resources (15.8% GHG emissions reduction from BAU) and one that is conditional on international support (43.5% GHG emissions reduction from BAU). We rate the country’s unconditional target against its fair share contribution and its conditional target against the level of reductions needed within its borders aligned with a global least cost pathway (modelled domestic pathway). We estimate that Viet Nam’s conditional target would result in an emissions level of 620 MtCO 2 e (excluding LULUCF) in 2030, which we rate as “Critically Insufficient”. This rating is based on Viet Nam’s modelled domestic pathway for a 1.5°C limit. The “Critically insufficient” rating indicates that Viet Nam’s conditional target reflects minimal to no action and is not at all consistent with limiting warming to 1.5°C. If all countries were to follow Viet Nam’s approach, warming would exceed 4°C. With the NDC update, Viet Nam’s emission reductions under its conditional target have strengthened by 17% but are close to two times higher than the 1.5°C modelled domestic pathway (353 MtCO 2 e) for 2030. Substantial improvement is needed in this target. It is important that Viet Nam sets a stronger target to plan faster emissions reductions, and not lock itself into a high carbon future. We estimate that Viet Nam’s unconditional target would result in an emissions level of 863 MtCO 2 e (excluding LULUCF) in 2030, which we rate as “Critically Insufficient”. This rating is based on Viet Nam’s fair share contribution at a 1.5°C limit. The “Critically insufficient” rating indicates that Viet Nam’s unconditional target reflects minimal to no action and is not at all consistent with limiting warming to 1.5°C. Viet Nam’s target is not in line with any interpretation of fairness. If all countries were to follow Viet Nam’s approach, warming would exceed 4°C. With the NDC update Viet Nam’s emission reductions under its unconditional target have improved by only 4% and are around 2.5 times more than a 1.5˚C compatible faire share target (350 MtCO 2 e).</t>
-  </si>
-  <si>
     <t>We take India’s emissions intensity target as its unconditional contribution to limiting warming to 1.5°C and rate that against what a fair contribution would be. India has indicated that achieving the 50% non-fossil capacity target will require international support. We take this target as being conditional on international support and rate it against the level of reductions needed within India’s borders. The CAT methodology for rating NDCs is based on GHG emissions from fossil fuels, agriculture and industrial processes. We exclude the land sector from our calculations and thus do not evaluate the contribution of India’s carbon sink expansion efforts. We estimate that India's 50% non-fossil capacity target would result in an emissions level of between 4.2-4.5 GtCO 2 e (excluding LULUCF) in 2030. India is already on track to achieve more than 60% non-fossil capacity by 2030 under current policies, so achieving only the 50% in the NDC would actually result in higher emissions. We rate this target as “Highly insufficient” when compared to the level of reductions needed within India to be 1.5°C compatible. The “Highly insufficient” rating indicates that India’s conditional target leads to rising, rather than falling, emissions and is not at all consistent with limiting warming to 1.5°C. If all countries were to follow India’s approach, warming could reach over 3°C and up to 4°C. Our estimate for the 50% non-fossil capacity target is based on the underlying power sector scenario of the current policy pathways. The lower bound of the power sector scenario is based on the IEA’s World Energy Outlook 2023 Stated Policies Scenario (STEPS). The upper bound of the power sector scenario is based on the adopted National Electricity Plan 2023 (NEP2023) (please refer to the assumptions section for the methodology used in estimating targets). Substantial improvement is needed in this target and India will need international support to get onto a 1.5°C pathway. Even if India is not responsible for paying for all its emission reductions, it should develop plans to rapidly cut emissions conditional on sufficient international support being available, and not lock itself into a high carbon future. This would mean starting to phase out coal use, adopting emission reduction plans across the economy, and clearly specifying what international support it requires to achieve a 1.5°C compatible target. We estimate that India’s emissions intensity target would result in an emissions level of 4.6 GtCO 2 e (excluding LULUCF) in 2030. This emissions level is above where we project India’s emissions to be in 2030 under current policies and action. We rate the intensity target as “Insufficient”. The “Insufficient” rating indicates that India’s unconditional target needs substantial improvements to be consistent with limiting warming to 1.5°C. India’s target is at the least stringent end of what would be a fair share of global effort, and is not consistent with the 1.5°C limit unless other countries make much deeper reductions and comparably greater effort. If all countries were to follow India’s approach, warming would reach over 2°C and up to 3°C. The quantification of this target varies depending on how GDP is measured and assumptions made about 2030 projections. The transparency of India’s target could be improved with further information on these elements. Also, while an emissions intensity target may contribute to decoupling emissions from economic growth, this type of target may not be sufficient to address the urgency of climate change, as overall emissions could continue to rise. Further information on how the CAT rates countries (against modelled domestic pathways and fair share) can be found here .</t>
   </si>
   <si>
     <t>The CAT rates NDC targets against each country’s fair share contribution to global climate change mitigation, considering a range of equity principles including responsibility, capability, and equality. The CAT also rates NDC targets against indicative national emissions from global least-cost pathways that achieve the Paris Agreement’s temperature goal (modelled domestic pathways). Indonesia will need support to reduce emissions to the level of its modelled domestic pathway. Indonesia has put forward two targets in its NDC: one that it will achieve using its own resources and one that requires international support. We rate Indonesia’s unconditional target against its fair share contribution and its conditional target against its modelled domestic pathway. We rate Indonesia’s conditional NDC, excluding the land-use, land-use change and forestry (LULUCF) sector, as “Critically insufficient” when compared to modelled domestic pathways. The “Critically insufficient” rating indicates that Indonesia’s internationally supported target in 2030 reflects minimal to no action and is not at all consistent with modelled domestic pathways limiting warming to 1.5°C, for which Indonesia would need to lower its conditional NDC target to 62% below its NDC BAU scenario excl. LULUCF. If all countries were to follow Indonesia’s approach, warming would exceed 4°C. We rate Indonesia’s unconditional NDC, excluding the land-use, land-use change and forestry (LULUCF) sector, as “Critically insufficient”. The “Critically insufficient” rating indicates that Indonesia’s fair share target in 2030 reflects minimal to no action and is not at all consistent with its fair share of the global mitigation effort to limit warming to 1.5°C, for which Indonesia would need to lower its unconditional NDC target to 60% below its NDC BAU scenario excl. LULUCF. If all countries were to follow Indonesia’s approach, warming would exceed 4°C. Further information on how the CAT rates countries (against modelled domestic pathways and fair share) can be found here .</t>
   </si>
   <si>
-    <t>The CAT rates NDC targets against each country’s fair share contribution to global climate change mitigation, considering a range of equity principles including responsibility, capability, and equality. The CAT also rates NDC targets against indicative national emissions from global least-cost emissions pathways (called modelled domestic pathways). Developing countries like Argentina may need support to achieve emissions reductions in line with a physically required pathway to achieving the 1.5°C long-term temperature goal. The CAT rates Argentina's target as "Highly insufficient" both when rated against modelled domestic pathways, and when rated against the fair share contribution. Argentina has one NDC target. It has not specified whether a portion of the target is conditional on international support or whether its NDC has an international element, so we rate its NDC target against both frameworks, fairness and modelled domestic pathways. We rate Argentina’s 2030 NDC target as “Highly insufficient” when compared with modelled domestic emissions pathways , or what Argentina needs to do within its own borders. The “Highly insufficient” rating indicates that Argentina’s NDC target in 2030 leads to rising, rather than falling, emissions and is not at all consistent with limiting warming to 1.5°C. If all countries were to follow Argentina’s approach, warming could reach over 3°C and up to 4°C by end of the century. We rate Argentina’s 2030 NDC target as “Highly insufficient” when compared with its fair share contribution to climate action. The “Highly insufficient” rating indicates that Argentina’s NDC target is not at all consistent with any principle of fairness, like responsibility, capability, or equality. If all countries were to follow Argentina’s approach, warming could reach over 3°C and up to 4°C. The improvement in the CAT rating for Argentina’s NDC target since our last update, from “Critically insufficient” to “Highly insufficient”, is not due to Argentina submitting a new and stronger NDC target, but rather to a literature update to our fair share (FS) ranges, which aligns our equity approaches with international environmental law (Rajamani et al., 2021) and therefore exclude studies based on cost-effectiveness; we also included additional studies to reflect the latest research available in the field. Therefore, this change of ratings does not represent improved climate action on the ground, compared to our previous assessment. Further information on how the CAT rates countries (against modelled domestic pathways and fair share) can be found here .</t>
-  </si>
-  <si>
-    <t>The CAT rates NDC targets against each country’s fair share contribution to global climate change mitigation, considering a range of equity principles including responsibility, capability, and equality. The CAT also rates NDC targets against indicative national emissions from global least-cost emissions pathways (called modelled domestic pathways ). For assessing targets against the fair share, we consider both a country’s domestic emission reductions and any emissions it supports abroad through the use of market mechanisms or other ways of support, as relevant. Australia does not intend to use market mechanisms and will achieve its NDC target through domestic action alone. We rate its NDC target against both global domestic pathways and fairness metrics. The CAT rates Australia’s 2030 NDC target as “Insufficient” when compared to modelled domestic emissions pathways. Australia’s NDC targets emissions 43% below 2005 levels by 2030, including LULUCF. However, this target is dependent on LULUCF sequestration estimates, which fluctuate widely year on year. Using the government’s projections for LULUCF from 2023, this target equates to a reduction of 20% below 2005 levels by 2030 excluding LULUCF. Projections for LULUCF sequestration in 2030 increased nearly fourfold between the government’s 2021 and 2023 projections. This effectively reduces the emissions reduction task for energy, industry, agriculture and waste. The “Insufficient” rating indicates that Australia’s NDC target in 2030 needs substantial improvements to be consistent with modelled domestic pathways limiting warming to 1.5°C. If all countries were to follow Australia’s approach, warming would reach over 2°C and up to 3°C. The CAT rates Australia’s 2030 NDC target as “Insufficient” when compared to its fair share emissions allocation. The “Insufficient” rating indicates that Australia’s NDC target in 2030 needs substantial improvements to be consistent with its fair share of the global mitigation effort to limit warming to 1.5°C. Australia’s target is at the least stringent end of what would be a fair share of global effort, and is not consistent with the 1.5°C limit, unless other countries make much deeper reductions and comparably greater effort. If all countries were to follow Australia’s approach, warming would reach over 2°C and up to 3°C. Australia needs to improve its fair share contribution through both strengthened domestic emissions reductions as well as financing additional climate action in developing countries. Australia’s international public climate finance contributions are rated “Critically insufficient”. Australia has committed to increase its climate finance but contributions to date have been very low compared to its fair share. To improve its rating, Australia needs to increase the level of its international climate finance. Australia has pledged AUD 3bn towards climate finance, encompassing both mitigation and adaptation, for the 2020-2025 period. This amount represents an increase from an earlier commitment of AUD 2bn (Department of Foreign Affairs, 2023). However, concerns remain that this commitment will include the relabelling of existing funds (Oxfam, 2023). The government finally rejoined the Green Climate Fund in 2023, after withdrawing in 2019, albeit with a “modest contribution” of AUD 50 million (ABC, 2023; Minister for Foreign Affairs &amp; Minister for Climate Change and Energy, 2023b). At COP28, Australia joined the Clean Energy Transition Partnership, pledging to end direct public investments into international fossil fuels projects within a year (Minister for Foreign Affairs &amp; Minister for Climate Change and Energy, 2023a). This led the CAT to improve Australia’s fossil fuel finance overseas rating from “Highly Insufficient” to “Insufficient”. However, this does not improve Australia’s overall climate finance rating. To receive a better rating, Australia must increase the level of its international climate finance. Australia's lack of action on climate finance is central to the discussions around COP31. Australia is proposing to host the 2026 Conference of Parties in collaboration with 'the Pacific family'. In March 2023, governments from Vanuatu, Tuvalu, Tonga, Fiji, Niue, and the Solomon Islands issued the Port Vila Resolution. The resolution calls for more public and private funding to facilitate a fair transition away from fossil fuels and a reform of the global climate finance framework (Australia Institute, 2023).</t>
-  </si>
-  <si>
-    <t>High resolution We rate where Bhutan’s emissions will be in 2030 if its sectoral measures are fully implemented - against where its emissions would need to be based on a 1.5°C global least cost modelled pathway. On that basis, we find it to be 1.5°C global least compatible. We estimate Bhutan emissions will be between at 1.8-1.9 MtCO 2 e in 2030 if it implements all sectoral mitigation measures presented in its various low emissions development strategies (LEDS) for the transport, agriculture, human settlements, and industry sectors. Our rating is based on the upper value of the range. The "1.5°C global least cost" rating indicates that Bhutan’s emissions in 2030 are consistent with modelled domestic pathways limiting warming to 1.5°C. Bhutan’s target does not require other countries to make comparably deeper reductions or greater effort. It is important to highlight that Bhutan’s NDC and LEDS provide an estimate of implementation costs for the suggested actions and that Bhutan will need international support to achieve these reductions. If we followed the standard CAT rating method, Bhutan’s NDC target of “carbon neutrality” – which we take as equivalent to its net LULUCF sink of 7.8 MtCO 2 e (CAT rates targets excluding the forestry sector) – would be rated as “Critically insufficient” when compared to the level of emission reductions needed within Bhutan’s borders in order to limit warming to 1.5°C. This rating would imply that Bhutan’s NDC target in 2030 reflects minimal to no action and is not at all consistent with limiting warming to 1.5°C. However, Bhutan is already carbon neutral and making efforts to remain carbon neutral through the implementation of policies and measures. Applying our standard methodology would be misleading and unfair. A 1.5°C modelled domestic pathway based on global least cost shows what would be feasible for Bhutan to achieve with international support. A more realistic and fair method would be to apply a rating based on the anticipated level of where emissions would be if Bhutan receives support for all of the measures it has planned, and this is what we have done. We rate where Bhutan’s emissions will be in 2030 under a business-as-usual trajectory against Bhutan’s fair share contribution level. Under this approach, we rate Bhutan as “Almost sufficient”. We estimate Bhutan’s emissions under this approach to be between 3.02-3.13 MtCO 2 e in 2030. Our rating is based on the upper range of the estimate. The “Almost sufficient” rating indicates that Bhutan’s emissions in 2030 are not yet consistent with limiting warming to 1.5°C but could be, with moderate improvements. If all countries were to follow Bhutan’s approach, warming could be held below—but not well below—2°C. Again, following the standard CAT rating method – where we would rate Bhutan’s NDC target to “remain carbon neutral”, estimated as 7.8 MtCO 2 e in 2030, against its fair contribution – we would rate Bhutan as “Critically insufficient”. This would indicate that Bhutan’s target in 2030 reflects minimal to no action and is not at all consistent with limiting warming to 1.5°C based on its fair share contribution. However, Bhutan is already carbon neutral and is making efforts to remain carbon neutral through the implementation of policies measures. Applying our standard methodology would be misleading and unfair. For a country like Bhutan, its fair share contribution represents what would be fair to do using its own resources. As Bhutan has indicated it will need support to implement the measures outlined in its NDC, using a business as usual projection is a good measure of where Bhutan’s emissions will be in 2030 with its own resources and thus a more realistic and fair basis upon which to apply the CAT rating. The upper end of range falls within the "Almost sufficient" category. Bhutan could become 1.5°C compatible in the future if it slows its emissions growth. Further information on how the CAT rates countries (against modelled domestic pathways and fair share) can be found here .</t>
-  </si>
-  <si>
-    <t>The CAT rates NDC targets against each country’s fair share contribution to global climate change mitigation, considering a range of equity principles including responsibility, capability, and equality. The CAT also rates NDC targets against indicative national emissions from global least-cost emission pathways (" modelled domestic pathways "). Most developing countries may need support to achieve emissions reductions in line with its share of a global least-cost pathway to achieving the 1.5°C long-term temperature goal. Brazil has one NDC target. It has not specified whether a portion of the target is conditional on international support or whether its NDC has an international element, so we rate its NDC target against both its fair share contribution and the level of reductions needed in line with modelled domestic pathways. The CAT assesses emissions excluding LULUCF . Our estimates of Brazil’s targets excluding LULUCF — and their corresponding rating — are highly dependent on the assumptions on the extent to which Brazil will rely on the sector to achieve its NDC. Brazil’s NDC mentions their commitment to achieve zero deforestation by 2030 but it does not give further details as to the expected emissions level for the sector in the future. We expect additional clarity from Brazil in its next communication. We rate Brazil’s 2030 NDC target as “Almost sufficient” when compared to modelled domestic emissions pathways. The “Almost sufficient” rating indicates that Brazil’s NDC target in 2030 is not yet consistent with its share of a global least-cost pathway limiting warming to 1.5°C but could be, with moderate improvements. If all countries were to follow Brazil’s approach, warming could be held below—but not well below—2°C. While the current NDC is stronger than the one submitted in 2022 under the previous administration, it is not enough to improve its rating against our modelled domestic pathways. Brazil is not on track to achieve either its 2025 or 2030 targets and needs to adopt additional policies to cut its emissions. Whether Brazil should receive climate finance from abroad to reduce its emissions is a matter of debate. Our methods do not provide a clear answer to this question. On balance, the CAT methodology shows Brazil needing a small amount of international support is technically consistent with a wide range of literature on fair share contributions to meet the Paris Agreement's goals. However, this contribution would likely be small under most equity perspectives. As a result, the NDC target achieved with its own resources would still need to be improved to align more closely with the 1.5°C limit, regardless of international support. We rate Brazil’s 2030 NDC target as “Almost sufficient” when compared with its fair share contribution to climate action. In 2023, Lula’s administration reverted to the original NDC's absolute emission targets submitted in 2016, which improved this rating by one category compared to the NDC submitted in 2022. However, according to our methodology, this new submission still falls short of being a fair contribution by Brazil to global climate action. The “Almost sufficient” rating indicates that Brazil’s NDC target in 2030 is not yet consistent with its fair share of the global mitigation effort to limit warming to 1.5°C but could be, with moderate improvements. Brazil’s target would require other countries to make deeper reductions and comparably greater effort to limit warming to 1.5°C. If all countries were to follow Brazil’s approach, warming could be held below—but not well below—2°C. Brazil is not on track to achieve either its 2025 or 2030 targets and will need to adopt additional policies to cut their emissions. Further information on how the CAT rates countries (against modelled domestic pathways and fair share) can be found here .</t>
-  </si>
-  <si>
-    <t>The CAT rates NDC targets against each country’s fair share contribution to global climate change mitigation, considering a range of equity principles including responsibility, capability, and equality. The CAT also rates NDC targets against indicative national emissions from global least-cost emissions pathways (called modelled domestic pathways ). For assessing targets against the fair share, we consider both a country’s domestic emission reductions and any emissions it supports abroad through the use of market mechanisms or other ways of support, as relevant. Canada has indicated that it will use market mechanisms to achieve its target, but has not provided full details on the extent of this usage with regard to internationally transferred mitigation outcomes (ITMOs). For the first time, Canada has been explicit about the amount of international credits from the US regional Emissions Trading System (ETS) that it intends to use for its target – it is a small amount 0.6 MtCO 2 e. We have rated its NDC target without credits from the US ETS against global domestic pathways and the NDC target with credits from the US ETS against our fair share metric. The CAT rates Canada’s domestic target as “Almost sufficient” when compared to modelled domestic pathways and as “Insufficient” when compared to its fair share emissions allocation (“fair share target”). The “Almost sufficient” rating indicates that Canada ’s domestic target in 2030 is not yet consistent with the 1.5°C temperature limit but could be, with moderate improvements. If all countries were to follow Canada’s approach, warming could be held below—but not well below—2°C. In the graph above, the ‘domestic target gap’ shows the difference between where Canada’s updated NDC target is and where it would need to be to be 1.5°C compatible based on global least cost modelling. We rate Canada’s 2030 target as “Insufficient” when compared with its fair-share emissions allocation. The “Insufficient” rating indicates that Canada’s NDC target in 2030 needs substantial improvements to be consistent with its fair share to the global mitigation effort to limit warming to1.5°C. Canada’s target is at the least stringent end of what would be a fair share of global effort, and is not consistent with the 1.5°C limit, unless other countries make much deeper reductions and comparably greater effort. If all countries were to follow Canada’s approach, warming would reach over 2°C and up to 3°C. To close the ‘fair share gap’ Canada either needs to begin supporting emission reductions abroad (on top of its domestic reductions, not as a means to reach its current NDC target level) or increase its provision of climate finance. Canada’s international climate finance is rated “Highly insufficient” (see below) and is not enough to improve Canada’s fair share rating. Canada’s international public climate finance contribution is rated “Highly insufficient.” In June 2021, Canada announced a doubling of its climate finance commitment to CAD 5.3bn over the next five years (Government of Canada, 2021d). The support will cover mitigation, adaptation and loss and damage measures (Government of Canada, 2022d). While the doubling of future climate finance commitments is a positive, Canada’s CAT climate finance rating is still “Highly insufficient” as its contributions to date (OECD, 2022) have been low compared to its fair share. The CAT weighs absolute contributions the highest amongst the four elements we assess. Canada remains committed to the collective goal of USD 100bn a year in climate finance for developing countries through 2025. However, the USD 100bn goal on its own is insufficient in the period post-2020. Canada is making progress on reducing support for fossil fuel development abroad, but a complete phase-out by 2030 looks unlikely. At COP26, Canada agreed to “end new direct public support for the international unabated fossil fuel energy sector by the end of 2022”, but it kept the door open to allow for exceptions under certain circumstances (Government of Canada, 2022p; UK Government, 2021) . Its export credit agency claims to be implementing this ban and to not renew unabated fossil investments upon maturity, but foresees this natural turnover to only lead to a 15% reduction in their oil and gas financing by 2030 (Export Development Canada, 2023) To improve its rating, Canada needs to stop funding fossil fuel overseas completely and accelerate commitments to increase climate finance.</t>
-  </si>
-  <si>
-    <t>The CAT rates NDC targets against each country’s fair share contribution to global climate change mitigation, considering a range of equity principles including responsibility, capability, and equality. The CAT also rates NDC targets against indicative national emissions from global least-cost emission pathways (" modelled domestic pathways "). Most developing countries may need support to achieve emissions reductions in line with their share of a global least-cost pathway to achieving the 1.5°C long-term temperature goal. Chile has put forward two targets in its NDC: one that it will achieve using its own resources, and one that is conditional on specific financial, markets, technological and political conditions and may require international support. We rate the country’s unconditional target against its fair share contribution and its conditional target, which Chile refers to as its ‘internationally supported’ target, against the level of reductions needed according to the modelled domestic pathways. We rate Chile’s 2030 conditional NDC target – a reduction of up to 45% in net emissions by 2030, subject to international support – as “Almost sufficient” when compared with modelled domestic emissions pathways. This rating indicates that Chile’s conditional target in 2030 is not yet consistent with modelled domestic pathways limiting warming to 1.5°C but could be, with moderate improvements. If all countries were to follow Chile’s approach, warming could be held below—but not well below—2°C. To improve its rating and be consistent with the 1.5°C temperature limit, Chile could increase the ambition of its conditional 2030 climate target equivalent to an absolute emissions limit of 78 MtCO2e excl. LULUCF in 2030 and, if necessary, outline the international support that it would need to achieve it. While Chile does not explicitly ask for international finance, the NDC states that the 45% reduction target is conditional on specific financial, markets, technological and political conditions. On balance, however, the CAT methodology shows that provision of a small amount of international support is consistent with the wide range of literature on fair share contributions to meeting the Paris Agreement’s goals. The 2020 NDC links the 2030 target to the long-term goal for GHG neutrality by 2050, as well as to planning processes involving governance and existing and future strategies, including the “Long-term Climate Strategy 2050.” According to the NDC text, the current NDC planning and update process should allow for the NDC and its consecutive iterations to be intermediate milestones to achieve the 2050 neutrality goal, i.e. taking into account the necessary measures to reach the goal (Government of Chile, 2020a). It also includes a target to reduce black carbon emissions by at least 25% by 2030 below 2016 emission levels. Black Carbon and Chile’s NDC Chile’s 2020 NDC update includes a target to reduce black carbon emissions, which has substantial co-benefits for human health. However, reductions in black carbon are generally not additional to reductions in CO2, because large fractions of black carbon emissions stem from the same emission sources as CO2. Emission reduction policies therefore often reduce CO2 and black carbon simultaneously, and this is already included in calculations of the emissions reductions required to hold warming well below 2°C globally, like the “emissions gap” and “fair share” reductions (see section on Fair Share ). In its Sixth Assessment Report (AR6), the IPCC does not provide calculations of Global Warming Potential for black carbon comparable to those provided for greenhouse gases. The report indicates a net-positive effect on warming of black carbon over time and concludes that reducing black carbon emissions in the short-term would contribute to limiting temperature increase to 1.5°C. For information on Chile’s 2019 draft NDC or its original submission in 2017, see our comparison assessment of Chile’s NDCs and the previous country assessment of the 2017 NDC submission. We rate Chile’s 2030 unconditional NDC target as “Almost sufficient ” when compared to its fair-share contribution to climate action . The “Almost sufficient ” rating indicates that Chile’s unconditional target in 2030 is not yet consistent with its fair share of the global mitigation effort to limit warming to 1.5°C but could be, with moderate improvements. Chile’s target is within the range of what is considered to be a fair global effort, but would require other countries to make deeper reductions and comparably greater effort to limit warming to 1.5°C. If all countries were to follow Chile’s approach, warming could be held below—but not well below—2°C. The unconditional NDC target rating has changed from “Insufficient” to “Almost sufficient”. However, this change is due to a literature update to our fair share (FS) ranges, which aligns our equity approaches with international environmental law (Rajamani et al. , 2021) and therefore exclude studies based on cost-effectiveness; we also include additional studies to reflect the latest research available in the field. The change of ratings does not represent improved climate ambition, compared to our previous assessment.</t>
-  </si>
-  <si>
-    <t>The CAT rates NDC targets against each country’s fair share contribution to global climate change mitigation, considering a range of equity principles including responsibility, capability, and equality. The CAT also rates NDC targets against indicative national emissions from global least-cost emissions pathways (called modelled domestic pathways ). China will need minimal support to achieve those needed reductions within its borders. China has one NDC (with four energy-related targets) and the CAT rating is based on the two targets which are estimated to have the lowest emission levels: the lower end of the carbon intensity target and the upper end of the peaking target. It has not specified whether a portion of the target is conditional on international support or whether its NDC has an international element, so we rate its NDC target against both metrics. Under China’s peaking and carbon-intensity NDC targets, the targets expected to achieve the lowest emission levels, China’s emission levels would reach 14.0 GtCO 2 e/year in 2030 (the median of the two NDC targets expected to result in lowest emissions). China is likely to overachieve its energy-related NDC commitments with our current policy projections. The CAT rates China’s NDC target against modelled domestic pathways as “Highly Insufficient”. The “Highly Insufficient” rating indicates that China’s NDC target in 2030 is not at all consistent with modelled domestic pathways limiting warming to 1.5°C. If all countries were to follow China’s approach, warming would reach over 3°C and up to 4°C. Whether China should or should not receive some climate finance from abroad to reduce its emissions is a matter of debate. Our methods do not provide a clear answer to this question. On balance, the CAT methodology shows that China needing a small but important amount of international support is consistent with the wide range of literature on fair share contributions to meeting the Paris Agreement's goals (the figure above shows it to receive a small contribution). In any case, the NDC target achieved with its own resources would need to be increased significantly to be in line with the 1.5°C limit. China’s emission levels under its NDC commitments are higher than what would be deemed Paris-compatible compared to our “fair share” approach, resulting in our rating of “Insufficient”. The upgrade in rating compared to the previous assessment is due to an update in the underlying data, not because of any actual change in the target. The “Insufficient” rating indicates that China’s NDC target in 2030 needs substantial improvements to be consistent with its fair share of the global mitigation effort to limit warming to 1.5°C. China’s target is at the least stringent end of what would be a fair share of global effort and is not consistent with the 1.5°C limit, unless other countries make much deeper reductions and comparably greater effort. If all countries were to follow China’s approach, warming would reach over 2°C and up to 3°C.</t>
-  </si>
-  <si>
-    <t>The CAT rates NDC targets against what a fair contribution to achieving the Paris Agreement’s long-term temperature goal would be, as well as against what needs to happen within a country’s own borders. Colombia will need international support to achieve those needed reductions within its borders. Colombia has one NDC target. It has not specified whether a portion of the target is conditional on international support or whether its NDC has an international element, so we rate its NDC target against both metrics. Colombia has not put forward a target conditional on receiving international support. However, the NDC document mentions that for Colombia t o be able to move towards a more ambitious NDC, with additionality and impact, the continuity of international cooperation will be key to continuing on this path in all aspects of its NDC . The CAT methodology shows that provision of international support is consistent with the wide range of literature on fair share contributions to meeting the Paris Agreement's goals. As Colombia has not put forward a conditional target, we assess its unconditional NDC target against modelled domestic pathways, i.e. what would need to happen within Colombia’s borders to be consistent with limiting warming to 1.5°C. Against that framework, the unconditional NDC target rates it as “Insufficient”. The “Insufficient” rating indicates that the target needs substantial improvements to be consistent with limiting warming to 1.5°C. If all countries were to follow Colombia’s approach, warming would reach over 2°C and up to 3°C. Colombia’s rating has improved by one category, from “Highly insufficient” to “Insufficient”. The change is due to the manner in which we exclude LULUCF from the NDC, rather than any change in the target itself. In our last assessment, we indicated that there was significant uncertainty on the extent to which Colombia intends to rely on the land sector and so we developed a target range based on different approaches. Due to the further information provided in the country’s latest biennial report, we have dropped the upper end of our range (see Assumptions tab for further details). In addition to being inconsistent with a 1.5°C pathway when compared to modelled domestic pathways, Colombia’s NDC target is also inconsistent with a 1.5°C pathway when compared to its fair share contribution. In order to achieve its fair share contribution under the Paris Agreement, Colombia would need to reach absolute emissions of at or below 139 MtCO 2 e in 2030. We estimate Colombia’s NDC target to be 161 MtCO 2 e by 2030 (excl. LULUCF). The CAT rates the target as “Almost sufficient”. The “Almost sufficient” rating indicates that Colombia’s NDC target in 2030 is not yet consistent with limiting warming to 1.5°C but could be, with moderate improvements. Colombia’s target is within the range of what is considered to be a fair global effort, but would require other countries to make deeper reductions and comparably greater effort to limit warming to 1.5°C. If all countries were to follow Colombia’s approach, warming could be held below—but not well below—2°C. Colombia’s rating has improved by one category, from “Insufficient” to “Almost sufficient”. The change is due to the manner in which we exclude LULUCF from the NDC, rather than any change in the target itself (see the Assumptions tab for further details). Further information on how the CAT rates countries (against modelled pathways and fair share) can be found here .</t>
-  </si>
-  <si>
-    <t>The CAT rates NDC targets against what a fair contribution to achieving the Paris Agreement’s long-term temperature goal would be as well as against what needs to happen within a country’s own borders. Developing countries like Costa Rica will need support to achieve emission reductions in line with a physically required pathway to achieving the 1.5°C long-term temperature goal. Costa Rica has one NDC target. It has not specified whether a portion of the target is conditional on international support or whether its NDC has an international element, so we rate its NDC target against both fairness metrics and modelled domestic pathways. CAT ratings are based on emissions excluding the LULUCF sector. To obtain the NDC emissions level excluding LULUCF, the CAT takes two estimates provided by the Costa Rican government and creates a range. For more details, please see the Assumptions section. In the absence of a target conditional on international support, we rate Costa Rica’s 2030 NDC target as “Almost sufficient” when compared with modelled domestic emissions pathways. The “Almost sufficient” rating indicates that Costa Rica’s NDC target is not yet consistent with modelled domestic pathways limiting warming to 1.5°C but could be, with moderate improvements. If all countries were to follow Costa Rica’s approach, warming could be held below—but not well below—2°C. Costa Rica’s updated climate target represents an improvement compared to its first NDC, however it is not stringent enough to limit warming to 1.5°C. To improve its rating and be consistent with the 1.5°C temperature limit, Costa Rica could submit a conditional 2030 climate target that is at least 7% lower than its current unconditional target (equivalent to an absolute emissions limit of 11 MtCO 2 e excl. LULUCF in 2030) and, if necessary, outline the international support that it would need to achieve it. We rate Costa Rica’s 2030 NDC target as “1.5°C compatible” when compared with its fair-share contribution to climate action. The “1.5°C compatible” rating indicates that Costa Rica’s NDC target is consistent with its fair share of the global mitigation effort to limit warming to 1.5°C. Costa Rica’s NDC target does not require other countries to make comparably deeper reductions or greater effort and is in the most stringent part of its fair share range. Further information on how the CAT rates countries (against modelled pathways and fair share) can be found here .</t>
-  </si>
-  <si>
-    <t>The CAT rates NDC targets against each country’s fair share contribution to global climate change mitigation, considering a range of equity principles including responsibility, capability, and equality. The CAT also rates NDC targets against indicative national emissions from global least-cost emissions pathways (called modelled domestic pathways ). For assessing targets against the fair share , we consider both a country’s domestic emission reductions and any emissions it supports abroad through the use of market mechanisms or other ways of support, as relevant. The EU does not intend to use market mechanisms and will achieve its NDC target through domestic action alone. We rate its NDC target against both global domestic pathways and fairness metrics. On October 2023, the EU submitted an updated NDC. The target of reducing emissions by at least 55% below 1990 levels by 2030 (incl. LULUCF and international aviation) is the same as the previous NDC from December 2020. However, the EU has increased its land sector target by 85 MtCO 2 e implying that it is aiming to reduce net emissions by more than 55%. Excluding LULUCF and international aviation, the target equates to 52% below 1990 levels. The CAT rates this target as “Insufficient” when compared to the level of emissions reductions needed within the EU’s borders. The “Insufficient” rating indicates that the EU’s NDC target in 2030 needs substantial improvements to be consistent with limiting warming to 1.5°C. If all countries were to follow EU’s approach, warming would reach over 2°C and up to 3°C. The CAT’s assessment of the EU’s total fair share contribution takes into account its emissions reduction target and its climate finance. When measured against a fair share emissions allocation, we rate the EU’s NDC target as “Insufficient”. The “Insufficient” rating indicates that the EU’s NDC target in 2030 needs substantial improvement to be consistent with limiting warming to 1.5°C. The EU’s target is at the least stringent end of what would be a fair share of global effort, and is not consistent with the 1.5°C limit, unless other countries make much deeper reductions and comparably greater effort. Some of these improvements should be made to the domestic emissions target itself, others could come from supporting additional emissions reductions achieved in developing countries in the form of finance. If all countries were to follow the EU’s approach, warming would reach over 2°C and up to 3°C. The EU’s international climate finance is rated “Insufficient” and is not enough to improve the EU’s fair share rating. The EU’s international public climate finance contributions are higher than those of most other governments, but we still rate it “Insufficient.” The EU has committed to increasing its climate finance, but contributions to date have been low compared to its fair share. To improve its rating, the EU needs to ramp up the level of its international climate finance contributions post-2020 and accelerate the phase-out of fossil fuel finance abroad. In its concluded negotiation position for the upcoming CO29, the EU neglects to address the need for significantly scaled-up financial support for developing countries, a key factor for enabling ambitious climate action and ensuring a fair global transition. In 2022, the EU and its member states provided EUR 28.5 bn to developing countries (Council of the European Union, 2023a), but contributions still fall short of its fair share contribution. The EU remains committed through 2025 to the USD 100 bn collective goal of climate finance for developing countries, but the USD 100 bn goal itself is insufficient for the post-2020 period. The EU has not made clear how much its planned international climate finance contributions will be in the coming years. The Sustainable Finance Disclosure Regulation Framework (SFDR) was established to promote transparency in sustainable investments to support informed investment decisions. However, this has failed due to broad and vague definitions of what constitute green investments. For example, European investment funds labelled as ”green” under the SFDR have been directed towards major coal firms outside the EU, including the US, China and India, amounting to EUR 65 million as of April 2024 (Civillini &amp; Rodriguez, 2024). In February 2022, European Commission published a complementary climate-delegated act to its Taxonomy Regulation (Council of the European Union, 2022a), which states that energy generation from fossil gas and nuclear should be classified as transition activities: activities that cannot yet be replaced by low carbon alternatives but that do contribute to emissions reduction. At COP29, the EU has reaffirmed that international public climate finance be focused on delivering on the New Collective Qualified Goal (NCQG). However, the EU has not indicated how much finance the bloc is ready to commit and has added a prerequisite to expand the number of contributors part of its position (CAN Europe, 2024). Further information on how the CAT rates countries (against modelled pathways and fair share) can be found here .</t>
-  </si>
-  <si>
-    <t>The CAT rates NDC targets against what a fair contribution to achieving the Paris Agreement’s long-term temperature goal would be as well as against what needs to happen within a country’s own borders. Nigeria will need support to achieve those needed reductions with its borders. Nigeria has put forward two targets in its NDC: one that it will achieve using its own resources and one that requires international support. We rate Nigeria’s unconditional target against its fair share contribution as “1.5°C compatible” and its conditional target against the level of reductions needed within its border defined by a modelled domestic pathway as “Almost sufficient”. In its 2021 NDC update, Nigeria committed to reducing emissions by 47% below BAU by 2030, conditional on international support. This is equivalent to an emissions level 1% above to 23% below 2010 levels by 2030, excluding LULUCF. While this is a strong conditional target, Nigeria will need to strengthen its policies to make sure it has the enabling conditions in place to meet the target, in addition to receiving international support. The CAT rates Nigeria’s 2030 conditional target as “Almost sufficient,” a rating that indicates that Nigeria’s conditional NDC target in 2030 is not yet consistent with limiting warming to 1.5°C but could be, with moderate improvements. If all countries were to follow Nigeria’s approach, warming could be held below—but not well below—2°C. Nigeria’s conditional target spans the CAT’s "Almost sufficient" and 1.5°C compatible ratings. The large target range is due to uncertainty around the extent to which Nigeria plans to rely on the land sector in meeting its target. Further clarity from Nigeria on this may result in a 1.5°C compatible target. In its 2021 NDC update, Nigeria recommitted to unconditionally reducing emissions 20% below BAU by 2030. This is equivalent to an emissions level of 17-27% above 2010 levels (excl. LULUCF) by 2030. The CAT rates Nigeria’s 2030 unconditional target as 1.5°C compatible. The “1.5°C compatible” rating indicates that Nigeria’s unconditional NDC target is consistent with limiting warming to 1.5°C. Nigeria’s unconditional NDC target does not require other countries to make comparably deeper reductions or greater effort, and is in the most stringent part of its fair share range. The fair share literature for Nigeria is sparse and some equity categories have few data points. As a result, the upper bound of Nigeria’s fair share range is dominated by a handful of studies. This high range is not reflective of the majority of the literature, which indicates more stringent emission reductions. Future equity studies may help to improve the fair share analysis for Nigeria.</t>
-  </si>
-  <si>
-    <t>High resolution The CAT rates NDC targets against what a fair contribution to achieving the Paris Agreement’s long-term temperature goal would be as well as against what needs to happen within a country’s own borders. Peru will need international support to achieve those needed reductions within its borders. Peru has put forward two targets in its NDC: one that it will achieve using its own resources (unconditional), and one that requires international support (conditional). We rate the unconditional target against Peru’s fair share contribution (‘Unconditional NDC target against fair share ’) and its conditional target against the level of reductions needed within its border (‘Conditional NDC target against modelled domestic pathways’). We rate Peru’s conditional NDC target as “Insufficient” when compared with modelled domestic emissions pathways. The “Insufficient” rating indicates that Peru’s conditional NDC target in 2030 needs substantial improvements to be consistent with the 1.5°C temperature limit. If all countries were to follow Peru’s approach, warming would reach over 2°C and up to 3°C. We rate Peru’s 2030 unconditional NDC target as “Insufficient” when compared with its fair-share contribution to climate action. The “Insufficient” rating indicates that Peru’s unconditional NDC target in 2030 needs substantial improvements to be consistent with the 1.5°C temperature limit. Peru’s target is at the least stringent end of what would be a fair share of global effort and is not consistent with the 1.5°C limit, unless other countries make much deeper reductions and comparably greater effort. If all countries were to follow Peru’s approach, warming would reach over 2°C and up to 3°C. Further information on how the CAT rates countries (against modelled domestic pathways and fair share) can be found here .</t>
-  </si>
-  <si>
-    <t>The CAT rates NDC targets against what a fair contribution to achieving the Paris Agreement’s 1.5°C temperature limit would be, as well as against what needs to happen within a country’s own borders. The Philippines will need international support to achieve the required reductions within its borders. The Philippines’s NDC target includes a portion that is unconditional, that it will achieve using its own resources. We rate that portion against its fair share contribution. The full NDC target will require international support to achieve, and we rate that against the level of reductions needed within the Philippines’s border. Further information on how the CAT rates countries (against modelled domestic pathways and fair share) can be found here . The “1.5°C global least cost” rating indicates that Philippines’ conditional target is consistent with limiting warming to 1.5°C. This rating compares the Philippines’ conditional target against global least cost 1.5°C modelled domestic emissions pathway. The Philippines’ conditional target does not require other countries to make comparably deeper reductions. However, it does require international support to achieve. The Philippines’ conditional target is estimated to be 96 MtCO 2 e by 2030 (excl. LULUCF). The Philippines’ unconditional mitigation target is inconsistent with a 1.5°C pathway when compared to its fair share contribution. For the target to be aligned with 1.5°C, it would need to reach absolute emissions of 260 MtCO 2 e or below in 2030. We estimate the Philippines’ unconditional domestic target to be 384 MtCO 2 e by 2030 (excl. LULUCF). The CAT rates this target as “Insufficient”. The “Insufficient” rating indicates that the Philippines’ unconditional target needs substantial improvements to be consistent with limiting warming to 1.5°C. The Philippines target is at the least stringent end of what would be a fair share of global effort, and is not consistent with the 1.5°C temperature limit, unless other countries make much deeper reductions and comparably greater effort. If all countries were to follow the Philippines’ approach, warming would reach over 2°C and up to 3°C. Since our last assessment, for the Philippines' fair share contribution we have changed both what we are rating and the rating itself. Previously, we rated the Philippines as “2°C compatible”, but this rating was given under our old rating system and in relation to its conditional target (the only one it had at the time). The conditional target actually fell in the “1.5°C compatible” range but was downgraded due to its conditionality (see NDC update section above for further details). The Philippines adopted an unconditional target in its updated NDC. We rate this target against a fair share contribution and find it to be “Insufficient”.</t>
-  </si>
-  <si>
-    <t>The CAT rates NDC targets against what a country should be doing within its own borders as well as what a fair contribution to limiting warming to 1.5°C would be. For assessing NDC targets against the fair share, we consider both a country’s domestic emission reductions and any emissions it supports abroad through the use of market mechanisms or other ways of support, as relevant. The CAT rates Russia's NDC target as "Highly insufficient" when rated against modelled domestic pathways, and "Critically insufficient" when rated against its fair share contribution. We assess Russia’s total fair share contribution by considering its emissions reduction target and its climate finance. Russia’s climate finance is not sufficient to improve the fair share rating. The CAT rates Russia’s updated NDC 2030 emissions target, at least a 30% reduction below 1990 levels (incl. LULUCF), as “Highly insufficient” when compared with modelled domestic emissions pathways. The “Highly insufficient” rating indicates that Russia’s domestic target in 2030 leads to rising, rather than falling, emissions and is not at all consistent with limiting warming to 1.5°C. If all countries were to follow Russia’s approach, warming could reach over 3°C and up to 4°C. We rate Russia’s updated 2030 NDC target as “Critically insufficient” when compared with its fair share emissions allocation. The “Critically insufficient” rating indicates that Russia’s target, compared to what its fair share would be in 2030, reflects minimal to no action and is not at all consistent with limiting warming to 1.5°C. Russia’s target is not in line with any interpretation of fairness. Substantial improvements are needed. Some of these improvements should be made to the NDC target itself, others could come in the form of additional support for emissions reductions achieved in developing countries in the form of finance. If all countries were to follow Russia’s approach, warming would exceed 4°C. Russia’s international climate finance is rated as “Critically insufficient” (see below) and is not enough to improve Russia’s fair share rating. Russia’s international public finance contributions are rated as “Critically insufficient”. Russia has not made any substantial contribution to international climate finance since the adoption of the Paris Agreement. To improve its rating, Russia needs to urgently both increase its financial contributions and stop funding fossil fuels abroad. As of August 2022, Russia committed USD 3m in climate finance to the Green Climate Fund in the initial resource mobilisation (IRM) round and USD 10m in the first replenishment round, which lasts until 2023 (Green Climate Fund, 2022). Even considering these commitments, contributions remain critically insufficient considering the size of Russia’s economy and its historical responsibility. Russia actively finances fossil fuels abroad. From 2013 to 2019, Russia sent USD 1.5bn in public finance to countries in Africa and the Middle East to support fossil fuel projects (Ferris, 2021) including coal, such as in the Long Phu Coal Plant in Vietnam (Ferris, 2021; Global Energy Monitor, 2022). Further information on how the CAT rates countries (against modelled domestic pathways and fair share) can be found here .</t>
-  </si>
-  <si>
-    <t>The CAT rates Saudi Arabia’s NDC target as “Critically insufficient” when compared to modelled domestic pathways. This rating indicates that Saudi Arabia’s NDC target in 2030 reflects minimal to no action and is not at all consistent with modelled domestic pathways limiting warming to 1.5°C. If all countries were to follow Saudi Arabia’s approach, warming would exceed 4°C. Saudi Arabia's NDC rating against modelled domestic pathways has deteriorated compared to our previous assessment due to an update in our modelled domestic pathways to the pathways assessed in the AR6. This latest evidence shows that Saudi Arabia requires lower 2030 emissions to be consistent with a 4°C compatible pathway. As a result, its NDC rating is no longer “Highly insufficient” and falls into the “Critically Insufficient” range. Our newer pathways better capture national circumstances - including the recent plateauing in Saudi Arabia's emissions - and for higher temperature levels show less room for emissions growth than the previous set. The CAT rates Saudi Arabia’s NDC target against fair share as “Critically insufficient”. This rating indicates that Saudi Arabia’s NDC target reflects minimal to no action and is not at all consistent with its fair share of the global mitigation effort to limit warming to 1.5°C. If all countries were to follow Saudi Arabia’s approach, warming would exceed 4°C. Further information on how the CAT rates countries (against modelled domestic pathways and fair share) can be found here .</t>
-  </si>
-  <si>
-    <t>The CAT rates NDC targets against each country’s fair share contribution to global climate change mitigation, considering a range of equity principles including responsibility, capability, and equality. The CAT also rates NDC targets against indicative national emissions from global least-cost emissions pathways (called modelled domestic pathways). For assessing targets against the fair share, we consider both a country’s domestic emissions reductions and any emissions it supports abroad through the use of market mechanisms or other ways of support, as relevant. Singapore has indicated that it may use market mechanisms to achieve its target but has not provided any details on the extent of such usage. In the absence of any clarity on the extent of usage, we have rated its NDC target against both domestic and fairness metrics. While CAT modelled domestic pathways do not reflect Singapore’s particularly low domestic RE potential, these pathways do reflect the rapid decarbonisation in the Southeast Asian region that Singapore should follow, if not lead. Given its context, Singapore can play an even larger role in driving regional decarbonisation and energy collaboration. The CAT rates Singapore's NDC target as "Highly insufficient" when compared against modelled domestic pathways. The “Highly insufficient” rating indicates that Singapore’s domestic target in 2030 leads to rising, rather than falling, emissions and is not at all consistent with limiting warming to 1.5°C. If all countries were to follow Singapore’s approach, warming could reach over 3°C and up to 4°C. The CAT also rates Singapore's NDC target as "Highly insufficient" when rated against its fair share contribution. The “Highly insufficient” rating indicates that Singapore’s NDC target in 2030 leads to rising, rather than falling, emissions and is not at all consistent with limiting warming to 1.5°C. Singapore’s target is not in line with any interpretation of fairness. If all countries were to follow Singapore’s approach, warming could reach over 3°C and up to 4°C. Further information on how the CAT rates countries (against modelled domestic pathways and fair share) can be found here .</t>
-  </si>
-  <si>
-    <t>We rate the 2030 reduction target as “Almost sufficient” when compared to modelled emissions pathways. The “Almost sufficient” rating indicates that South Africa’s NDC target in 2030 is not yet consistent with the 1.5°C temperature limit but could be with moderate improvements. If all countries were to follow South Africa’s approach, warming could be held at—but not well below—2°C. The CAT rates South Africa’s reduction target based on the upper range of its target, which falls in the “Almost sufficient” range, even if close to the limit to “1.5°C compatible”. If South Africa were to meet the lower end of the range it would be 1.5°C compatible when compared to modelled emissions pathways; however, it would still fall short of its fair-share contribution. South Africa currently relies on foreign investments and international finance support to implement a large percentage of its climate change programmes, and the government also emphasises in its updated NDC that the implementation of its NDC will be enabled by financial support as specified in the Paris Agreement. We rate South Africa’s 2030 NDC target as “Insufficient” when compared with its fair-share contribution to climate action. The “Insufficient” rating indicates that South Africa’s target needs substantial improvements to be consistent with limiting warming to 1.5°C. The target is at the least stringent end of what would be a fair share of global effort, and is not consistent with the 1.5°C limit, unless other countries make much deeper reductions and comparably greater effort. If all countries were to follow South Africa’s approach, warming would reach over 2°C and up to 3°C. CAT interprets the full NDC target as unconditional. As South Africa only needs to reach its upper end of the target range to fulfil the NDC, we rate that emissions level. If South Africa committed to meeting the lower end of its target range, the rating would change to “Almost sufficient” when compared to the fair share contribution. Further information on how the CAT rates countries (against modelled pathways and fair share) can be found here .</t>
-  </si>
-  <si>
-    <t>High resolution South Korea has clearly stated the extent to which its NDC target will be achieved through domestic reductions and the portion of emission reductions that will be achieved through the support of action abroad. We rate the domestic component of its NDC against what needs to happen within its border based on modelled domestic pathways and the full NDC target (reduction achieved both domestically and abroad) against what a fair contribution would be. We rate South Korea’s domestic target for 2030 as “Insufficient” when compared modelled domestic pathways. The “Insufficient” rating indicates that South Korea’s domestic target in 2030 needs substantial improvements to be consistent with the Paris Agreement’s 1.5°C temperature limit. If all countries were to follow South Korea’s approach, warming would reach over 2°C and up to 3°C. We rate South Korea’s overall NDC target (including the domestic and the international element) as “Highly insufficient” when compared with its fair-share contribution to climate action. The “Highly insufficient” rating indicates that South Korea’s fair share target in 2030 leads to rising, rather than falling, emissions and is not in line with any interpretation of a fair approach to meeting the Paris Agreement’s 1.5°C limit. If all countries were to follow South Korea’s approach, warming could reach over 3°C and up to 4°C.</t>
-  </si>
-  <si>
-    <t>The CAT rates NDC targets against each country’s fair share contribution to global climate change mitigation, considering a range of equity principles including responsibility, capability, and equality. The CAT also rates NDC targets against indicative national emissions from global least-cost emissions pathways (called modelled domestic pathways ). For assessing targets against a fair share, we consider both a country’s domestic emissions reductions and any emissions reductions it supports abroad through the use of market mechanisms or other ways of support, as relevant. Switzerland has clearly stated that it will achieve a portion of emission reductions to meet its NDC target through the use of mitigation outcomes sourced from abroad. To rate Switzerland’s NDC target, we assess a domestic component of its NDC against what needs to happen within its border based on modelled domestic pathways and the full NDC target (reduction achieved both domestically and abroad) against what a fair contribution would be. Switzerland, however, has not communicated a domestic share of its 2030 target in its NDC. Instead, it has remained vague on the extent to which its NDC target will be achieved through domestic reductions. In earlier amendments of the CO2 Act, Switzerland had proposed a domestic share target of at least 75% of the full target by 2030 below 1990 (Schweizer Parlament, 2020). In a follow-up amendment of the CO 2 Act (known as Succession Act) of 2021, however, it included a targeted 67% reduction of the full target (Der Bundesrat, 2021). This has since been replaced by vague comments stating that “The reduction of greenhouse gas emissions is primarily achieved with measures within Switzerland. The Federal Council determines the share.” (Bundesgesetz Über Die Reduktion Der CO 2 -Emissionen (CO 2 -Gesetz) (Entwurf), 2022). This wording has remains the same in the current draft of 2024 (Bundesgesetz Über Die Reduktion Der CO 2 -Emissionen (CO 2 -Gesetz), 2024). In January to March 2024, the matter was discussed in commissions in both chambers of Parliament with proposals for 75% and 70% (of the full target) on the table, but all proposals were rejected. Consequently, the Environment Minister Albert Rösti promised that he would propose a 67% share to the Federal Council (Das Schweizer Parlament, 2024). Other official messages imply that at least 30% of emissions reductions (60% of the 50%) will be targeted domestically. To rate Switzerland’s NDC we have therefore had to make assumptions on the domestic component. A range between 30%, which seems to be the current consensus to aspire for (Botschaft Zur Revision Des CO 2 -Gesetzes Für Die Zeit Nach 2024, 2022) and 33%, which was removed from previous drafts for unknown reasons (Der Bundesrat, 2021) and was “promised” by the Environment Minister (Das Schweizer Parlament, 2024) seem to be where Switzerland is realistically headed and was thus assessed here. The lack of specificity regarding the proportion of emissions that Switzerland intends to reduce domestically versus abroad is problematic, as it becomes difficult to assess the effectiveness of its overall emissions reduction strategy. This makes it challenging to hold Switzerland accountable for its emission reduction commitments. Equally, the lack of transparency raises questions about the sincerity of Switzerland's commitment. It is important for governments to provide transparent information on their emission reduction plans, as reducing GHG emissions is a global effort and trust and international cooperation are key. Switzerland intends to achieve the remaining target through Internationally Transferred Mitigation Outcomes (ITMOs). Since October 2020, Switzerland has signed bilateral agreements with several countries including Peru, Ghana, Senegal, Georgia, Vanuatu, Dominica, Thailand, Ukraine, Morocco, Malawi, Uruguay, Chile and Tunisia, which establish means of cooperation on the transfer of mitigation outcomes under Article 6 of the Paris Agreement (Schweizerische Eidgenossenschaft, 2024). While developed countries have to support mitigation in less developed countries, there is a more constructive way to pursue bilateral cooperation, which is climate finance. Governments should prioritise fulfilling their fair share of climate finance contributions before transferring mitigation outcomes supported abroad (Warnecke et al., 2021). To effectively address all these concerns, Switzerland should provide a clear and detailed NDC with deep emission reductions domestically, and provide sufficient climate finance. The CAT rates Switzerland’s estimated domestic target as “Almost sufficient” and its overall NDC target compared with its fair-share emissions allocation as “Insufficient.” We rate the estimated domestic component of Switzerland’s 2030 emissions target, a 30% to 33% reduction below 1990 levels, as “Insufficient” when compared with modelled domestic pathways. The “Insufficient” rating indicates that Switzerland’s domestic component of its NDC target in 2030 needs substantial improvement to be consistent with modelled domestic pathways limiting warming to 1.5°C. If all countries were to follow Switzerland’s approach, warming would reach over 2°C and up to 3°C. We rate Switzerland’s overall NDC target as “Insufficient” when compared with its fair-share emissions allocation. The “Insufficient” rating indicates that Switzerland’s NDC target needs substantial improvements to be consistent with its fair share of the global mitigation effort to limit warming to 1.5°C . Switzerland’s target is at the least stringent end of what would be a fair share of global effort, and is not consistent with the 1.5°C limit, unless other countries make much deeper reductions and comparably greater effort. If all countries were to follow Switzerland’s approach, warming would reach up to 3°C. Switzerland’s international climate finance is rated “Insufficient” (see below) and is not enough to improve Switzerland’s fair share rating. Switzerland’s international public climate finance contribution is rated “Insufficient”. Switzerland has committed to increase its climate finance and, despite a steady annual increase leading to USD 411m in 2020, its contributions to date have been low compared to its fair share. In 2020 Switzerland additionally mobilised USD 106m from the private sector and increased its specific support for bilateral adaptation activities to USD 129m (Swiss Federal Office for the Environment, 2022). Climate finance contributions fall short of Switzerland’s fair share contribution to the USD 100bn goal but show an increasing trend. Several recent developments indicate a commitment to international climate finance. Switzerland is one of the only countries that has explicitly prioritised an equal distribution of adaptation and mitigation funding for public bilateral financing (Alliance Sud, 2020). Other decisions that lead to the upward trend are the increase of the level of official development assistance to 0.5 per cent of gross national income, the gradual shift of development assistance to place an enhanced focus on climate change, and the new strategy for international development cooperation 2021–2024, which provides for an increase in funding for climate change mitigation and adaptation to CHF 400 m (approximately USD 426 m) per year by 2024 (Swiss Federal Office for the Environment, 2022). Switzerland remains committed to the USD 100bn goal in climate finance for developing countries per year through 2025, and it considers multilateral mobilised private climate finance as well as the full-face value of the climate finance outflow of multilateral institutions as climate finance accountable towards the 100 billion US dollars goal. Based on Switzerland's economic performance and the polluter-pays principle, the Swiss government estimates its fair share of international finance contributions to be around CHF 450-600m (Federal Council of Switzerland, 2017). This is close to its current investments; however, civil society organisations recommend a fair share of around CHF 1 bn per year (Alliance Sud, 2020). In addition, the USD 100bn goal itself is insufficient for the post-2020 period, and the scale of financial contributions would remain insufficient to increase Switzerland’s CAT climate finance rating. A clear and sustained increase in international climate mitigation finance is therefore needed. To fulfil the non-domestic component of its emissions reduction target, Switzerland is one of only a few countries that officially intends to achieve part of its NDC target through Internationally Transferred Mitigation Outcomes (ITMOs) on the basis of Article 6 of the Paris Agreement and has already signed bilateral agreements. Switzerland has signed bilateral carbon credit agreements with Peru, Ghana, Senegal, Georgia, Vanuatu, Dominica, Thailand, Ukraine, Morocco, Malawi, Uruguay, Chile, and Tunisia (Schweizerische Eidgenossenschaft, 2024). These developments are not rated in the finance component of the CAT rating. Instead, the full international NDC, that includes such agreements, is rated against Switzerland’s fair share goal - and rated “Insufficient”. To align with the sentiment of “highest possible ambition”, Switzerland must first set its domestic NDC within at least an “Almost sufficient” range. Although not transparently communicated (see NDC target), the estimated domestic share in Switzerland lies outside this threshold. As a second step, the country would have to provide its fair share of climate finance. This should be prioritised before purchasing credits and accounting the associated emission reductions. As Switzerland is not providing its fair share of international climate finance, the CAT does not consider it legitimate to offset for the fair share rating. Nevertheless, the CAT does acknowledge the transparency of Switzerland’s credit purchase agreements. Further information on how the CAT rates countries (against modelled pathways and fair share) can be found here .</t>
-  </si>
-  <si>
-    <t>High resolution The CAT rates NDC targets against what a fair contribution to achieving the Paris Agreement’s long-term temperature goal would be as well as against what needs to happen within a country’s own borders. Thailand has put forward two targets in its NDC. One that it will achieve using its own resources and one that requires international support. We rate the country’s unconditional target against its fair share contribution (‘Unconditional NDC target against fair share’) and its conditional target against the level of reductions needed within its border (‘conditional NDC target against modelled domestic pathways’). We rate Thailand’s 2030 conditional target as “Insufficient”. The “Insufficient” rating indicates that Thailand’s conditional NDC target in 2030 is not yet consistent with the 1.5°C temperature limit, and is associated with a 3 °C-compatible trajectory, when compared to modelled domestic pathways. We rate Thailand’s unconditional NDC target “Critically insufficient” when compared to its fair share. Thailand’s unconditional targets remain based on an inflated BAU that is significantly higher than its current and planned policy projections, even before the onset of COVID-19. Economic trends post-pandemic now lends even more weight to the possibility that the BAU is unrealistic and should be revised downward, with a corresponding strengthening of its emissions reduction targets. If all countries were to follow Thailand ’s current approach, warming would exceed 4°C. Further information on how the CAT rates countries (against Modelled domestic pathways and Fair share) can be found here .</t>
-  </si>
-  <si>
-    <t>The CAT rates NDC targets against each country’s fair share contribution to global climate change mitigation, considering a range of equity principles including responsibility, capability, and equality. The CAT also rates NDC targets against indicative national emissions from global least-cost emissions pathways (called modelled domestic pathways ). For assessing targets against the fair share, we consider both a country’s domestic emission reductions and any emissions it supports abroad through the use of market mechanisms or other ways of support, as relevant. The CAT rates Türkiye’s updated NDC target as “Critically insufficient” when rated against both modelled domestic pathways and against its fair share contribution. Türkiye has one NDC target. It has not specified whether a portion of the target is conditional on international support or whether its NDC has an international element, so we rate its NDC target against both modelled domestic pathways and fairness metrics. Further information on how the CAT rates countries (against modelled domestic pathways and fair share) can be found here . We rate Türkiye’s updated NDC target as “Critically insufficient” when compared with modelled domestic pathways. The “Critically insufficient” rating indicates that Türkiye’s 2030 target reflects minimal to no action and is not at all consistent with limiting warming to 1.5°C. If all countries were to follow Türkiye’s approach, warming would exceed 4°C. Türkiye is on track to achieve this target based on our emissions estimate for 2030 under current policies, which further highlights the weakness of this target as it will not drive real-world emission reductions. We rate Türkiye’s updated NDC target as “Critically insufficient” when compared with its fair share contribution to climate action. The “Critically insufficient” rating indicates that Türkiye’s 2030 target reflects minimal to no action and is not at all consistent with its fair share of the global mitigation effort to limiting warming to 1.5°C. Türkiye’s target is not in line with any interpretation of a fair approach to meeting the 1.5°C temperature limit. If all countries were to follow Türkiye’s approach, warming would exceed 4°C. We do not have sufficient information to assess Türkiye’s climate finance contribution. Under the UNFCCC, Türkiye is an Annex I country and thus not eligible to receive climate finance through the Green Climate Fund (GCF). Our methods do not provide a clear answer for the need for finance for Türkiye. On balance, the CAT methodology shows that Türkiye should receive limited climate finance, if any. Our approach would not expect Türkiye to provide climate finance to other countries. Further information on how the CAT rates countries (against modelled pathways and fair share) can be found here .</t>
-  </si>
-  <si>
-    <t>The CAT rates NDC targets against each country’s fair share contribution to global climate change mitigation, considering a range of equity principles including responsibility, capability, and equality. The CAT also rates NDC targets against indicative national emissions from global least-cost emissions pathways (called modelled domestic pathways ). For assessing targets against the fair share, we consider both a country’s domestic emission reductions and any emissions it supports abroad through the use of market mechanisms or other ways of support, as relevant. The CAT rates the UAE's NDC target as "Almost sufficient" when rated against modelled domestic pathways, and "Insufficient" when rated against its fair share contribution. The UAE does not specify a conditional target or an international element in its NDC, so we rate the NDC target against both fairness metrics and modelled domestic pathways. CAT ratings are based on emissions excluding the LULUCF sector. To obtain the NDC emissions level excluding LULUCF, the CAT takes the UAE’s own sectoral target for LULUCF, presented in its 2023 NDC update. For more details, please see the Assumptions section. The CAT rates the UAE’s 2030 NDC target as “Almost sufficient” when compared with modelled domestic emissions pathways. The “Almost sufficient” rating indicates that the UAE’s NDC target in 2030 is not yet consistent with limiting warming to 1.5°C but could be, with moderate improvements. If all countries were to follow the UAE’s approach, warming could be held below—but not well below—2°C. The CAT rates the UAE’s 2030 NDC target as “Insufficient” when compared with its fair share contribution to climate action. The “Insufficient” rating indicates that the UAE’s NDC target in 2030 needs substantial improvements to be consistent with its fair share of the global mitigation effort to limit warming to 1.5°C. The UAE’s target is at the least stringent end of what would be a fair share of global effort and is not consistent with the 1.5°C limit, unless other countries make much deeper reductions and comparably greater effort. If all countries were to follow the UAE’s approach, warming would reach over 2°C and up to 3°C. The UAE’s NDC rating has improved compared to our previous assessment for two reasons: First, we have updated the UAE’s historical data, resulting in lower emissions (excluding LULUCF) compared to the previous assessment. Our new estimates come from the UAE’s latest inventory, published in its 5 th National Communication to the UNFCCC. Second, the CAT conducted a literature update to its fair share (FS) ranges, which aligns our equity approaches with international environmental law (Rajamani et al., 2021) and therefore exclude studies based on cost-effectiveness; it also included additional studies to reflect the latest research available in the field. This update yielded more lenient FS ranges for the UAE, contributing to improve its rating. Further information on how the CAT rates countries (against modelled pathways and fair share) can be found here .</t>
-  </si>
-  <si>
-    <t>The CAT rates NDC targets against what a country should be doing within its own borders as well as what would qualify as a country’s fair contribution to achieving the Paris Agreement’s long-term temperature goal. For assessing targets against the fair share, we consider both a country’s domestic emissions reductions and any emissions reductions it supports abroad through the use of market mechanisms or other ways of support, as relevant. The US does not intend to use market mechanisms and will achieve its NDC target through domestic action alone. We rate its NDC target against both domestic and fairness metrics. We rate the target of reducing emissions by 50%–52% (or 45%–50% excluding emissions from land-use, land-use change and forestry or LULUFC) below 2005 levels by 2030 as “Almost sufficient” when compared to modelled domestic emissions pathways. The “Almost sufficient” rating indicates that the US target in 2030 is not yet consistent with the 1.5°C temperature limit but could be, with moderate improvements. If all countries were to follow the US approach, warming could be held at—but not well below—2°C. Although the target represents a significant improvement compared to its first NDC, the current target is not stringent enough to limit warming to 1.5°C and needs further improvements. We rate the target of reducing emissions by 50%–52% (or 45%–50% excl. LULUCF) below 2005 levels by 2030 as “Insufficient” when compared with its fair-share emissions allocation. The “Insufficient” rating indicates that US’ NDC target for 2030 needs substantial improvement to be consistent with limiting warming to 1.5°C. The US target is at the least stringent end of what would be a fair share of global effort. The target is not consistent with the 1.5°C limit, unless other countries make much deeper reductions and comparably greater effort. If all countries were to follow US’ approach, warming would reach over 2°C and up to 3°C. The US’ international climate finance contributions is rated “Critically insufficient” (see below) and is not enough to improve the US’ fair share rating. We rate the US’ international public climate finance contributions as “Critically insufficient.” The US has committed to increase its climate finance, but contributions to date have been much lower than its fair share. To improve its rating, the US needs to ramp up the level of its international climate finance contributions and accelerate the phase-out of all fossil fuel financing abroad (and not only coal). Contribution levels and trends The US Congress approved a budget allocation for international climate finance of no less than USD 0.9bn (Congressional Research Service, 2024) for FY2024, although the Biden Administration requested an allocation of USD 5bn. As a result of a more stringent federal spending cap, the FY2024 finance provision is less than the provision in the first years of the Biden Administration (Thwaites, 2024). For FY2025, the administration accordingly reduced its requested funding to USD 3.5bn. The US State Department, however, claims it is on track to reach its pledge to contribute USD 11.4bn per year by 2024, with a projected contribution of USD 9.5bn in FY2023 (U.S. Department of State, 2024). The difference between the climate finance commitment approved by Congress and the total claimed by the State Department is due to the fact that Congress’ funding only represents a small share of US’ total international climate finance, as other agencies contribute the bulk of financing (Thwaites, 2024; U.S. Department of State, 2024). However, the sources of the US’ climate finance are not transparently reported. While Congress’ budget allocation does not include any funding for the Green Climate Fund (GCF), the US government has pledged to contribute USD 3bn to the GCF. The GCF is the primary international vehicle for supporting developing countries in their efforts to respond to and build resilience to the climate crisis (DeLauro, 2022). The commitment of USD 11.4bn per year by 2024 falls short of the US’ fair contribution. While the OECD reported in 2022 that international climate finance provided by developed countries exceeded the USD 100bn goal per year for the first time, a “new collective quantified goal on climate finance” for post-2025 is already being discussed by UNFCCC parties (UNFCCC, 2024). To demonstrate global leadership on climate finance and to contribute towards its fair share, the US needs to substantially scale up its international climate finance provisions. The CAT finance rating would improve if the US were to successfully augment its level of finance through a sustained upwards trend in annual contributions. The US has historically provided a significant portion of its climate-related financial contributions as grants, which are more concessional than loans. Climate finance contributions declined during the Trump Administration, but this trend has since been reversed by the Biden Administration, which in 2021 increased its bilateral climate-related Official Development Assistance (ODA) (OECD, 2022). Bilateral climate finance by the US, as reported as principal and significant financing, further increased in 2022 as a result of an increase in adaptation financing. Principal mitigation financing actually decreased by half, from almost USD 1bn to less than USD 500m, reflecting a shift by the Biden Administration towards adaptation financing (OECD, 2024). Overall, the US' allocation of funding to bilateral climate-related ODA increased from 3% in 2021 to 10% in 2022 of total ODA spending, but remains well below the OECD's Development Assistance Committee (DAC) member countries' average of 24% (Donor Tracker, 2021, 2023). This continues to highlight a substantial shortage in the US' financial commitment to addressing climate change through ODA. Increasing these contributions would not only allow the US to play a larger role in global climate action, but would also align with its renewed commitment to international cooperation under the Biden Administration. Fossil fuel financing abroad The US, along with several other countries, agreed to “end new direct public support for the international unabated fossil fuel energy sector” by the end of 2022 (The White House, 2021a). The 2023 G7 Communique claims to have achieved this goal (The White House, 2023d). However, the US has neither developed plans nor introduced policies to implement this commitment. The US also has not supported a proposal put forward by the European Union to end fossil fuel finance from export banks (E&amp;E News by POLITICO, 2024). In 2023, the Export-Import Bank of the US (EXIM), an independent US government agency that provides concessions for projects that seek to boost US exports, continued to lend money to foreign fossil fuel projects, including USD 100m to Indonesia’s national oil company to expand an oil refinery and boost production. Estimates suggest that EXIM’s total lending amounted to USD 1bn in 2023 (Aronoff, 2023). While the US government claims to be actively working with EXIM to end its financing of fossil fuel projects, the export agency itself does not seem to take a proactive role in doing so, claiming it has no jurisdiction to end these projects (Friends of the Earth US, 2024). In January 2024, EXIM’s lack of action resulted in two members of the agency’s climate advisory board resigning over a decision to support a fossil fuel project in Bahrain (Friedman &amp; Tabuchi, 2024). EXIM plans to finance further fossil fuel projects, including in Guyana, Malaysia, Mexico, Mozambique, and Papua New Guinea (Friends of the Earth US, 2024). Although the US has not approved any new domestic coal projects in more than a decade (Friedman &amp; Tabuchi, 2024), the US continues to support existing coal projects abroad, such as the Jawa 9-10 Suralaya Coal Plant in Indonesia and the Long Phu 1 Coal Plant in Vietnam (EndCoal, 2020). The US should stop supporting all fossil fuel developments abroad to improve its climate finance rating.</t>
-  </si>
-  <si>
-    <t>NOTE: This update does not conduct a new rating of the UK’s climate targets, as the new government only entered power in July 2024. Instead, it describes the context inherited by the new government and highlights key areas for improvement. We will respond to any major announcements and provide an updated rating for the UK in 2025. The CAT rates NDC targets against each country’s fair share contribution to global climate change mitigation, considering a range of equity principles including responsibility, capability, and equality. The CAT also rates NDC targets against indicative national emissions from global least-cost emissions pathways (called modelled domestic pathways). For assessing targets against the fair share, we consider both a country’s domestic emission reductions and any emissions it supports abroad through the use of market mechanisms or other ways of support, as relevant. The UK does not intend to use market mechanisms and will achieve its NDC target through domestic action alone. We rate its NDC target against both modelled domestic pathways and fairness metrics. When compared against least cost modelled pathways which limit warming to 1.5°C, the UK’s target is rated as "Almost Sufficient". The “Almost Sufficient” rating indicates that the UK’s domestic target in 2030 is not yet consistent with modelled domestic pathways limiting warming to 1.5°C but could be, with moderate improvements. If all countries were to follow the UK’s approach, warming could be held below—but not well below—2°C. This is a downgrade of the UK’s NDC compared to the CAT's 2022 UK assessment, where we rated the UK’s target as 1.5ºC compatible. This is because the CAT is now producing modelled domestic pathways via the latest global scenarios assessed by the IPCC’s AR6 report, rather than the older scenarios from the IPCC’s Special Report on 1.5ºC. The lack of progress in global emissions reductions in recent years is increasing the pressure on the emissions cuts needed by 2030. As a result, under the latest pathways, the UK’s emissions need to fall faster to align with 1.5ºC, and the UK’s NDC (which was previously only just aligned with 1.5ºC) has now been downgraded to "Almost Sufficient". This highlights the importance of aligning with 1.5ºC in the most robust manner possible. The CAT’s assessment of the UK’s total fair share contribution takes into account its emissions reduction target and its climate finance. When compared against what would be a fair share of effort towards achieving the Paris Agreement goals, the UK’s NDC is rated as “Insufficient”. The “Insufficient” rating indicates that the UK’s NDC target in 2030 needs substantial improvements to be consistent with its fair share of global mitigation effort to limit warming to 1.5°C. The UK’s target is at the least stringent end of what would be a fair share of global effort and is not consistent with the 1.5°C limit, unless other countries make much deeper reductions and comparably greater effort. If all countries were to follow the UK’s approach, warming would reach over 2°C and up to 3°C. The UK’s current NDC sets a target of 253 MtCO 2 e/yr in 2030 (when expressed in AR4 GWPs excl. LULUCF). To improve its fair share rating, the UK would need to cut emissions by an additional 280–400 MtCO 2 e, to reach negative GHG emissions by 2030. Some of these additional reductions can be achieved domestically, by cutting UK emissions to more than 68% below 1990 levels (WWF, 2020). Where possible, the UK should seek to increase the ambition of its 2030 target to 70% and beyond. Where further emissions reductions are not possible, the UK would need to support climate action in other countries, particularly through capacity building, technology transfer and climate finance. Without this, the UK cannot be seen to be aligned with the Paris Agreement’s commitment to reflect ‘equity and the principle of common but differentiated responsibilities’ in climate action. The UK’s reported contributions to financing emission reductions abroad fall far short of its fair share (Gabbatiss, 2023) contribution to the USD 100 bn goal which itself needs to be increased substantially to help drive the global energy transition (Pachauri et al., 2022). On this (most important) metric, the UK is therefore rated as “Highly Insufficient”. In 2019, the UK committed to doubling its climate finance provision from GBP 5.8 bn (USD 7.6 bn) across 2016–2020 to GBP 11.6 bn (USD 15.1 bn) across 2021–2026 (UK Government, 2019), which earns it an “Almost sufficient” rating for future commitments. However, in July 2021 it was revealed that this would not be new funding, and instead would be taken from the existing aid budget (Merrick, 2021). This is in contradiction with a UN-brokered agreement that such funding would be ‘new and additional’ (UNFCCC, 2011). The UK has also consistently underspent climate finance over 2021–2023 (Rowlatt, 2023), and UK total climate finance provision fell from 2020/21 to 2022/23 (Gabbatiss, 2023). The previous government attempted to meet its target partly by further reclassifying existing aid spending as climate finance (FCDO, 2023). Such an approach is deeply regrettable. The new UK government should aim to reclaim leadership in the area of climate finance by: Committing to reaching the GBP 11.6 bn goal across 2021–2026 Resetting the rules on what constitutes climate finance to put the UK at the front of the pack in terms of tracking climate finance (rather than in the middle with other donors) Committing to an ambitious climate finance goal for post-2026 Further information on how the CAT rates countries (against modelled domestic pathways and fair share) can be found here .</t>
-  </si>
-  <si>
-    <t>New Zealand’s NDC target in 2030 is not consistent with limiting warming to 1.5°C when compared to modelled domestic pathways. The target aims for GHG emissions to be 50% below 2005 levels by 2030 (including LULUCF). The new target equates to around 51 MtCO 2 e/yr by 2030 excluding LULUCF. This is equivalent to 21% below 1990 levels by 2030. New Zealand needs to bring down its emissions level to 47 MtCO 2 e/yr for a 1.5°C modelled domestic pathway. We rate this target as “Almost sufficient”, moving up from previous rating of “Insufficient”. The CAT calculates a 1.5°C domestic emissions pathway for New Zealand is 44% below 2005 emissions in 2030 (excluding LULUCF). This rating indicates that New Zealand’s emissions in 2030 are not yet consistent with limiting warming to 1.5°C but could be, with moderate improvements. If all countries were to follow a similar approach, warming could be held below—but not well below—2°C. We rate New Zealand’s NDC target as “Insufficient” when compared with its fair share emissions allocation. The “Insufficient” rating indicates that New Zealand’s emissions in 2030 needs substantial improvements to be consistent with limiting warming to 1.5°C. New Zealand’s target is at the least stringent end of what would be a fair share of global effort and is not consistent with limiting warming to 1.5°C unless other countries make much deeper reductions and comparably greater effort. If all countries were to follow similar approach, warming would reach over 2°C and up to 3°C. With the 2021 update in its NDC New Zealand’s fair share rating has improved from “Critically Insufficient” to “Insufficient”. A fair share target would require New Zealand to nearly halve this target to 32 MtCO 2 e/yr by 2030 New Zealand’s NDC target would need to be 37% lower to be a 1.5°C compatible in terms of New Zealand’s fair share. The current target is equivalent to 51 MtCO 2 e in 2030 where as a 1.5°C compatible fair share target would be around 32 MtCO 2 e. Substantial improvement is needed. Some of these improvements should be made to the domestic emissions target itself, others could come in the form of additional support for emissions reductions achieved in developing countries in the form of finance. Taking both New Zealand’s emissions reduction target and climate finance into account, we rate the overall fair share contribution as “Insufficient”. New Zealand’s international public climate finance contributions are rated “Highly insufficient.” The country remains committed to climate finance in the period post-2020 but contributions to date have been very low compared to its fair share. To improve its rating New Zealand needs to improve climate finance commitments and make explicit commitments to prevent investments in fossil fuel finance abroad. Reported contributions fall short of New Zealand’s fair share contribution to the USD 100bn goal and show no clear trend of increasing. A big disbursement in 2014 distorts the trend. Annual contributions with climate as the main component have been less than a third of 2014 values – but have increased in recent years. New Zealand expects to meet its commitment to deliver a total of NZD 1.3bn in climate finance between 2022 and 2025, but this target is still insufficient. The 2022 budget allocated NZD 840m for international climate finance in addition to pre-commitments (New Zealand Ministry of Foreign Affairs and Trade 2022a). During COP27, New Zealand announced that it would contribute NZD 15m of this climate finance to the Adaptation Fund and a NZD 20m contribution to Loss and Damage (New Zealand Government 2022g; 2022e). New Zealand does not finance fossil projects overseas. New Zealand signed the COP26 statement to end public support to fossil fuels abroad (CNN 2021). In April 2021, New Zealand passed legislation which mandates climate risk reporting for banks, asset managers, and insurers, making it the first country in the world to implement such mandatory climate risk reporting . Financial institutions are required to annually report on governance, risk management as well as strategies for climate change mitigation. Further information on how the CAT rates countries (against modelled domestic pathways and fair share) can be found here .</t>
-  </si>
-  <si>
-    <t>The CAT rates NDC targets against what a fair contribution to achieving the Paris Agreement’s long-term temperature goal would be as well as against what needs to happen within a country’s own borders. Nepal will need support to achieve those needed reductions with its borders. Nepal has put forward two targets in its NDC. One that it will achieving using its own resources and one that requires international support. We rate the country’s unconditional target against its fair share contribution and its conditional target against the level of reductions needed within its border defined by a modelled domestic pathway. In the case of Nepal, the CAT could not quantify the unconditional target because an absolute emissions reduction target was not provided, so we use Nepal’s current policy projections as its unconditional target. Nepal’s current “Critically insufficient” rating indicates that its conditional 2030 target reflects minimal to no action and is not at all consistent with limiting warming to 1.5°C, when compared to modelled domestic pathways. If all countries were to follow Nepal’s approach, warming would exceed 4°C. We haven’t included all sectoral measures in our assessment of Nepal’s conditional target because the NDC provided limited details on some of the sectoral target, so it was not possible to estimate the impact of all of them. Nepal is encouraged to provide further information on the quantification of its NDC and to exceed this target with international support. Given the NDC has no unconditional emissions reduction target, the CAT therefore had to use Nepal’s current policy projections as its unconditional target. Our current policy projection and the conditional target both fall within the 1.5°C range. The “1.5°C compatible” rating indicates that Nepal’s fair share target is consistent with limiting warming to 1.5°C. Nepal’s fair share target does not require other countries to make comparably deeper reductions or greater effort, and is in the most stringent part of its fair share range. Further information on how the CAT rates countries (against modelled domestic pathways and fair share) can be found here .</t>
-  </si>
-  <si>
-    <t>High resolution The CAT rates NDC targets against what a fair contribution to achieving the Paris Agreement’s long-term temperature goal would be as well as against what needs to happen within a country’s own borders. Morocco will need support to achieve those needed reductions within its borders. Morocco has put forward two targets in its NDC. One that it will achieving using its own resources and one that requires international support. We rate the country’s unconditional target against its fair share contribution and its conditional target against the level of reductions needed within its border defined by a modelled domestic pathway. We rate Morocco’s conditional NDC “Almost sufficient” when compared with modelled domestic emissions pathways. The “Almost sufficient” rating indicates that Morocco’s internationally supported target in 2030 is not yet consistent with the 1.5°C temperature limit but could be, with moderate improvements. If all countries were to follow Morocco’s approach, warming could be held below—but not well below—2°C. We rate the unconditional NDC reduction target as “Almost sufficient” when compared with its fair share contribution to climate action. The “Almost sufficient” rating indicates that Morocco’s unconditional target against fair share in 2030 is not yet consistent with limiting warming to 1.5°C but could be, with moderate improvements. Morocco’s target is within the range of what is considered to be a fair global effort, but would require other countries to make deeper reductions and comparably greater effort to limit warming to 1.5°C. If all countries were to follow Morocco’s approach, warming could be held below—but not well below—2°C. We have revised our previous assessment to exclude the LULUCF mitigation measures planned in the agricultural sector. This resulted in a change in the rating of the unconditional target against fair share but did not have an impact on the overall rating of Morocco. Further information on how the CAT rates countries (against modelled domestic pathways and fair share) can be found here .</t>
-  </si>
-  <si>
-    <t>High resolution The CAT rates NDC targets against what a fair contribution to achieving the Paris Agreement’s long-term temperature goal would be as well as against what needs to happen within a country’s own borders. Egypt only has a conditional target. We rate the conditional target against the level of reductions needed within its border (‘Conditional NDC target against modelled domestic pathways’). Egypt does not have an unconditional emissions reduction target. In the absence of a target, we use our estimate for Egypt’s business-as-usual target as its unconditional target. The CAT rates Egypt’s conditional target “Highly insufficient”. The “Highly insufficient” rating indicates that Egypt’s conditional NDC target in 2030 leads to rising, rather than falling, emissions and is not at all consistent with the 1.5°C temperature limit when compared to modelled domestic pathways. If all countries were to follow Egypt’s approach, warming could reach over 3°C and up to 4°C. In the absence of an unconditional NDC emissions reduction target, the CAT takes Egypt’s estimated ‘business as usual’ scenario as its unconditional commitment and rates it “Critically insufficient ”. The “Critically insufficient” rating signals minimal to no action and is not at all consistent with the 1.5°C temperature limit. Egypt’s (estimated) target is not in line with any interpretation of a fair approach to meeting the 1.5°C limit. If all countries were to follow Egypt’s approach, warming would exceed 4°C. Egypt would need to roughly stabilise emissions at today’s levels to meet its fair share of the global mitigation effort to keep temperature rise below 1.5°C. Further information on how the CAT rates countries (against modelled pathways and fair share) can be found here .</t>
-  </si>
-  <si>
-    <t>The CAT rates NDC targets against what a fair contribution to achieving the Paris Agreement’s 1.5°C temperature limit would be, as well as against what needs to happen within a country’s own borders. Ethiopia will need international support to achieve the required reductions within its borders. Ethiopia’s NDC target includes a portion that is unconditional, that it will achieve using its own resources. We rate that portion against its fair share contribution. The full NDC target will require international support to achieve and we rate that against the level of reductions needed within Ethiopia’s border. Further information on how the CAT rates countries (against modelled pathways and fair share) can be found here . The CAT rates Ethiopia’s conditional NDC target as “Critically insufficient” when compared to modelled domestic pathways. Ethiopia should also propose a conditional NDC target that brings emissions down towards decarbonisation with external support. Its current conditional target is only compatible with more than 4°C of warming and should be strengthened. Ethiopia should ask for additional support to implement additional policies and meet its conditional NDC target. Ethiopia intends to achieve this target primarily through reductions in its land sector emissions. Yet, Ethiopia cannot ignore the growth in emissions in other sectors. It needs to strengthen its updated conditional NDC target further and will need additional international support to achieve this target. Since the last assessment, the CAT has updated its methodology and pathways included for deriving modelled domestic pathways. As a result of these changes, Ethiopia’s target rating now falls into the ‘Critically insufficient’ category rather than the ‘Highly insufficient’ category. The target itself is unchanged since our last update. The CAT rates Ethiopia’s unconditional NDC target as “1.5°C compatible”. The “1.5°C compatible” rating indicates that Ethiopia’s unconditional NDC target reflects the fair share for a least developed country consistent with limiting warming to 1.5°C. Ethiopia’s fair share target does not require other countries to make comparably deeper reductions or greater effort, and is in the most stringent part of its fair share range.</t>
-  </si>
-  <si>
     <t>High resolution The CAT rates Iran’s conditional target as “Critically Insufficient” against modelled domestic pathways . Iran’s conditional target pledges an emissions reduction of 12% below business as usual, which would lead to emissions increasing by around 125% compared to 2010 levels. The “Critically insufficient” rating signals minimal to no action and is not at all consistent with the 1.5°C temperature limit. If all countries were to follow Iran’s approach, warming would exceed 4°C. The CAT rates Iran’s unconditional target as “Critically Insufficient” against its fair share range. Iran’s unconditional target pledges an emissions reduction of 4% below business as usual in 2030. The CAT estimates this would lead to emissions increasing by around 145% above 2010 levels. The “Critically insufficient” rating signals minimal to no action and is not at all consistent with the 1.5°C temperature limit. Iran’s unconditional target is not in line with any interpretation of a fair approach to meeting the 1.5°C limit. If all countries were to follow Iran’s approach, warming would exceed 4°C. Further information on how the CAT rates countries (against modelled pathways and fair share) can be found here .</t>
   </si>
   <si>
     <t>The CAT rates NDC targets against each country’s fair share contribution to global climate change mitigation, considering a range of equity principles including responsibility, capability, and equality. The CAT also rates NDC targets against indicative national emissions from global least-cost emissions pathways (called modelled domestic pathways ). For assessing targets against the fair share, we consider both a country’s domestic emission reductions and any emissions it supports abroad through the use of market mechanisms or other ways of support, as relevant. Japan has indicated that it may use market mechanisms to achieve its target but has not provided sufficient details on the extent of such usage. In the absence of the clarity on the extent of usage, we have rated its NDC target against both global domestic pathways and fairness metrics. The CAT rates the proposed 2030 reduction target of 46% (42% excluding LULUCF credits) below 2013 levels as “Insufficient” when compared to modelled domestic emissions pathways. This rating indicates that Japan’s target in 2030 needs substantial improvements to be consistent with modelled domestic pathways limiting warming to 1.5°C. If all countries were to follow Japan’s approach, warming would reach over 2°C and up to 3°C. The CAT rates Japan’s 2030 reduction target of 46% (42% excluding LULUCF credits) below 2013 levels as “Insufficient” when compared with its fair-share emissions allocation. This rating indicates that Japan’s NDC target in 2030 needs substantial improvement to be consistent with its fair share of the global mitigation effort to limit warming to 1.5°C . Some of these improvements should be made to the domestic emissions reductions target itself, others could come in the form of additional financial support for emissions reduction in developing countries. Japan’s target is not consistent with the 1.5°C limit unless other countries make much deeper reductions and comparably greater effort. If all countries were to follow Japan’s approach, warming would reach up to 3°C. Further information on how the CAT rates countries (against modelled domestic pathways and fair share) can be found here . The CAT rates Japan’s international public climate finance contributions as “Highly insufficient”. Japan remains committed to providing climate finance in the period post-2020 but contributions to date have been very low compared to its fair share. To improve its rating Japan needs to further accelerate commitments to increase climate finance and stop funding fossil fuel overseas. Japan reports significant levels of climate finance, but only a small share takes the form of grants or has climate as a primary objective (OECD, 2022). Japan also counts 50% of broader development projects as climate finance–- even though they are explicitly defined as not primarily targeting climate action (Carty &amp; Kowalzig, 2022). The CAT accounted for these factors and the resulting finance considered in this rating is considerably lower than originally reported by the government. Japan has contributed to the achievement of the USD 100bn goal yearly until 2020 and commits ‘to maintain the same level of amount beyond 2020’. However, it is important to note that the USD 100bn goal itself is insufficient post-2020. A clear and sustained increase in international climate mitigation finance is thus fundamental in the post-2020 period. In this sense, it is positive that Prime Minister Kishida committed at COP26 to add USD 10bn for climate finance in general and USD 14.8bn for climate adaptation in particular (Reynolds, 2021). But more support is necessary. Japan is still investing in international fossil fuel projects but is gradually moving away from this. At the G7 summit in 2021 and 2022, Japan joined the commitment to end new public finance of unabated coal power by the end of 2021, and of other fossil projects by the end of 2022 (G7, 2021, 2022). While Japan accordingly cancelled its involvement in the coal power projects in Indonesia and Bangladesh (Nikkei Asia, 2022b), the country is still one of the largest investors in fossil fuels abroad including its support for international oil and gas upstream developments (Christoph Bals, 2022; Kumagai, 2022). In March 2023, Japan officially launched the Asia Zero Emissions Community (AZEC) initiative, a cooperation framework to help Asian countries ensure energy security while striving towards decarbonisation (METI, 2023b). Under the initiative, Japan will support countries in drawing up roadmaps for energy transitions and help them develop and implement “decarbonisation technologies”. However, these seem to also include carbon capture, utilisation and storage (CCUS) technologies and hydrogen &amp; ammonia co-firing, as ways to curb emissions in coal-fired power plants and gas-fired turbines/boilers (METI, 2023g). While these technologies have a role to play in the transition to net zero, they should only be used in hard-to-abate sectors, certainly not in the power sector, and particularly not as tools designed to curb emissions in coal-fired power plants. Through the AZEC initiative, Japan is also pushing for further development of LNG infrastructure in the region, as the government seeks to position fossil gas as a transitional fuel (METI, 2023a). However, such investment would further contribute to locking-in carbon-intensive developments: fossil gas needs to be phased out, globally, by only a few years after coal, to keep warming to 1.5˚C. Further information on the CAT climate finance ratings can be found here .</t>
   </si>
   <si>
-    <t>High resolution The CAT rates NDC targets against what a fair contribution to achieving the Paris Agreement’s long-term temperature goal would be as well as against what needs to happen within a country’s own borders. Kazakhstan will need support to achieve the reductions needed within its borders. Kazakhstan has put forward two targets in its NDC: one that it will achieve using its own resources and one that requires international support. We rate the country’s unconditional target against its fair share contribution and its conditional target against the level of reductions needed within its border. We rate Kazakhstan’s conditional NDC as “Almost sufficient” when compared to modelled domestic pathways. The “Almost sufficient” rating indicates that Kazakhstan’s conditional NDC target for 2030 is not yet consistent with the 1.5°C temperature limit but could be, with moderate improvements. If all countries were to follow Kazakhstan’s approach, warming could be held below—but not well below—2°C. However, the conditional target is very close to the upper limit of this rating category, meaning that a small change in the numbers could lead to a worse rating. We rate Kazakhstan’s 2030 unconditional NDC target as “Insufficient” when compared with its fair share contribution to climate action. The “Insufficient” rating indicates that Kazakhstan’s unconditional NDC target in 2030 needs substantial improvements to be consistent with limiting warming to 1.5°C. If all countries were to follow Kazakhstan’s approach, warming would reach over 2°C and up to 3°C. Kazakhstan’s target is at the least stringent end of what would be a fair share of global effort and is not consistent with the 1.5°C limit unless other countries make much deeper reductions and comparably greater effort. Further information on how the CAT rates countries (against modelled domestic pathways and fair share) can be found here .</t>
-  </si>
-  <si>
-    <t>High resolution NDC description The CAT rates NDC targets against what a fair contribution to achieving the Paris Agreement’s long-term temperature goal would be as well as against what needs to happen within a country’s own borders. Kenya will need international support to achieve those needed reductions within its borders. Kenya’s NDC target outlines the mitigation costs that will be financed using its own resources versus those requiring international support. We rate the country’s unconditional target against its fair share contribution (‘Unconditional NDC target against fair share’) and its conditional target against the level of reductions needed within its border (‘Conditional NDC target against modelled domestic pathways’). The CAT rates Kenya’s conditional NDC target against modelled domestic pathways as “Critically insufficient” and its NDC target against fair share as “1.5°C compatible”. The strong difference in the two ratings reflects Kenya’s situation as a country with strong development needs and a small historical responsibility, but with relevant mitigation potential on its own territory, which it should exploit to a large extent with the help of international support. We rate Kenya’s conditional NDC as “Critically insufficient” when compared to modelled domestic pathways. The “Critically insufficient” rating indicates that it reflects minimal to no action and is not at all consistent with the 1.5°C temperature limit. If all countries were to follow Kenya’s approach, warming would exceed 4°C. Kenya should improve its conditional target and specify support needs to achieve it. Even a small improvement in the target would change the rating to “Highly insufficient”. We rate Kenya’s 2030 unconditional NDC target as “1.5°C compatible” when compared with its fair-share contribution to climate action. The “1.5°C compatible” rating indicates that Kenya’s unconditional NDC target is consistent with limiting warming to 1.5°C. Kenya’s NDC target does not require other countries to make comparably deeper reductions or greater effort and is in the most stringent part of its Fair Share range. Further information on how the CAT rates countries (against modelled pathways and fair share) can be found here .</t>
-  </si>
-  <si>
-    <t>High resolution The CAT rates Mexico’s conditional NDC target against modelled domestic pathways as “Highly insufficient” and its unconditional NDC target against fair share as “Critically insufficient”. We rate Mexico’s conditional 2030 reduction target levels as “Highly insufficient” when compared to modelled emissions pathways. The “Highly insufficient” rating indicates that Mexico’s conditional NDC target in 2030 is not at all consistent with the 1.5°C temperature limit. Mexico’s target is not in line with any interpretation of a fair approach to meeting the 1.5°C temperature limit. If all countries were to follow Mexico’s approach, warming could reach over 3°C and up to 4°C. Our rating system suggests that Mexico should receive limited international support to get on a 1.5°C compatible pathway. We rate Mexico’s 2030 unconditional NDC target as “Critically insufficient” when compared with its fair-share contribution to climate action. The “Critically insufficient” rating indicates that Mexico’s unconditional NDC target in 2030 reflects minimal to no action and is not at all consistent with the 1.5°C temperature limit. Mexico’s target is not in line with any interpretation of a fair approach to meeting the 1.5°C temperature limit. If all countries were to follow Mexico’s approach, warming would exceed 4°C. Further information on how the CAT rates countries (against modelled pathways and fair share) can be found here .</t>
+    <t>We evaluate the net zero target as: Poor. In November 2022, Argentina submitted a long-term strategy (LTS) to the UNFCCC that includes a target to reach GHG neutrality by 2050 (Government of Argentina, 2022a). Argentina’s net zero target does not cover most of the good practice elements identified by the CAT net zero methodology . The target explicitly covers all gases and sectors of the economy, but the government fails to disclose other key information such as the role of carbon dioxide removals. Argentina could improve the target architecture and transparency of its net zero target. For example, the government could set separate emission and reduction targets and clarify its accounting methodology for LULUCF. It could further improve transparency on its planning process, the use of tools such as pathway modelling and specific sectoral policy objectives to reach net zero. For the full analysis click here .</t>
+  </si>
+  <si>
+    <t>We evaluate the net zero target as: No net zero target.</t>
+  </si>
+  <si>
+    <t>In its LTS, the Moroccan government stated its intention to provide sectoral analysis to evaluate Morocco’s capacity to achieve carbon neutrality during the century. Therefore, we assume that Morocco intends to commit to a net zero target (Kingdom of Morocco, 2021c). As of March 2023, a concrete plan and timeline have yet to be released. Given its preliminary nature, and the lack of more detailed information, the CAT currently does not evaluate Morocco’s net zero target. We will do so once further information is communicated.</t>
+  </si>
+  <si>
+    <t>We evaluate the net zero target as: Average. Nepal announced its commitment to achieving carbon neutrality before, or by, 2045, in October 2021. The long-term strategy sets out targets that cover all sectors of the economy – energy, industry process, agriculture, forestry and land use, and waste. However, the LTS only covers CO 2 emissions despite non-CO 2 emissions accounting for 70% of Nepal total emission (excl. LULUCF) in 2021 (Gütschow, Günther and Pflüger, 2022) . The LTS gives two emission reduction scenarios. The first scenario, With Existing Measures (WEM), takes into account the plans and policies implemented and adopted up to 2020, as well as potential adoption in 2030 and 2050. The WEM scenario does not target carbon neutrality, while the With Additional Measures (WAM) scenario does. The WAM scenario includes more ambitious targets; conditional on international support and aims to achieve carbon neutrality by 2045 (Government of Nepal, 2021). In the WEM scenario, net CO 2 emissions will be reduced by 30 MtCO 2 e in 2030 and 50 MtCO 2 e in 2050 [GWP AR5]. In WAM scenario, Nepal’s net CO 2 emissions are projected to be negative from 2020 to 2030 due to a LULUCF carbon sink, then remain around ‘zero’ throughout 2035 to 2045 (Government of Nepal, 2021). The LTS outlines investment in clean energy as the main strategy for emission reductions. It also emphasises the significant role of the LULUCF sector in supporting ‘net negative carbon emissions by 2050’. Both scenarios cover energy efficiency improvement, fuel switching and a strong target for electrification across most sectors (Government of Nepal, 2021). For the full analysis click here</t>
+  </si>
+  <si>
+    <t>We evaluate New Zealand' net zero target as: Poor. New Zealand passed its Climate Change Response (Zero Carbon) Amendment Act in 2019, which sets a target for all greenhouse gases except for biogenic methane – methane from agriculture and waste – to reach net zero by 2050 (Government of New Zealand 2019a). There is a separate target for biogenic methane emissions to be 24-47% below 2017 levels by 2050. The minister of climate change has recommended moving to an all gas net zero target, but the government has not yet acted on this recommendation. In November 2021, New Zealand submitted its Long Term Low Emissions Development Strategy (LTS) to UNFCCC (Ministry for the Environment 2021e). In the LTS, the government has presented a framework for net zero target including five year review cycles with corresponding emissions budgets. The LTS has identified action areas for key sectors without going into details of the emissions reduction potential of those strategies. New Zealand’s net zero target performs poorly in terms of its scope, target architecture and transparency. While the target architecture of New Zealand’s net zero target is relatively strong, it does not follow good practice on a number of elements. In addition to biogenic methane, international aviation and shipping also remain outside the target’s scope, and the government’s reserving of the right to use international offset credits to meet its net zero target in the case of a significant change of circumstance (New Zealand Government 2020a). The full net zero target analysis can be found here .</t>
+  </si>
+  <si>
+    <t>Bhutan has set an indicative goal of reaching net zero by 2050 (Royal Government of Bhutan 2021). Bhutan first committed to remain carbon neutral during COP15 in 2009. In its second NDC, Bhutan adopted a net zero emissions by 2050 target, which it has already met given it is currently a net negative emitter. However, the NDC does not sufficiently detail how this target will be monitored and not exceeded in the future. The CAT currently does not evaluate Bhutan’s net zero target due to a lack of information. We will update our assessment once more information becomes available. For the full analysis click here .</t>
+  </si>
+  <si>
+    <t>We evaluate the net zero target as: Acceptable. Chile announced its net zero target for 2050 as proposed legislation in the Framework Law on Climate Change in 2020 (President of Chile, 2020) and included it in the updated NDC submitted to the UNFCCC in the same year (Government of Chile, 2020b). In November 2021, the target was also included in the LTS and, since June 2022, it is enshrined in law with the passing of the Framework Law on Climate Change (Congreso Nacional de Chile, 2022). Chile’s net zero target covers most key elements. It covers all sectors and gases, communicates strategic goals and emissions targets per sector, and provides a detailed methodological framework. Notably, Chile underpins these sector-specific ambitions with detailed emissions pathway analyses and budgets. While Chile does not actively outline any plans to rely on reductions and removals outside its borders, future iterations of its NDC could explicitly rule out international credits. Chile could further improve its net zero target by considering good practice standards for a few elements. It could include international aviation and shipping in its target’s scope, and explicitly elaborate on fairness considerations. For the full analysis click here .</t>
+  </si>
+  <si>
+    <t>We evaluate the net-zero target as: Poor . China submitted its Mid-Century Long-Term Low Greenhouse Gas Emission Development Strategy (LTS) on October 28, 2021 to the UNFCCC, which contains the country’s commitment to reach “carbon neutrality before 2060”. The commitment was first declared at the UN General Assembly in September 2020 by President Xi Jinping (FMPRC, 2020). The officially-submitted LTS appears to confirm the commitment covers only carbon dioxide emissions, whereas the CAT had previously assumed the coverage was for all GHGs as claimed by Xie Zhenhua and Tsinghua University. The target is not yet enshrined in an official law but has become a core focus and narrative across all national and subnational planning documents, government notices, and politburo convenings, which was reaffirmed in China’s 2022 “Two Sessions” (Xinhua, 2022). If China’s net zero target was to cover all GHG emissions, its long-term strategy could be within the range of mid-century Paris Agreement compatible emission levels, although compatibility also depends on the shape of the pathway (Yvonne Deng et al. , 2020). Due to the size of China’s emissions, this difference can make up to 0.1°C more (CO 2 only) or less (all GHGs) warming in 2100. Given the LTS submission does not meet the majority of our criteria for a best-practice approach in LTS formulation, we evaluate China’s net-zero target as “Poor”. For the full analysis click here .</t>
+  </si>
+  <si>
+    <t>Colombia has a net zero GHG emissions target by mid-century. In November 2021, Colombia submitted the National Long-Term Strategy ( E2050 ) to the UNFCCC. The Strategy includes different scenarios and pathways and outlines nine strategic initiatives with 48 transformation options to be considered by decision-makers. In December 2021, with the Law No. 2169 (Ley Climatica N°2169, 2021), Colombia promotes the country's low-carbon development through the establishment of minimum targets and measures for carbon neutrality and climate resilience. This enriches the carbon neutrality target into law. The strategy describes the need to carry out mitigation actions in all sectors, intending to reduce GHG emissions by 90%. A reduction of the remaining 10% of emissions will be achieved through land or carbon capture technology to reach net zero. We evaluate Colombia’s net zero target as “acceptable”. The full net zero target analysis can be found here .</t>
+  </si>
+  <si>
+    <t>We evaluate the net zero target as Acceptable. Costa Rica announced a net zero target for 2050 in its National Decarbonisation Plan 2018-2050 (Government of Costa Rica, 2019c). The net zero target covers most key elements but does not meet best practice standards for some of them. Costa Rica’s target covers all sectors and gases underpinned by emissions pathway analysis and the communication of strategic goals and emissions targets per sector. Pathways and key measures are identified comprehensively with interim goals attributable to discernible periods to reach net zero through domestic actions and without the use of international credits. The Costa Rican government does not provide explicit and transparent assumptions on some key elements. For example, Costa Rica provides no information on its intention to establish a formal periodic review cycle of measures and interim targets. To further improve its strategy, Costa Rica could provide separate targets for emission reductions and removals and include emissions from international bunkers. The policy document has also not yet been enshrined in law, which could make targets and measures legally binding and more robust. In 2019, Costa Rica presented its National Decarbonisation Plan 2018-2050 (Government of Costa Rica, 2019c). In this document, Costa Rica sets a national target of net-zero emissions in 2050—emissions including LULUCF—and describes a roadmap towards achieving this target. According to the sectoral breakdown provided in the plan, emissions in 2050 will be 5.5 MtCO 2 e excluding LULUCF. The pathway towards decarbonisation has been modelled as a linear decrease between 2020 and 2050.</t>
+  </si>
+  <si>
+    <t>Peru is in the process of updating its Climate Change National Strategy with a timeframe up to 2050. This update will be based on a Technical Study commissioned to explore pathways to reach carbon neutrality by 2050. No further details have been communicated so far, but in January 2022, the government declared a climate emergency of national interest through its Supreme Decree N° 003-2022-MINAM and indicated that the new Climate Change strategy will be approved by, latest, October 2022 (Ministry of Environment of Peru, 2022a). Before that, government officials announced that the mid-century carbon neutrality target would be based on four national priorities (Ministry of Environment of Peru, 2020b): Transformation of the energy matrix towards renewable energy Electrification of the economy (less polluting transport, electromobility) Circular economy Nature-based solutions (sustainable use of natural resources). This is a step in the right direction: transitioning to a low-emissions development pathway in compliance with international climate change commitments. However, Peru should avoid relying on LULUCF sinks to achieve its carbon neutrality target, given the high chance of carbon loss through deforestation or natural disturbance and eventual competition for land. For the full analysis click here .</t>
+  </si>
+  <si>
+    <t>The Philippines does not have a net zero or long-term target.</t>
+  </si>
+  <si>
+    <t>Russia approved its ‘Strategy of socio-economic development of the Russian Federation with low greenhouse gas emissions by 2050’ in October 2021 and submitted it to the UNFCCC in September 2022 as its long-term climate strategy (LTS) (Russian Federation, 2021a, 2022c). As part of this strategy, Russia has committed to reaching net zero greenhouse gas (GHG) emissions by 2060. The strategy also includes a target to reduce GHG emissions by 80% below 1990 levels by 2050, leaning heavily on negative emissions from the LULUCF sector, which are projected to more than double between 2030 and 2050, from -539 MtCO 2 e to -1,200 MtCO 2 e. The enormous increase in negative emissions achieved through the land use, land use change and forestry (LULUCF) sector means that steep reductions in emissions from the combustion of fossil fuels would not be necessary to achieve net zero emissions. The steep increase in negative emissions raises questions as to the viability of Russia’s planned approach to reach net zero emissions given emissions from fossil fuel combustion are projected to remain high until 2050. We evaluate the target as “Poor”. For the full analysis click here .</t>
+  </si>
+  <si>
+    <t>We evaluate the target as: Poor. Saudi Crown Prince Mohammed bin Salman announced Saudi Arabia’s net zero target for 2060 at the first Saudi Green Initiative Forum in October 2021 (Kingdom of Saudi Arabia, 2021d). However, the target has yet to be enshrined in law, or in a policy document. As of October 2023, Saudi Arabia has not submitted a long-term strategy to the UNFCCC. Since its initial announcement in 2021, the Saudi government has not provided any further detailed information on scope, target architecture, or transparency. Saudi Arabia has not yet provided a clear emissions reduction pathway to net zero (Kingdom of Saudi Arabia, 2021a). The target’s emission coverage remains unclear with the CAT currently assuming that only CO 2 emissions are being covered based on scarce available information. Saudi Arabia intends to reach its net zero target through the Circular Carbon Economy approach, which relies on the use of CCS. The national oil company Saudi Aramco has committed to reaching net zero operational emissions in 2050. However, most oil and gas emissions come from the combustion of fossil fuels, not their production. Saudi Arabia and Aramco’s net zero targets do not take into account emissions resulting from oil and gas exports. They also do not consider the economic risks associated with a continued reliance on fossil fuels exports in a net zero world (for further details, see the “Oil production” section under “Energy supply” here ). For the full analysis click here .</t>
+  </si>
+  <si>
+    <t>Singapore has committed to net zero GHG emissions by 2050 as part of its Long-Term Low Emissions Development Strategy (LT-LEDS) (National Climate Change Secretariat, 2020, 2022). In its initial Strategy, submitted in 2020, it had set the target year as ‘as soon as viable in the second half of the century’ (National Climate Change Secretariat, 2020). It amended the target year in its 2022 addendum to the strategy, bringing it forward to 2050. Singapore has outlined detailed sector-specific policies and measures targeting power, industry, transport, building and waste, but its Strategy does not provide details on the mitigation potential of those measures, outline an emissions pathway to net zero, nor provide any detail on the extent to which carbon capture, utilisation and storage (CCUS) will be used to achieve the target. The Strategy outlines its support for measures taken to address emissions from international aviation and shipping, though these sectors are not specifically included in its target. No review processes have been established for Singapore’s long-term target. Our full net zero target analysis is here .</t>
+  </si>
+  <si>
+    <t>The 2021 updated NDC no longer refers to a peak-plateau-decline (PPD) trajectory. The previous peak-plateau-decline (PPD) trajectory, outlined in South Africa’s South Africa’s Copenhagen Accord pledge, foresaw South Africa reducing GHG emissions to 212–428 MtCO 2 e by 2050 including LULUCF (Department of Environmental Affairs, 2018; Government of South Africa, 2010). South Africa’s Long-Term Strategy submitted to the UNFCCC in October 2020 still refers to this PPD trajectory as a benchmark “in the absence of an agreed quantitative articulation of the vision” (Republic of South Africa, 2020). The CAT no longer considers the previous 2050 target range an official long-term target for South Africa given it is no longer mentioned in the 2021 updated NDC and merely used as a benchmark in the LTS of 2020. South Africa first stated its intention to commit to a net zero CO 2 target (“net zero carbon emissions”) by 2050 as part of a visionary statement in its LTS (Republic of South Africa, 2020). In this context, the National Planning Commission is in the process of developing a common vision for South Africa in 2050 and will subsequently update its Low-Emission Development Strategy. The Just Transition Framework, released by the Presidential Climate Commission in June 2022 and approved by the Cabinet in September 2022, refers to reaching “net-zero greenhouse gas emissions by 2050” (Government of South Africa, 2022b; Presidential Climate Commission, 2022). Given its preliminary nature, and the lack of more detailed information, the CAT currently does not evaluate South Africa’s net zero target. The CAT will do so once further information is communicated by the government.</t>
+  </si>
+  <si>
+    <t>We evaluate the net zero target as: Average. After former President Moon Jae-in announced South Korea’s goal of becoming carbon neutral by 2050, the government also included this commitment in its updated NDC and its Long-Term Strategy (Republic of Korea, 2020, 2021a). The carbon neutrality target is enshrined in law through the Carbon Neutrality Act, which was passed in August 2021 (Ministry of Environment, 2021) and enforced in March 2022 (Ministry of Environment, 2022b). In October 2021, South Korea published two carbon neutrality scenarios that are leading to net zero emissions in 2050 (Republic of Korea, 2021c). Both scenarios aim for coal phase out before 2050 but remain unclear about the exact phase out year. One of the scenarios maintains a share of natural gas, while the other one phases out gas by 2050 as well. South Korea is still not explicit in its coverage of GHGs, and the target review process lacks detail. For the full analysis click here .</t>
+  </si>
+  <si>
+    <t>Switzerland committed to a net-zero target as part of its long-term strategy submitted to the UNFCCC in January 2021, and in June 2023, in the public referendum on Switzerland's Climate Protection Act, Switzerland's net-zero target was enshrined into law (Bundesgesetz Über Die Ziele Im Klimaschutz, Die Innovation Und Die Stärkung Der Energiesicherheit (KlG), 2023). The net-zero target generally covers key elements and now meets good practice for many of them. Switzerland’s net-zero target covers all sectors and gases underpinned by emissions pathway analysis and the communication of clear strategic goals and emissions targets per sector. It also now covers emissions from fuels for international aviation and shipping that are refuelled in Switzerland. The proposed measures aim to achieve net zero on Switzerland’s own territory, but it reserves the right to use international offset credits, even if only for technically unavoidable domestic emissions. Switzerland's new Climate Protection Act, which was accepted in a referendum in June 2023, introduced interim and sectoral targets and requires the parliament to develop periodic roadmaps for achieving the target (Bundesgesetz Über Die Ziele Im Klimaschutz, Die Innovation Und Die Stärkung Der Energiesicherheit (KlG), 2023). Because of these improvements across several key elements, the CAT now evaluates the scope, architecture, and transparency of Switzerland’s net-zero target as ‘Acceptable’. For the full analysis click here .</t>
+  </si>
+  <si>
+    <t>Thailand submitted its revised Long-term Low Greenhouse Gas Emission Development Strategy on 7 November, 2022, which moved the ‘carbon neutrality’ target forward to 2050 and committed to ‘net zero’ emissions by 2065 (ONEP, 2022). This represents an accelerated target from its original ‘carbon neutrality’ target for 2065 submitted to the UNFCCC in October 2021 (Thailand Government, 2021). We evaluate the net zero target as: Average. For details on the analysis, see the Net zero tab .</t>
+  </si>
+  <si>
+    <t>In 2021, Türkiye announced a 2053 net zero target. Since then, Türkiye’s Climate Council released a roadmap to achieve net zero emissions and the government developed a draft climate law. Türkiye was expected to submit a long-term strategy (LTS) to the UNFCCC in 2022, but has not done so. It is now expected to release it at COP29 (Türkiye Today, 2024b). We evaluate the target as: “Poor”. The full net zero target analysis can be found here .</t>
+  </si>
+  <si>
+    <t>In January 2024, the UAE submitted its LTS to the UNFCCC, confirming its target to reach net zero by 2050. The LTS includes several details on the UAE’s target, such as its planned emissions reductions and removals, and sectoral pathways to achieve net zero (Government of the UAE, 2024b). However, the measures planned by the UAE to achieve its target remain problematic, especially due to the continued use of fossil gas for power generation, and the reliance on CCS to reduce a significant share of the country’s emissions. The UAE first announced its intention to reach net zero by 2050 in October 2021 as part of the UAE Net Zero 2050 Strategic Initiative (Reuters, 2021). At COP27, the UAE presented its “National Net Zero by 2050 pathway” with further details. In March 2023, the UAE’s member states signed the UAE Governments Net Zero 2050 Charter , further signalling commitment to reaching net zero (WAM, 2023). We evaluate the net zero target as ‘Average’. For the full analysis click here .</t>
+  </si>
+  <si>
+    <t>We evaluate the net zero target as: “ Acceptable ”. The UK has enshrined the net zero target by 2050 in law by revising and amending the Climate Change Act 2008 in 2019. The Net Zero Strategy released in October 2021 has been submitted to the UNFCCC as the UK’s updated long-term strategy. The net zero target covers most key elements considered important by the CAT to enhance transparency, target architecture, and scope. The UK meets good practice for most of these benchmarks, but some elements remain undefined or lacking. For example, a clear commitment not to use reductions or removals outside of the UK, and providing separate targets for emissions reductions and removals would improve the target architecture of the UK’s net zero target. The UK was the first major economy to establish and pass a legally binding target of net zero emissions by 2050 in 2019 (UK Government, 2019d). The UK’s target covers all sectors and gases and includes emissions from international aviation and shipping. Excluding LULUCF and international aviation and shipping, this corresponds to 2050 emissions of 0 MtCO 2 e/yr as existing residual emissions from agriculture and other sectors such as international aviation are being balanced by CO 2 removal from BECCS, DACCS and other approaches. For this reason, this does not represent a target to reach absolute zero emissions. For the full analysis click here .</t>
+  </si>
+  <si>
+    <t>Viet Nam announced a target to achieve net zero by 2050 target during the COP26 World Leaders' Summit in 2021. In July 2022, Viet Nam reiterated its commitment to reach net zero in the decision approving its National Climate Change Strategy, aimed at guiding its planning to achieve net zero by 2050. Viet Nam’s net zero target is conditional on international financial support. The CAT rates Viet Nam’s target as “Average”. The full net zero target analysis can be found here .</t>
+  </si>
+  <si>
+    <t>In November 2021, Nigeria passed the Climate Change Act that seeks to achieve low greenhouse gas emissions, green and sustainable growth by providing the framework to set a target to reach net zero between 2050 and 2070 (Okereke &amp; Onuigbo, 2021). The Act includes provisions to adopt National Climate Change Action Plans in five-year cycles that are meant to ensure national emissions are consistent with a carbon budget (Federal Republic of Nigeria, 2021). However, the government has not met the initial deadlines set in the Act. The full net zero target analysis can be found here .</t>
+  </si>
+  <si>
+    <t>We evaluate the net zero target as: “Average”. Kazakhstan first announced its intention to reach “carbon neutrality” by 2060 during the Climate Ambition Summit in December 2020. On 2 February 2023, the President of Kazakhstan approved the resultant Strategy for achieving carbon neutrality by 2060 , thereby enshrining the net zero target in law. Kazakhstan has not submitted the strategy as an official long-term strategy (LTS) to the UNFCCC as of November 2023. There is still significant scope for Kazakhstan to improve the transparency, target architecture, and scope of its carbon neutrality target. For the full analysis click here .</t>
+  </si>
+  <si>
+    <t>New 2040 target proposed in February 2024 In February 2024, the European Commission proposed a 2040 target of a 90% net GHG emissions reduction below 1990 levels (European Commission, 2024c). After the elections for the European Parliament, President von der Leyen reaffirmed support for the 90% target (von der Leyen, 2024a), which represents the least ambitious end of the 90-95% range initially recommended by the ESABCC (European Scientific Advisory Board on Climate Change (ESABCC), 2023). Based on the assumptions in the EU’s Impact Assessment for the 2040 target (European Commission, 2024a), we quantify the target as an 85% emissions reduction from 1990 or 660 MtCO 2 e by 2040 (excluding LULUCF but including industrial removals from DACCs and BECCS). This means that the EU will rely on increasing its LULUCF sinks to achieve the remaining 5–10%. The EU seems unlikely to be able to achieve the upper end of the range because even with its most ambitious LULUCF sink the EU would only able to reach a 94% total emissions reduction in 2040 from 1990. Net zero target In April 2021, the European Union adopted its Climate Law, setting into law the objective of collectively achieving “climate neutrality by 2050.” The objective of achieving climate neutrality by 2050, as agreed in the European Council’s conclusions from December 2019, has further been included in the EU’s LTS submitted to the UNFCCC in 2020. The EU’s climate neutrality – or, essentially, net zero – target is “Acceptable” in terms of its architecture, transparency and scope, including a legally-binding review and assessment process. At present, a clear separation of the contributions from emissions reductions versus removals is missing, although this is an element that is required of the forthcoming 2040 target. There is room for improvement in the target’s scope, as the Climate Law currently does not clearly state that international aviation and maritime transport emissions are included, and an explanation of why net zero by 2050 constitutes a fair contribution is lacking. The full analysis is available here .</t>
+  </si>
+  <si>
+    <t>Egypt does not have a net zero target, nor has it submitted a long-term strategy (LTS) to the UNFCCC as of July 2023. Egypt launched its 2050 National Climate Change Strategy in May 2022 but it does not include an emissions reduction target (Government of Egypt, 2022).</t>
+  </si>
+  <si>
+    <t>Ethiopia intends to become carbon neutral without specifying a target year (FDRE, 2015). Ethiopia is in the process of developing a Long-Term Low Emission Development Strategy with support from the Global Green Growth Institute , including developing business as usual and net zero emissions scenarios. We evaluate the target as “Target information incomplete”. For the full analysis, click here .</t>
   </si>
   <si>
     <t>In June 2021, Germany adopted its 2045 net zero target in its revised climate law. The net zero target generally covers all key elements but fails to meet best practice standards for some of them. Germany also falls under the European Union net zero target (CAT, 2024). Germany’s target covers all sectors and gases, underpinned by an emissions pathway to 2040 and the communication of binding sectoral targets until 2030. International aviation and shipping remain outside of the target’s scope. A periodic and legally-binding review process of measures and interim targets by an Expert Council is in place. Germany provides separate reduction and removal targets with regards to LULUCF but remains unclear on any other carbon removal. The net zero target is enshrined in law in Germany’s climate law 2021. The German government has failed to provide explicit and transparent assumptions on some key elements of its net zero target. The proposed measures aim to achieve net zero on Germany’s own territory, but the climate law explicitly reserves the right to use international offset credits. Lastly, Germany also fails to communicate transparent assumptions on carbon storage and removal. For the full analysis click here .</t>
   </si>
   <si>
-    <t>Viet Nam announced a target to achieve net zero by 2050 target during the COP26 World Leaders' Summit in 2021. In July 2022, Viet Nam reiterated its commitment to reach net zero in the decision approving its National Climate Change Strategy, aimed at guiding its planning to achieve net zero by 2050. Viet Nam’s net zero target is conditional on international financial support. The CAT rates Viet Nam’s target as “Average”. The full net zero target analysis can be found here .</t>
-  </si>
-  <si>
     <t>Prime Minister Narendra Modi announced a 2070 net zero target at COP26 in 2021. India submitted its Long-term Strategy for Low Carbon Development (LT-LEDS) at COP27 in 2022 (Government of India, 2022a; Ministry of External Affairs, 2021). See the net zero tab here for further information.</t>
   </si>
   <si>
     <t>We evaluate the net zero target as: Target information incomplete. Indonesia has not yet communicated an explicit net zero target but explores scenarios that could lead to net zero by 2060 or sooner in its long-term strategy (LTS) submitted to the UNFCCC in July 2021 (Government of Indonesia, 2021). The government has made steps in integrating its long-term target into core sectoral planning documents. It is now central in the energy sector’s draft National Electricity Master Plan (RUKN) and JETP Comprehensive Investment and Policy Plan (CIPP), and in the forestry sector's plan for net negative forestry emissions by 2030 (MoEF, 2022; JETP Secretariat, 2023; MEMR, 2023a). The CAT does not yet evaluate Indonesia’s net zero target, given its preliminary nature and lack of more detailed information. We will do so once the government communicates further details. For the full analysis click here .</t>
   </si>
   <si>
-    <t>We evaluate the net zero target as: Poor. In November 2022, Argentina submitted a long-term strategy (LTS) to the UNFCCC that includes a target to reach GHG neutrality by 2050 (Government of Argentina, 2022a). Argentina’s net zero target does not cover most of the good practice elements identified by the CAT net zero methodology . The target explicitly covers all gases and sectors of the economy, but the government fails to disclose other key information such as the role of carbon dioxide removals. Argentina could improve the target architecture and transparency of its net zero target. For example, the government could set separate emission and reduction targets and clarify its accounting methodology for LULUCF. It could further improve transparency on its planning process, the use of tools such as pathway modelling and specific sectoral policy objectives to reach net zero. For the full analysis click here .</t>
-  </si>
-  <si>
-    <t>Bhutan has set an indicative goal of reaching net zero by 2050 (Royal Government of Bhutan 2021). Bhutan first committed to remain carbon neutral during COP15 in 2009. In its second NDC, Bhutan adopted a net zero emissions by 2050 target, which it has already met given it is currently a net negative emitter. However, the NDC does not sufficiently detail how this target will be monitored and not exceeded in the future. The CAT currently does not evaluate Bhutan’s net zero target due to a lack of information. We will update our assessment once more information becomes available. For the full analysis click here .</t>
-  </si>
-  <si>
-    <t>We evaluate the net zero target as: Acceptable. Chile announced its net zero target for 2050 as proposed legislation in the Framework Law on Climate Change in 2020 (President of Chile, 2020) and included it in the updated NDC submitted to the UNFCCC in the same year (Government of Chile, 2020b). In November 2021, the target was also included in the LTS and, since June 2022, it is enshrined in law with the passing of the Framework Law on Climate Change (Congreso Nacional de Chile, 2022). Chile’s net zero target covers most key elements. It covers all sectors and gases, communicates strategic goals and emissions targets per sector, and provides a detailed methodological framework. Notably, Chile underpins these sector-specific ambitions with detailed emissions pathway analyses and budgets. While Chile does not actively outline any plans to rely on reductions and removals outside its borders, future iterations of its NDC could explicitly rule out international credits. Chile could further improve its net zero target by considering good practice standards for a few elements. It could include international aviation and shipping in its target’s scope, and explicitly elaborate on fairness considerations. For the full analysis click here .</t>
-  </si>
-  <si>
-    <t>We evaluate the net-zero target as: Poor . China submitted its Mid-Century Long-Term Low Greenhouse Gas Emission Development Strategy (LTS) on October 28, 2021 to the UNFCCC, which contains the country’s commitment to reach “carbon neutrality before 2060”. The commitment was first declared at the UN General Assembly in September 2020 by President Xi Jinping (FMPRC, 2020). The officially-submitted LTS appears to confirm the commitment covers only carbon dioxide emissions, whereas the CAT had previously assumed the coverage was for all GHGs as claimed by Xie Zhenhua and Tsinghua University. The target is not yet enshrined in an official law but has become a core focus and narrative across all national and subnational planning documents, government notices, and politburo convenings, which was reaffirmed in China’s 2022 “Two Sessions” (Xinhua, 2022). If China’s net zero target was to cover all GHG emissions, its long-term strategy could be within the range of mid-century Paris Agreement compatible emission levels, although compatibility also depends on the shape of the pathway (Yvonne Deng et al. , 2020). Due to the size of China’s emissions, this difference can make up to 0.1°C more (CO 2 only) or less (all GHGs) warming in 2100. Given the LTS submission does not meet the majority of our criteria for a best-practice approach in LTS formulation, we evaluate China’s net-zero target as “Poor”. For the full analysis click here .</t>
-  </si>
-  <si>
-    <t>Colombia has a net zero GHG emissions target by mid-century. In November 2021, Colombia submitted the National Long-Term Strategy ( E2050 ) to the UNFCCC. The Strategy includes different scenarios and pathways and outlines nine strategic initiatives with 48 transformation options to be considered by decision-makers. In December 2021, with the Law No. 2169 (Ley Climatica N°2169, 2021), Colombia promotes the country's low-carbon development through the establishment of minimum targets and measures for carbon neutrality and climate resilience. This enriches the carbon neutrality target into law. The strategy describes the need to carry out mitigation actions in all sectors, intending to reduce GHG emissions by 90%. A reduction of the remaining 10% of emissions will be achieved through land or carbon capture technology to reach net zero. We evaluate Colombia’s net zero target as “acceptable”. The full net zero target analysis can be found here .</t>
-  </si>
-  <si>
-    <t>We evaluate the net zero target as Acceptable. Costa Rica announced a net zero target for 2050 in its National Decarbonisation Plan 2018-2050 (Government of Costa Rica, 2019c). The net zero target covers most key elements but does not meet best practice standards for some of them. Costa Rica’s target covers all sectors and gases underpinned by emissions pathway analysis and the communication of strategic goals and emissions targets per sector. Pathways and key measures are identified comprehensively with interim goals attributable to discernible periods to reach net zero through domestic actions and without the use of international credits. The Costa Rican government does not provide explicit and transparent assumptions on some key elements. For example, Costa Rica provides no information on its intention to establish a formal periodic review cycle of measures and interim targets. To further improve its strategy, Costa Rica could provide separate targets for emission reductions and removals and include emissions from international bunkers. The policy document has also not yet been enshrined in law, which could make targets and measures legally binding and more robust. In 2019, Costa Rica presented its National Decarbonisation Plan 2018-2050 (Government of Costa Rica, 2019c). In this document, Costa Rica sets a national target of net-zero emissions in 2050—emissions including LULUCF—and describes a roadmap towards achieving this target. According to the sectoral breakdown provided in the plan, emissions in 2050 will be 5.5 MtCO 2 e excluding LULUCF. The pathway towards decarbonisation has been modelled as a linear decrease between 2020 and 2050.</t>
-  </si>
-  <si>
-    <t>New 2040 target proposed in February 2024 In February 2024, the European Commission proposed a 2040 target of a 90% net GHG emissions reduction below 1990 levels (European Commission, 2024c). After the elections for the European Parliament, President von der Leyen reaffirmed support for the 90% target (von der Leyen, 2024a), which represents the least ambitious end of the 90-95% range initially recommended by the ESABCC (European Scientific Advisory Board on Climate Change (ESABCC), 2023). Based on the assumptions in the EU’s Impact Assessment for the 2040 target (European Commission, 2024a), we quantify the target as an 85% emissions reduction from 1990 or 660 MtCO 2 e by 2040 (excluding LULUCF but including industrial removals from DACCs and BECCS). This means that the EU will rely on increasing its LULUCF sinks to achieve the remaining 5–10%. The EU seems unlikely to be able to achieve the upper end of the range because even with its most ambitious LULUCF sink the EU would only able to reach a 94% total emissions reduction in 2040 from 1990. Net zero target In April 2021, the European Union adopted its Climate Law, setting into law the objective of collectively achieving “climate neutrality by 2050.” The objective of achieving climate neutrality by 2050, as agreed in the European Council’s conclusions from December 2019, has further been included in the EU’s LTS submitted to the UNFCCC in 2020. The EU’s climate neutrality – or, essentially, net zero – target is “Acceptable” in terms of its architecture, transparency and scope, including a legally-binding review and assessment process. At present, a clear separation of the contributions from emissions reductions versus removals is missing, although this is an element that is required of the forthcoming 2040 target. There is room for improvement in the target’s scope, as the Climate Law currently does not clearly state that international aviation and maritime transport emissions are included, and an explanation of why net zero by 2050 constitutes a fair contribution is lacking. The full analysis is available here .</t>
-  </si>
-  <si>
-    <t>In November 2021, Nigeria passed the Climate Change Act that seeks to achieve low greenhouse gas emissions, green and sustainable growth by providing the framework to set a target to reach net zero between 2050 and 2070 (Okereke &amp; Onuigbo, 2021). The Act includes provisions to adopt National Climate Change Action Plans in five-year cycles that are meant to ensure national emissions are consistent with a carbon budget (Federal Republic of Nigeria, 2021). However, the government has not met the initial deadlines set in the Act. The full net zero target analysis can be found here .</t>
-  </si>
-  <si>
-    <t>Peru is in the process of updating its Climate Change National Strategy with a timeframe up to 2050. This update will be based on a Technical Study commissioned to explore pathways to reach carbon neutrality by 2050. No further details have been communicated so far, but in January 2022, the government declared a climate emergency of national interest through its Supreme Decree N° 003-2022-MINAM and indicated that the new Climate Change strategy will be approved by, latest, October 2022 (Ministry of Environment of Peru, 2022a). Before that, government officials announced that the mid-century carbon neutrality target would be based on four national priorities (Ministry of Environment of Peru, 2020b): Transformation of the energy matrix towards renewable energy Electrification of the economy (less polluting transport, electromobility) Circular economy Nature-based solutions (sustainable use of natural resources). This is a step in the right direction: transitioning to a low-emissions development pathway in compliance with international climate change commitments. However, Peru should avoid relying on LULUCF sinks to achieve its carbon neutrality target, given the high chance of carbon loss through deforestation or natural disturbance and eventual competition for land. For the full analysis click here .</t>
-  </si>
-  <si>
-    <t>The Philippines does not have a net zero or long-term target.</t>
-  </si>
-  <si>
-    <t>Russia approved its ‘Strategy of socio-economic development of the Russian Federation with low greenhouse gas emissions by 2050’ in October 2021 and submitted it to the UNFCCC in September 2022 as its long-term climate strategy (LTS) (Russian Federation, 2021a, 2022c). As part of this strategy, Russia has committed to reaching net zero greenhouse gas (GHG) emissions by 2060. The strategy also includes a target to reduce GHG emissions by 80% below 1990 levels by 2050, leaning heavily on negative emissions from the LULUCF sector, which are projected to more than double between 2030 and 2050, from -539 MtCO 2 e to -1,200 MtCO 2 e. The enormous increase in negative emissions achieved through the land use, land use change and forestry (LULUCF) sector means that steep reductions in emissions from the combustion of fossil fuels would not be necessary to achieve net zero emissions. The steep increase in negative emissions raises questions as to the viability of Russia’s planned approach to reach net zero emissions given emissions from fossil fuel combustion are projected to remain high until 2050. We evaluate the target as “Poor”. For the full analysis click here .</t>
-  </si>
-  <si>
-    <t>We evaluate the target as: Poor. Saudi Crown Prince Mohammed bin Salman announced Saudi Arabia’s net zero target for 2060 at the first Saudi Green Initiative Forum in October 2021 (Kingdom of Saudi Arabia, 2021d). However, the target has yet to be enshrined in law, or in a policy document. As of October 2023, Saudi Arabia has not submitted a long-term strategy to the UNFCCC. Since its initial announcement in 2021, the Saudi government has not provided any further detailed information on scope, target architecture, or transparency. Saudi Arabia has not yet provided a clear emissions reduction pathway to net zero (Kingdom of Saudi Arabia, 2021a). The target’s emission coverage remains unclear with the CAT currently assuming that only CO 2 emissions are being covered based on scarce available information. Saudi Arabia intends to reach its net zero target through the Circular Carbon Economy approach, which relies on the use of CCS. The national oil company Saudi Aramco has committed to reaching net zero operational emissions in 2050. However, most oil and gas emissions come from the combustion of fossil fuels, not their production. Saudi Arabia and Aramco’s net zero targets do not take into account emissions resulting from oil and gas exports. They also do not consider the economic risks associated with a continued reliance on fossil fuels exports in a net zero world (for further details, see the “Oil production” section under “Energy supply” here ). For the full analysis click here .</t>
-  </si>
-  <si>
-    <t>Singapore has committed to net zero GHG emissions by 2050 as part of its Long-Term Low Emissions Development Strategy (LT-LEDS) (National Climate Change Secretariat, 2020, 2022). In its initial Strategy, submitted in 2020, it had set the target year as ‘as soon as viable in the second half of the century’ (National Climate Change Secretariat, 2020). It amended the target year in its 2022 addendum to the strategy, bringing it forward to 2050. Singapore has outlined detailed sector-specific policies and measures targeting power, industry, transport, building and waste, but its Strategy does not provide details on the mitigation potential of those measures, outline an emissions pathway to net zero, nor provide any detail on the extent to which carbon capture, utilisation and storage (CCUS) will be used to achieve the target. The Strategy outlines its support for measures taken to address emissions from international aviation and shipping, though these sectors are not specifically included in its target. No review processes have been established for Singapore’s long-term target. Our full net zero target analysis is here .</t>
-  </si>
-  <si>
-    <t>The 2021 updated NDC no longer refers to a peak-plateau-decline (PPD) trajectory. The previous peak-plateau-decline (PPD) trajectory, outlined in South Africa’s South Africa’s Copenhagen Accord pledge, foresaw South Africa reducing GHG emissions to 212–428 MtCO 2 e by 2050 including LULUCF (Department of Environmental Affairs, 2018; Government of South Africa, 2010). South Africa’s Long-Term Strategy submitted to the UNFCCC in October 2020 still refers to this PPD trajectory as a benchmark “in the absence of an agreed quantitative articulation of the vision” (Republic of South Africa, 2020). The CAT no longer considers the previous 2050 target range an official long-term target for South Africa given it is no longer mentioned in the 2021 updated NDC and merely used as a benchmark in the LTS of 2020. South Africa first stated its intention to commit to a net zero CO 2 target (“net zero carbon emissions”) by 2050 as part of a visionary statement in its LTS (Republic of South Africa, 2020). In this context, the National Planning Commission is in the process of developing a common vision for South Africa in 2050 and will subsequently update its Low-Emission Development Strategy. The Just Transition Framework, released by the Presidential Climate Commission in June 2022 and approved by the Cabinet in September 2022, refers to reaching “net-zero greenhouse gas emissions by 2050” (Government of South Africa, 2022b; Presidential Climate Commission, 2022). Given its preliminary nature, and the lack of more detailed information, the CAT currently does not evaluate South Africa’s net zero target. The CAT will do so once further information is communicated by the government.</t>
-  </si>
-  <si>
-    <t>We evaluate the net zero target as: Average. After former President Moon Jae-in announced South Korea’s goal of becoming carbon neutral by 2050, the government also included this commitment in its updated NDC and its Long-Term Strategy (Republic of Korea, 2020, 2021a). The carbon neutrality target is enshrined in law through the Carbon Neutrality Act, which was passed in August 2021 (Ministry of Environment, 2021) and enforced in March 2022 (Ministry of Environment, 2022b). In October 2021, South Korea published two carbon neutrality scenarios that are leading to net zero emissions in 2050 (Republic of Korea, 2021c). Both scenarios aim for coal phase out before 2050 but remain unclear about the exact phase out year. One of the scenarios maintains a share of natural gas, while the other one phases out gas by 2050 as well. South Korea is still not explicit in its coverage of GHGs, and the target review process lacks detail. For the full analysis click here .</t>
-  </si>
-  <si>
-    <t>Switzerland committed to a net-zero target as part of its long-term strategy submitted to the UNFCCC in January 2021, and in June 2023, in the public referendum on Switzerland's Climate Protection Act, Switzerland's net-zero target was enshrined into law (Bundesgesetz Über Die Ziele Im Klimaschutz, Die Innovation Und Die Stärkung Der Energiesicherheit (KlG), 2023). The net-zero target generally covers key elements and now meets good practice for many of them. Switzerland’s net-zero target covers all sectors and gases underpinned by emissions pathway analysis and the communication of clear strategic goals and emissions targets per sector. It also now covers emissions from fuels for international aviation and shipping that are refuelled in Switzerland. The proposed measures aim to achieve net zero on Switzerland’s own territory, but it reserves the right to use international offset credits, even if only for technically unavoidable domestic emissions. Switzerland's new Climate Protection Act, which was accepted in a referendum in June 2023, introduced interim and sectoral targets and requires the parliament to develop periodic roadmaps for achieving the target (Bundesgesetz Über Die Ziele Im Klimaschutz, Die Innovation Und Die Stärkung Der Energiesicherheit (KlG), 2023). Because of these improvements across several key elements, the CAT now evaluates the scope, architecture, and transparency of Switzerland’s net-zero target as ‘Acceptable’. For the full analysis click here .</t>
-  </si>
-  <si>
-    <t>Thailand submitted its revised Long-term Low Greenhouse Gas Emission Development Strategy on 7 November, 2022, which moved the ‘carbon neutrality’ target forward to 2050 and committed to ‘net zero’ emissions by 2065 (ONEP, 2022). This represents an accelerated target from its original ‘carbon neutrality’ target for 2065 submitted to the UNFCCC in October 2021 (Thailand Government, 2021). We evaluate the net zero target as: Average. For details on the analysis, see the Net zero tab .</t>
-  </si>
-  <si>
-    <t>In 2021, Türkiye announced a 2053 net zero target. Since then, Türkiye’s Climate Council released a roadmap to achieve net zero emissions and the government developed a draft climate law. Türkiye was expected to submit a long-term strategy (LTS) to the UNFCCC in 2022, but has not done so. It is now expected to release it at COP29 (Türkiye Today, 2024b). We evaluate the target as: “Poor”. The full net zero target analysis can be found here .</t>
-  </si>
-  <si>
-    <t>In January 2024, the UAE submitted its LTS to the UNFCCC, confirming its target to reach net zero by 2050. The LTS includes several details on the UAE’s target, such as its planned emissions reductions and removals, and sectoral pathways to achieve net zero (Government of the UAE, 2024b). However, the measures planned by the UAE to achieve its target remain problematic, especially due to the continued use of fossil gas for power generation, and the reliance on CCS to reduce a significant share of the country’s emissions. The UAE first announced its intention to reach net zero by 2050 in October 2021 as part of the UAE Net Zero 2050 Strategic Initiative (Reuters, 2021). At COP27, the UAE presented its “National Net Zero by 2050 pathway” with further details. In March 2023, the UAE’s member states signed the UAE Governments Net Zero 2050 Charter , further signalling commitment to reaching net zero (WAM, 2023). We evaluate the net zero target as ‘Average’. For the full analysis click here .</t>
-  </si>
-  <si>
-    <t>We evaluate the net zero target as: “ Acceptable ”. The UK has enshrined the net zero target by 2050 in law by revising and amending the Climate Change Act 2008 in 2019. The Net Zero Strategy released in October 2021 has been submitted to the UNFCCC as the UK’s updated long-term strategy. The net zero target covers most key elements considered important by the CAT to enhance transparency, target architecture, and scope. The UK meets good practice for most of these benchmarks, but some elements remain undefined or lacking. For example, a clear commitment not to use reductions or removals outside of the UK, and providing separate targets for emissions reductions and removals would improve the target architecture of the UK’s net zero target. The UK was the first major economy to establish and pass a legally binding target of net zero emissions by 2050 in 2019 (UK Government, 2019d). The UK’s target covers all sectors and gases and includes emissions from international aviation and shipping. Excluding LULUCF and international aviation and shipping, this corresponds to 2050 emissions of 0 MtCO 2 e/yr as existing residual emissions from agriculture and other sectors such as international aviation are being balanced by CO 2 removal from BECCS, DACCS and other approaches. For this reason, this does not represent a target to reach absolute zero emissions. For the full analysis click here .</t>
-  </si>
-  <si>
-    <t>We evaluate New Zealand' net zero target as: Poor. New Zealand passed its Climate Change Response (Zero Carbon) Amendment Act in 2019, which sets a target for all greenhouse gases except for biogenic methane – methane from agriculture and waste – to reach net zero by 2050 (Government of New Zealand 2019a). There is a separate target for biogenic methane emissions to be 24-47% below 2017 levels by 2050. The minister of climate change has recommended moving to an all gas net zero target, but the government has not yet acted on this recommendation. In November 2021, New Zealand submitted its Long Term Low Emissions Development Strategy (LTS) to UNFCCC (Ministry for the Environment 2021e). In the LTS, the government has presented a framework for net zero target including five year review cycles with corresponding emissions budgets. The LTS has identified action areas for key sectors without going into details of the emissions reduction potential of those strategies. New Zealand’s net zero target performs poorly in terms of its scope, target architecture and transparency. While the target architecture of New Zealand’s net zero target is relatively strong, it does not follow good practice on a number of elements. In addition to biogenic methane, international aviation and shipping also remain outside the target’s scope, and the government’s reserving of the right to use international offset credits to meet its net zero target in the case of a significant change of circumstance (New Zealand Government 2020a). The full net zero target analysis can be found here .</t>
-  </si>
-  <si>
-    <t>We evaluate the net zero target as: Average. Nepal announced its commitment to achieving carbon neutrality before, or by, 2045, in October 2021. The long-term strategy sets out targets that cover all sectors of the economy – energy, industry process, agriculture, forestry and land use, and waste. However, the LTS only covers CO 2 emissions despite non-CO 2 emissions accounting for 70% of Nepal total emission (excl. LULUCF) in 2021 (Gütschow, Günther and Pflüger, 2022) . The LTS gives two emission reduction scenarios. The first scenario, With Existing Measures (WEM), takes into account the plans and policies implemented and adopted up to 2020, as well as potential adoption in 2030 and 2050. The WEM scenario does not target carbon neutrality, while the With Additional Measures (WAM) scenario does. The WAM scenario includes more ambitious targets; conditional on international support and aims to achieve carbon neutrality by 2045 (Government of Nepal, 2021). In the WEM scenario, net CO 2 emissions will be reduced by 30 MtCO 2 e in 2030 and 50 MtCO 2 e in 2050 [GWP AR5]. In WAM scenario, Nepal’s net CO 2 emissions are projected to be negative from 2020 to 2030 due to a LULUCF carbon sink, then remain around ‘zero’ throughout 2035 to 2045 (Government of Nepal, 2021). The LTS outlines investment in clean energy as the main strategy for emission reductions. It also emphasises the significant role of the LULUCF sector in supporting ‘net negative carbon emissions by 2050’. Both scenarios cover energy efficiency improvement, fuel switching and a strong target for electrification across most sectors (Government of Nepal, 2021). For the full analysis click here</t>
-  </si>
-  <si>
-    <t>In its LTS, the Moroccan government stated its intention to provide sectoral analysis to evaluate Morocco’s capacity to achieve carbon neutrality during the century. Therefore, we assume that Morocco intends to commit to a net zero target (Kingdom of Morocco, 2021c). As of March 2023, a concrete plan and timeline have yet to be released. Given its preliminary nature, and the lack of more detailed information, the CAT currently does not evaluate Morocco’s net zero target. We will do so once further information is communicated.</t>
-  </si>
-  <si>
-    <t>Egypt does not have a net zero target, nor has it submitted a long-term strategy (LTS) to the UNFCCC as of July 2023. Egypt launched its 2050 National Climate Change Strategy in May 2022 but it does not include an emissions reduction target (Government of Egypt, 2022).</t>
-  </si>
-  <si>
-    <t>Ethiopia intends to become carbon neutral without specifying a target year (FDRE, 2015). Ethiopia is in the process of developing a Long-Term Low Emission Development Strategy with support from the Global Green Growth Institute , including developing business as usual and net zero emissions scenarios. We evaluate the target as “Target information incomplete”. For the full analysis, click here .</t>
-  </si>
-  <si>
     <t>As of October 2023, Iran does not have a net zero target, nor has it submitted a long-term strategy (LTS) to the UNFCCC.</t>
   </si>
   <si>
     <t>We evaluate Japan’s net zero target as: “Poor” Japan’s 2050 net-zero target was published in October 2020, which was subsequently integrated into the amended Promotion Act of Global Warming Countermeasures in 2021 (Government of Japan, 2021a). The Green Growth Strategy was accordingly revised in June 2021 to provide further information on sector-level roadmaps towards net zero, which was reflected on Japan’s updated Long Term Strategy submitted before COP26 (Government of Japan, 2021c). However, these documents still lack several details on key elements that ensure effectiveness and transparency of net zero targets and have room for further improvement. For this reason, the CAT rates Japan’s net zero target as “Poor”. For our full Japan net zero analysis click here .</t>
-  </si>
-  <si>
-    <t>We evaluate the net zero target as: “Average”. Kazakhstan first announced its intention to reach “carbon neutrality” by 2060 during the Climate Ambition Summit in December 2020. On 2 February 2023, the President of Kazakhstan approved the resultant Strategy for achieving carbon neutrality by 2060 , thereby enshrining the net zero target in law. Kazakhstan has not submitted the strategy as an official long-term strategy (LTS) to the UNFCCC as of November 2023. There is still significant scope for Kazakhstan to improve the transparency, target architecture, and scope of its carbon neutrality target. For the full analysis click here .</t>
-  </si>
-  <si>
-    <t>We evaluate the net zero target as: No net zero target.</t>
-  </si>
-  <si>
-    <t>Viet Nam submitted its updated Nationally Determined Contribution (NDC) to the UNFCCC in November 2022 (Viet Nam Government, 2022a). This is the second update provided by Viet Nam: it also provided an update in 2020. In the updated NDC, Viet Nam increased its unconditional target to represent a 15.8% reduction below BAU in 2030, and a 43.5% reduction with international support. While numerically stronger, the emissions targets are still “Critically insufficient” and while Viet Nam is on track to achieving its unconditional component with its current policies, it will not drive further climate action. The CAT assessment therefore does not consider Viet Nam’s NDC update to be stronger than its previous submission. In line with its previous NDC, the updated NDC has transparently provided a sectoral breakdown of targets and policies. Viet Nam has also provided the detailed financial requirements to implement those policies to achieve the targets. Most of these measures are already laid out in the National Climate Change Strategy to 2050 (Viet Nam Government, 2022d). The updated NDC has also put forward a detailed implementation plan of the targets by improving policies and institutions, creating awareness and community engagement, capacity and technological development, financial mobility and enhanced international cooperation. A framework for monitoring and evaluation of the targets, which was presented in the previous NDC, is now part of revised Law on Environmental Protection 2020 through a new government regulation. Though measures and implementation in the updated NDC improved on transparency and clarity but with only a minor improvement on ambition. The BAU pathway in the updated NDC remains unchanged from previous 2020 NDC. The BAU scenario is developed based on “medium economic development” without clearly mentioning if it considers the dip in economic activities during pandemic. While Viet Nam has made some improvements to the structure of its NDC, it continued with incomplete gas coverage. Emissions of F-gases are negligible in Viet Nam and the updated NDC does not include full greenhouse gas coverage, excluding NF 3 , PFCs and SF 6 . These were stated as included in the first NDC, however, they are not mentioned in the technical report that underlies the first NDC. * Before September 2021, all CAT ratings were based exclusively on fair share and only assessed a country’s target. ** We have updated these figures to include the latest 2030 BAU estimates to allow for comparability across estimates. Analysis of earlier NDC developments: 11 December 2020: Viet Nam did not increase ambition</t>
-  </si>
-  <si>
-    <t>India’s original NDC had three main mitigation elements: an emissions intensity target, a non-fossil fuel based electric power capacity target and the enhancement of carbon sinks. India strengthened the intensity and non-fossil capacity targets as part of its 2022 NDC update, going from 33-35% to 45% for the intensity target and from 40% to 50% for the non-fossil capacity target. The carbon sink target was unchanged. While the targets are stronger on paper, India will over-achieve them with its current level of climate action and thus the targets will not drive further emissions reductions. The rating of India’s NDC against its fair contribution did improve by one category to “Insufficient” with the update, but its overall CAT rating remained unchanged at “Highly insufficient”. In essence, India replaced its unambitious first mitigation targets with targets close to its current level of climate action. Our estimate for its 2030 emissions based on current policies is consistent with a 49-53% reduction in emissions intensity below 2005 levels and a non-fossil capacity target of more than 60%. Much deeper emissions cuts are needed by 2030 to put India on a 1.5°C pathway, which it will require climate finance to achieve. 500 GW target At COP26, Prime Minister Modi also announced a 500 GW non-fossil capacity target. This target was not included in the official NDC update, but is still referred to in national documents (Ministry of Power, 2022c). Both of our current policy projections include more than 500 GW of non-fossil capacity in 2030, thus this target will not drive any additional real-world action. Lifestyle changes India has long stressed the importance of lifestyle changes to achieve climate friendly development. In its first NDC, it committed to propagating ‘a healthy and sustainable way of living based on traditions and values of conservation and moderation’. It has expanded this commitment in its updated NDC to include ‘a mass movement for ‘LIFE’– ‘Lifestyle for Environment’’. In October 2022, it launched "Mission LiFE" to promote sustainable and healthy lifestyle and seeks to mobilise at least a billion people by 2028 (NITI Aayog, 2022). Due to the diverse and varied nature of individual measures, we have not quantified this aspect of the NDC. Target development timeline &amp; previous CAT analysis 01 November 2021: India announced revised NDC target in COP26</t>
-  </si>
-  <si>
-    <t>Indonesia submitted its enhanced NDC to the UNFCCC on 23 September 2022. While numerically stronger, it can still be easily met with current policies and will not drive further climate action. We therefore do not consider Indonesia's target to be stronger than its predecessor. The 2022 NDC increased the unconditional target from 29% to 32% below its business-as-usual scenario (BAU), and its conditional target from 41% to 43% below its BAU, including emissions from land use, land use change and forestry (LULUCF). Indonesia’s relative reductions below BAU are not as ambitious as they sound, for two reasons. First, Indonesia aims to meet a large share of its commitments through emission reductions in the forestry sector. The sector is expected to contribute almost 60% of the emissions reductions necessary to meet both conditional and unconditional NDC targets. This means that other sectors will see substantially lower relative reductions below BAU. The BAU used in the NDC projects emissions that are substantially above current policy projections. Indonesia will likely achieve its targets (excl. forestry) without any additional efforts, while almost doubling today’s emissions. In August 2024, the Indonesian government released a draft of its Second Nationally Determined Contribution (NDC), introducing a new target for 2035 and a slight adjustment to the 2030 goal. The draft has been forwarded to Parliament (DPR: Dewan Perwakilan Rakyat ) but has not yet been formally submitted to the UNFCCC; its submission is expected by Q1 2025. Until then, we cannot incorporate the draft into our rating assessment. A preliminary analysis of Indonesia’s revised climate goals is available on the Climate Action Tracker blog , highlighting both positive developments alongside some red flags. The Indonesian government has also issued implementing regulations, for example, the Ministry of Environment and Forestry Regulation (MoEF/KLHK: Kementerian Lingkungan Hidup dan Kehutanan ) No. 12 of 2024, laying out frameworks to support its new climate targets and further operationalise the previously enacted Presidential Regulation No. 98 of 2021 on the implementation of carbon pricing. * Before September 2021, all CAT ratings were based exclusively on fair share and only assessed a country’s target Target development timeline &amp; previous CAT analysis ● 23.07.2021 Indonesia improves long-term planning towards net zero, but NDC remains unchanged ● 20.04.2020 Indonesia government wants to focus on existing targets - media reports</t>
-  </si>
-  <si>
-    <t>Australia submitted a stronger target to the UNFCCC in June 2022 (Australian Government, 2022). The new target is a 43% reduction of greenhouse gas emissions by 2030 below 2005 levels, including LULUCF. The target will be implemented as both an absolute target and an emissions budget for the period 2021-2030. The 2022 NDC reaffirms Australia’s target to achieve net zero emissions by 2050. The objective has been enshrined into law by the Climate Change Act adopted in 2022. The NDC also indicates it will make adjustments for “internationally transferred mitigation outcomes” in line with Article 6 of the Paris Agreement, indicating it is also open to using international carbon credits. At present, the detailed rules and quality standards for making use of Article 6 as an ambition raising mechanism are still pending, making it difficult to assess whether they can offer a meaningful contribution to emissions reductions. Regardless, Australia should first improve its NDC target and climate finance contributions to align with a 1.5°C Paris Agreement compatible pathway and focus on reducing its domestic emissions, instead of relying on international carbon credits to meet its climate targets. Comparison 2030 NDC Targets * Before September 2021, all CAT ratings were based exclusively on fair share and only assessed a country’s target Target development timeline &amp; previous CAT analysis 11.09.2019 “ Australian Prime Minister Morrison unwilling to commit to a new target ” 12.05.2020 “Australian Government confirms there will be no target update for COP26” 31.12.2020 “Australia repeats old target with no increase in ambition” 28.10.2021 “Australia did not increase ambition”</t>
-  </si>
-  <si>
-    <t>On 9 April 2020, the Chilean government officially submitted its updated NDC (Government of Chile, 2020a), which is more ambitious than its first NDC submitted to the UNFCCC in 2017 and also slightly more ambitious than an earlier 2019 draft NDC. We rate both Chile’s conditional 2030 NDC target against modelled domestic pathways and its unconditional target against its fair-share contributions to be “Almost sufficient”. Chile needs to make some improvements to its targets if it aims to become compatible with the Paris Agreement’s 1.5° limit. According to our calculations, by implementing all its current policies, Chile has already peaked its emissions ahead of the proposed peak year of 2025 ─ which would be a remarkable achievement and makes the country a frontrunner in climate action. Under this scenario, the GHG emissions budget between 2020 and 2030 would be in line with the GHG emissions budget of 1,100 presented in the 2020 NDC, according to our calculations. The updated NDC is stronger in various ways: It has a target of 95 MtCO2e in 2030, which is 2 MtCO2e lower than the 2019 draft NDC and significantly lower than the emissions that would have resulted from the 2017 unconditional target (131 MtCO2e); It includes an updated goal to peak GHG emissions by 2025, two years earlier than the previous draft; It includes an updated GHG emissions budget to 2030, which is smaller than the original draft. Both the unconditional and conditional NDCs include the following three targets for the LULUCF sector: Sustainable management and recovery of 200,000 hectares of native forest, equivalent to GHG emissions capture between 0.9 and 1.2 MtCO2e/year by 2030; Reforestation of 200,000 hectares of forest, from which at least half correspond to permanent forest coverage, from which at least 70,000 hectares should be native species. This is equivalent to GHG emissions capture of 3–3.4 MtCO2e/year by 2030; Reduce emissions from deforestation and land degradation of native forest by 25% by 2030 compared to average emissions between 2001–2013. Target development timeline &amp; previous CAT analysis 16.10.2019 “Chile submitted a draft NDC update in 2019” 09.04.2020 “Chile submitted an NDC update”</t>
-  </si>
-  <si>
-    <t>In its updated NDC submission from October 2023, the EU kept the same headline target of reducing emissions by at least 55% below 1990 levels by 2030 (incl. LULUCF and international aviation) as in its submission from December 2020 (Spain and the European Commission, 2023). The updated NDC has increased the EU’s target for LULUCF removals to 310 MtCO 2 e up from 225 MtCO 2 e. The increase in the LULUCF sink is what enables the EU to assert that it will overachieve its 55% target (European Parliament, 2022). However, if the EU were to use the additional 85 MtCO 2 e towards achieving its 2030 target – rather than the 225 MtCO 2 e referenced in the European Climate Law – then this would decrease the emissions reductions needed in other sectors. The CAT does not view this submission as representing an increase in ambition. Other than the increase in the LULUCF sink, the most recent EU NDC update includes a summary of regulatory developments, and the main domestic policies adopted in view of the new climate target agreed to in December 2020. It also clarifies that only CO 2 emissions from flights within the European Economic Area, departing flights to Switzerland and departing flights to the United Kingdom are included in the target. Based on this clarification, the CAT considers international aviation to be included in the EU’s NDC, but not international maritime emissions. Please see the Assumptions tab for more details on the quantification of the EU’s 2030 NDC. The EU had previously submitted an update to its NDC in December 2020 (Germany &amp; European Commission, 2020). The 2020 update provided a strengthened 2030 emissions reduction target of “at least 55%” compared to the first NDC’s target of “at least 40%” (Latvia and the European Commission, 2015). The inclusion of the land sector slightly weakens this target compared to its 2016 NDC, however, the inclusion of aviation strengthens it. According to the Commission’s modelling reflecting the “Fit for 55” package, the EU’s emissions would amount to 2.2 GtCO 2 e in 2030, excluding LULUCF and international aviation [1] (European Commission, 2021a). As of the end of 2023, the EU has all the “Fit for 55” legislative framework in place to meet its “at least 55%” target. These policies still fall short of the domestic reductions needed to be consistent with limiting warming to 1.5°C. Domestic emission reductions of at least 62% (excl. LULUCF and international aviation) from 1990 are needed to make the EU’s effort compatible with 1.5°C, while currently the EU’s target results in a 52% (excl. LULUCF and international aviation) reduction from 1990. The EU is expected to submit an updated NDC with a target for 2035 at COP30 in 2025, but will likely folllowing the adoption of its 2040 target. Based on modelled domestic pathways, the CAT would recommend a 2035 emissions reduction target of at least 74% excluding LULUCF, or a 78% reduction including LULUCF below 1990 levels, along with substantially increased climate finance. The European Commission suggests deriving the EU’s 2035 NDC from a linear trajectory between its 2030 and 2040 targets. The CAT would advocate for a non-linear trajectory based on 1.5°C compatible pathways, as delayed climate action only makes limiting warming to 1.5°C more difficult. [1] The numbers provided in the scenario use Global Warming Potential from IPCC AR5. For the sake of comparability with other countries assessed by the Climate Action Tracker the number 2.256 MtCO 2 e is translated to AR4 resulting in 2.244 MtCO 2 e. * Before September 2021, all CAT ratings were based exclusively on fair share and only assessed a country’s target. Target development timeline &amp; previous CAT analysis 21.05.2024: EU's Green Deal improved its climate performance: a 1.5°C pathway is close 06.02.2024: EU Commission's proposed 2040 target not quite 1.5°C compatible, pre-2030 action is key 06.02.2024: EU CAT Assessment 18.12.2020: EU Member states submitted to the UNFCCC a stronger 2030 domestic emissions target 11.12.2020: EU Member states agreed on a stronger 2030 domestic emissions target</t>
-  </si>
-  <si>
-    <t>On December 18, 2020 Peru submitted an updated NDC to the UNFCCC that represents progress beyond its previous submission but that is still incompatible with limiting global warming to 2˚C above pre-industrial levels, let alone with the Paris Agreement’s 1.5°C limit. The regulation of the framework law on climate change (approved at the end of 2019), makes Peru’s Paris Agreement pledge legally binding (SINIA, 2020). With its new target, Peru commits to limiting emissions to about 123 MtCO 2 e (excl. LULUCF) by 2030, according to our calculations. This is an improvement compared to its first submission in two ways: it leads to 6% lower emissions level by 2030 and it has changed its format from a reduction below BAU to an absolute emissions reduction target. Peru’s submission also includes a conditional 2030 target which, according to our calculations, limits emissions to about 107 MtCO 2 e (excl. LULUCF) by 2030, conditional to access to international climate finance (Gobierno del Peru, 2020). This represents a step forward compared to the first submission, leading to an 8% lower emissions level by 2030 and increasing the target format’s strength from a reduction below BAU to an absolute emissions reduction target. No further details have been provided for the conditional target (e.g., sectoral contributions to the target), making it difficult to assess. The new NDC provides fewer details than the previous one in terms of the expected emissions reduction contribution of each sector and, more importantly, of the LULUCF sector (Gobierno del Peru, 2020). In general, Peru should avoid relying on LULUCF sinks to achieve its climate targets as much as possible, given the high chance of carbon loss through deforestation or natural disturbance and eventual competition for land. Additionally, the new NDC states that Peru will update its Climate Change National Strategy with a timeframe up to 2050. The updated strategy, its objectives and main indicators are currently undergoing public consultation (as of August, 2022) and the final document is expected to be approved by the government by, at the latest, October 2022 (Ministry of Environment of Peru, 2022a, 2022b). According to our calculations, the new unconditional NDC target could be reached with the implementation of current policies , without the need for additional, more ambitious policies. This highlights a missed opportunity for Peru to increase its climate action and set realistically achievable but ambitious targets that are aligned with the temperature goal of the Paris Agreement. The increase in mitigation ambition of the new NDC is not enough to improve Peru’s rating. The CAT rates both Peru’s unconditional and conditional targets, as “Insufficient”. * Before September 2021, all CAT ratings were based exclusively on fair share and only assessed a country’s target. Target development timeline &amp; previous CAT analysis 18.12.2020 “ Peru’s updated NDC with an absolute emissions reduction target for 2030 and a net zero target for 2050 "</t>
-  </si>
-  <si>
-    <t>Saudi Arabia submitted its updated NDC on 23 October 2021, increasing the 2030 emissions reduction target from 130 MtCO 2 e in the first NDC to 278 MtCO 2 e in the updated one. The 2021 NDC lists the following mitigation measures: Energy efficiency, particularly in the industry, buildings, and transport sectors Renewable energy in the power sector, making up 50% of the electricity mix by 2030, and to generate green hydrogen A switch from oil to gas in the electricity sector Zero flaring in the oil and gas industry Carbon capture utilisation and storage (CCUS), coupled with blue hydrogen As Saudi Arabia has not yet communicated the business as usual (BAU) range for its NDC target, we quantified the target based on a business as usual scenario developed by the King Abdullah Petroleum Studies and Research Center (KAPSARC) (KAPSARC, 2021), a Saudi-based organisation. The lower end of the BAU range reflects the KAPSARC BAU scenario, excluding land use, land use change and forestry (LULUCF). For the upper end of the range, we have assumed that LULUCF measures would contribute 200 MtCO 2 e of the total 278 MtCO 2 e emissions reductions in the NDC. This number is based on the announcements made at the Saudi Green Initiative Forum in 2021. However, in 2012, the latest year for which national data is available, the land use and forestry sink stood at just 9 MtCO 2 e (UNFCCC, 2020), with forests covering a mere 0.5% of Saudi Arabia’s total land area in 2021 (World Bank, 2023). Based on this BAU range, and due to the uncertainties around the contributions of emissions reductions from land use and forestry, we project Saudi Arabia’s NDC emissions level to be anywhere between ~520–800 MtCO 2 e in 2030, excluding LULUCF. This represents an approximate change of –24% to +14% compared to 2021 levels. We do not consider the updated NDC target to be an increase in ambition compared to the previous target, as the median of the NDC range remains lower than Saudi Arabia’s emissions trajectory based on current policies. * Before September 2021, all CAT ratings were based exclusively on fair share and only assessed a country’s target. Target development timeline &amp; previous CAT analysis 04.11.2021 : Updated NDC</t>
-  </si>
-  <si>
-    <t>South Africa submitted a submitted a stronger target on 27 September 2021. The updated NDC strengthened the country’s target range for 2030: the upper end is now 31% lower and the lower end 12% lower than in the previous, 2016, NDC. The government followed the recommendations of the South African Presidential Climate Commission from June 2021. The multi-stakeholder group established by President Ramaphosa provided advice on the country’s NDC update, proposing stronger 2030 targets, going beyond a first draft NDC published for public consultation in March 2021. While the updated 2021 NDC increased South Africa’s climate ambition towards 2030 and increased clarity, transparency and understanding, the target range is not yet fully aligned with the 1.5˚C temperature goal. The 2021 NDC no longer makes reference to a peak-plateau-decline (PPD) trajectory, which foresaw South Africa’s emissions plateauing for approximately a decade between 2025 and 2035 and then declining in absolute terms towards 2050 (Government of South Africa, 2016). * Please refer to the ‘ Assumptions ’ section for more details on the CAT’s assumptions on GWP used by South Africa. ** Before September 2021, all CAT ratings were based exclusively on fair share. Target development timeline &amp; previous CAT analysis 27.09.2021 – South Africa’s updated NDC increases its climate ambition and transparency, although not yet sufficient to be in line with Paris Agreement temperature goal 16.07.2021 – South Africa's Presidential climate commission recommends stronger mitigation target range for updated NDC: close to 1.5°C compatible 30.03.2021 – South Africa’s updated NDC draft increases its climate ambition and transparency, although very likely not yet sufficient to be in line Paris Agreement temperature goal</t>
-  </si>
-  <si>
-    <t>The UAE submitted a 2035 NDC target to the UNFCCC on 06 November 2024. The CAT’s analysis of the UAE’s 2035 NDC target can be found here . The UAE submitted a stronger 2030 NDC target to the UNFCCC on 11 July 2023. While the UAE needs to put forward substantially improved climate policies to reach the NDC, it is an improvement on the former NDC in the following ways: It includes strengthened emissions reduction target—to limit emissions to 182 MtCO 2 e by 2030 (including LULUCF), down from 208 MtCO 2 e (Government of the UAE, 2023a). The target is now expressed as an absolute emissions limit. The previous target was a reduction below a business as usual (BAU) scenario. The NDC provides sectoral targets for the electricity and water generation, industry, transport, buildings, waste and agriculture sub-sectors. It includes details of the policies and measures planned to achieve the sectoral targets, a step forward in transparency. We have estimated this new unconditional target will result in an emissions level of 185 MtCO 2 e by 2030 (excluding LULUCF), a 12% improvement compared to the previous target of 211 MtCO 2 e (excluding LULUCF). The target covers all sectors of the economy and major greenhouse gases—CO 2 , CH 4 and N 2 O. The CAT’s calculation of the UAE’s 2030 NDC target also includes PFCs, sulphur hexafluoride (SF 6 ) and HFCs which are not covered by the target. For this calculation, the CAT assumes that F-gases remain constant from the last available historical data point (2021). In its latest National Communication to the UNFCCC, the UAE reported its latest GHG inventory covering the years 1994, 2000, 2005, 2014 and 2021. The F-gases value for 2021 is 0.15 MtCO 2 e in AR4 (Government of the UAE, 2024a). This new target represents a targeted decrease in emissions of 14% below 2022 levels (excl. LULUCF). The NDC mentions many of the policies and strategies that underpin the 2030 target. This includes the UAE’s National Energy Strategy 2050 , which aims for 44% of renewable and 6% of nuclear energy in installed electric capacity by 2050, while reducing final electricity demand by 42–45% (Government of the UAE, 2023b). This strategy was recently updated to remove its previous target of 12% of coal capacity by 2050, which is now replaced by an increased fossil gas capacity from 38% to 50%. This updated strategy continues to be inconsistent with the need to reach net-zero CO 2 emissions globally by 2050 , due to the continued long-term reliance on fossil gas (Government of the UAE, 2023b). The UAE reserves the option to use carbon credits for emission reductions abroad under Article 6 of the Paris Agreement to offset its own domestic emissions to achieve its NDC target (Government of the UAE, 2023a). Although it has not yet announced any firm details of how it will secure carbon credits towards its climate targets (either the NDC or net zero), a privately owned Emirati company called Blue Carbon has recently made headlines for its carbon credit deals. Since its inception in 2022, the company has signed MOU's with the governments of Liberia, Tanzania, Zambia and Zimbabwe to acquire conservation rights for around 60 million acres of their forests, to generate carbon credits from projects avoiding deforestation, and sell them on the market (Pearce, 2023). Details on how the government of the UAE intends to purchase credits from Blue Carbon or other similar providers to support claims to offset its own emissions are unclear. This ambiguity presents major risks that the UAE will seek to use carbon credits with questionable integrity as a smokescreen to justify continuing its trajectory of maintaining high levels of domestic emissions. The use of credits under Article 6 of the Paris Agreement should complement and not serve to distract from or displace critically needed mitigation efforts domestically. The UAE’s 2030 NDC submitted in 2023 shows an increase in ambition and has improved its transparency by sharing sectoral targets and more details on the measures planned to achieve them. However, the UAE’s current plans for its oil and gas industry and its power sector continue to be incompatible with its ambition to reach net zero by 2050. Comparison of 2030 NDC targets * Before September 2021, all CAT ratings were based exclusively on fair share and only assessed a country’s target. Target development timeline &amp; previous CAT analysis 29.12.2020 The UAE submits an updated NDC with first economy-wide emissions reduction target for 2030</t>
-  </si>
-  <si>
-    <t>2030 NDC targets On 12 December 2020, the UK submitted its first updated NDC to the UNFCCC after leaving the European Union. This NDC commits the UK to reducing GHG emissions to 68% below 1990 levels by 2030. This represents a significant strengthening from the UK’s previous 2030 commitment, which was to reduce emissions by 57% below 1990 levels. The UK’s NDC is now aligned with its 2050 target of achieving net zero GHG emissions, according to analysis by the CCC (CCC, 2020). The UK’s NDC is not fully aligned with 1.5°C when compared to global least-cost modelled domestic pathways. This represents a downgrade from previous CAT analyses (from 2022 and earlier), due to the use of more recent global pathways aligned with 1.5ºC. A further strengthening of the UK’s NDC is therefore necessary to align with the latest evidence coming from least-cost modelled 1.5°C compatible domestic pathways. Strengthening the UK’s NDC would also better enable the UK to embody the principles of equity and common but differentiated responsibilities and respective capabilities that are central to the Paris Agreement. Analysis has shown that an emissions reductions target of up to 70% (CCC, 2020) and towards 75% would be achievable (WWF, 2020). However, each day of delay makes achieving deep emission reductions much more challenging. The UK revisited and updated its NDC on 23 September 2022 (Government of the UK, 2022). The UK did not strengthen the overall GHG emissions reductions target, as requested by the Glasgow Climate Pact agreed at COP26 under the UK’s presidency. It did, however, provide a range of additional information to increase clarity, transparency and understanding. This includes information on how the UK will deliver its NDC by 2030, how it will assess the NDC’s achievement, an update on the NDC’s territorial scope (which includes the Crown Territory of Jersey and Overseas Dependency of Gibraltar), and more information on how the UK’s climate targets relate to broader goals around gender, green skills, a just transition, biodiversity, health, air pollution and public engagement. However, without strengthening the level of ambition in its NDC and providing increased levels of climate finance to support emissions reductions in less wealthy countries, the UK will be unable to improve its rating on the Climate Action Tracker. * Before September 2021, all CAT ratings were based exclusively on fair share and only assessed a country’s target. Target development timeline &amp; previous CAT analysis : 12.12.2020: UK submits ambitious NDC to UNFCCC 03.12.2020: UK announces NDC in advance of Climate Ambition Summit</t>
-  </si>
-  <si>
-    <t>In its updated NDC New Zealand increased its emissions reduction target to 50% below 2005 level including LULUCF emissions, from the previous target of 30%. The updated NDC target is stronger than the previous target by 20 percentage points. This moves the rating of the target against modelled pathways from “Insufficient” to “Almost sufficient” and against fair share from “Critically insufficient” to “Insufficient”. The new target equates to around 51 MtCO 2 e/yr by 2030 excluding LULUCF. This is equivalent to 21% below 1990 levels by 2030. A fair share target would require New Zealand to nearly halve this target to 31 MtCO 2 e/yr by 2030, or 47 MtCO 2 e/yr for a 1.5°C modelled domestic pathway. While the target is expressed as a ‘point in time’ target, the announcement indicates New Zealand will manage its NDC as a multi-year emissions budget of 595 MtCO 2 e (AR5) for 2022-2035, which has also raised questions as it is unclear how it relates to the target (Ministry for the Environment 2022c). * Before September 2021, all CAT ratings were based exclusively on fair share and only assessed a country’s target. Analysis of earlier NDC developments 22 April 2020: New Zealand commits to no new climate action in Earth Day NDC update 12 November 2021: New Zealand submitted a stronger NDC target</t>
-  </si>
-  <si>
-    <t>Morocco’s updated NDC, submitted on 22 June 2021, strengthened its 2030 target, improving it in two ways. First, both the unconditional and conditional 2030 emissions reduction targets were revised to be more ambitious—from 17% to 18.3% below the business as usual (BAU) scenario for the unconditional target and from 42% to 45.5% for the conditional one. Morocco also revised downwards the BAU scenario, to which the reduction targets are applied. For the unconditional target, this leads to 21% lower emissions (excl. LULUCF) in 2030 compared to the first NDC submission, and 29% for the conditional target. * Before September 2021, all CAT ratings were based exclusively on fair share and only assessed a country’s target. Target development timeline &amp; previous CAT analysis 22.07.2021 – Morocco leads the way with a new, more ambitious NDC.</t>
-  </si>
-  <si>
-    <t>Egypt submitted its second updated NDC on 26 June 2023 (Government of Egypt, 2023). This update is exactly the same as the previous, 2022, submission , with the exception of the revised renewable energy target. Egypt has now committed to achieving 42% of renewable energy in its generation mix by 2030, five years earlier than under the previous NDC. Consequently, Egypt strengthened its emissions reduction target in the power sector by 10 MtCO 2 e or 14% compared to the previous target. However, since this revised target is the only modification, the overall impact of this NDC update remains minor. The new NDC target is conditional on international support and Egypt still does not have an unconditional emissions reduction target. The CAT estimates Egypt can easily achieve this target – even without international support – and should therefore substantially strengthen it. The new NDC still does not include an economy-wide emissions target but instead includes emissions reductions to be achieved in the following sub-sectors: electricity, transport and oil &amp; gas. By 2030, Egypt pledges to the following emissions levels in these sectors: Electricity: 134* MtCO 2 e (down from a business-as-usual scenario of 215* MtCO 2 e) Transport: 115* MtCO 2 e (down from a business-as-usual scenario of 124* MtCO 2 e) Oil &amp; gas production (associated gases sub-sector): 1.1 MtCO 2 e 1 (down from a business-as-usual scenario of 3.1 MtCO 2 e 2 ) *NOTE: The figures used in Egypt’s NDC use global warming potential values from the IPCC’s Second Assessment Report (SAR). We have not converted the values from electricity and transport to AR4 values as CO 2 is the dominant gas (see the Assumptions section for further details). These three sectors accounted for 43% of Egypt’s total GHG emissions 3 in 2015, the baseline year. In total, Egypt pledges to reduce emissions by 92 MtCO 2 e compared to a business-as-usual pathway in these sectors. The revised target for the electricity sector is more ambitious than the previous one , as Egypt aims to reach it five years earlier and clarifies that it pertains to the share of electricity generation rather than capacity. Egypt also lists measures for the industry, buildings, tourism and waste sectors but does not commit to specific emissions reductions. The agriculture and land use sectors are excluded from mitigation action in the NDC. We estimate the conditional NDC target would lead to emissions increasing from around 345 MtCO 2 today to 496–512 MtCO 2 e in 2030. The emissions level resulting from this target is well above what we project Egypt’s emissions trajectory to be with the policies it has implemented. Emissions for the electricity and transport sectors would increase by 52% and 140%, respectively, between 2015 and 2030. Egypt has not communicated its BAU scenario, making it difficult to quantify the overall emissions level resulting from the NDC. We have estimated a BAU scenario using the values provided for electricity, transport and oil &amp; gas and estimating emissions for the remaining sectors using historical trends. The upper end of our target range is based on the quantified reductions for the three sub-sectors only. For the lower end, we also estimated some of the emissions reductions for the policies and measures proposed for the industry and buildings sector. For more details on our calculations, please refer to the assumptions section . 1 0.89 MtCO 2 e in SAR GWP, as expressed in the original NDC document. See Assumptions section for further details on conversion. 2 2.6 MtCO 2 e in SAR GWP, as expressed in the original NDC document. See Assumptions section for further details on conversion. 3 Expressed in AR4 Global Warming Potential. Egypt’s NDC, expressed in SAR GWP, states these sectors accounted for 43% of total emissions in 2015. Target development timeline &amp; previous CAT analysis 28.03.2022 First NDC 08.08.2022 First NDC update</t>
-  </si>
-  <si>
-    <t>Kazakhstan did not increase the ambition of its unconditional or conditional emission reduction target in its first NDC update, submitted to the UNFCCC on 27 June 2023 (Republic of Kazakhstan, 2023c). The government retained economy-wide emission reduction targets for 2030 of 15% and 25% (incl. LULUCF) relative to 1990 base year, equivalent to 318 and 280 MtCO 2 e (excl. LULUCF), respectively. The updated NDC does include significantly more detail, including on existing and planned institutional arrangements, some consideration of challenges relating to fairness and ambition of the target, and includes adaptation for the first time. It also indicates that efforts are underway to harmonise Kazakhstan’s net zero strategy with the next NDC update and low-emissions development plan. * Before September 2021, all CAT ratings were based exclusively on fair share and only assessed a country’s target</t>
   </si>
 </sst>
 </file>
@@ -1135,7 +1158,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1154,7 +1177,191 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1183,7 +1390,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1191,7 +1398,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1199,223 +1406,223 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1423,15 +1630,15 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1439,7 +1646,7 @@
         <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1447,7 +1654,7 @@
         <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1455,15 +1662,15 @@
         <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1471,7 +1678,7 @@
         <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1479,7 +1686,7 @@
         <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1508,7 +1715,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1516,300 +1723,15 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>145</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1817,95 +1739,239 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
